--- a/数据库SQL.xlsx
+++ b/数据库SQL.xlsx
@@ -51,8 +51,8 @@
   </si>
   <si>
     <t xml:space="preserve">
-CREATE USER {ownerName} IDENTIFIED BY {doubleQuotationMarksPack(ownerPassword)};
-GRANT dba,resource,connect TO {ownerName};
+CREATE USER {doubleQuotationMarksPack(ownerName)} IDENTIFIED BY {doubleQuotationMarksPack(ownerPassword)};
+GRANT DBA TO {doubleQuotationMarksPack(ownerName)};
 </t>
   </si>
   <si>
@@ -448,7 +448,168 @@
   </si>
   <si>
     <t xml:space="preserve">
-CREATE USER {ownerName} WITH PASSWORD {sqlValuePack(ownerPassword)};
+CREATE USER {ownerName} IDENTIFIED BY {doubleQuotationMarksPack(ownerPassword)};
+GRANT dba,resource,connect TO {ownerName};
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT
+    SCHEMA_NAME ownerName,
+    DEFAULT_CHARACTER_SET_NAME ownerCharacterSetName,
+    DEFAULT_COLLATION_NAME ownerCollationName
+FROM information_schema.schemata
+ORDER BY SCHEMA_NAME
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT
+    SCHEMA_NAME ownerName,
+    DEFAULT_CHARACTER_SET_NAME ownerCharacterSetName,
+    DEFAULT_COLLATION_NAME ownerCollationName
+FROM information_schema.schemata
+WHERE SCHEMA_NAME={sqlValuePack(ownerName)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CREATE DATABASE [IF NOT EXISTS] {ownerNamePack}
+[CHARACTER SET {ownerCharacterSetName}]
+[COLLATE {ownerCollationName}]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DROP DATABASE IF EXISTS {ownerNamePack}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT
+    TABLE_NAME tableName,
+    TABLE_COMMENT tableComment,
+    TABLE_SCHEMA ownerName
+FROM information_schema.tables
+WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
+ORDER BY TABLE_NAME
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT
+    TABLE_NAME tableName,
+    TABLE_COMMENT tableComment,
+    TABLE_SCHEMA ownerName
+FROM information_schema.tables
+WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
+  AND TABLE_NAME={sqlValuePack(tableName)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CREATE TABLE [{ownerNamePack}.]{tableNamePack}(
+{ tableCreateColumnContent }
+{ tableCreatePrimaryKeyContent }
+)[CHARACTER SET {tableCharacterSetName}]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)} [COMMENT {sqlValuePack(columnComment)}]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DROP TABLE IF EXISTS [{ownerNamePack}.]{tableNamePack}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ALTER TABLE [{ownerNamePack}.]{tableNamePack} COMMENT {sqlValuePack(tableComment)}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ALTER TABLE [{ownerNamePack}.]{oldTableNamePack} RENAME AS {tableNamePack}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT
+    COLUMN_NAME columnName,
+    COLUMN_COMMENT columnComment,
+    COLUMN_DEFAULT columnDefault,
+    EXTRA columnExtra,
+    TABLE_NAME tableName,
+    TABLE_SCHEMA ownerName,
+    CHARACTER_SET_NAME columnCharacterSetName,
+    IS_NULLABLE isNullable,
+    DATA_TYPE columnDataType,
+    COLUMN_TYPE columnType,
+    DATETIME_PRECISION DATETIME_PRECISION,
+    NUMERIC_PRECISION NUMERIC_PRECISION,
+    NUMERIC_SCALE NUMERIC_SCALE,
+    CHARACTER_MAXIMUM_LENGTH CHARACTER_MAXIMUM_LENGTH
+FROM information_schema.columns
+WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
+  AND TABLE_NAME={sqlValuePack(tableName)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT
+    COLUMN_NAME columnName,
+    COLUMN_COMMENT columnComment,
+    COLUMN_DEFAULT columnDefault,
+    EXTRA columnExtra,
+    TABLE_NAME tableName,
+    TABLE_SCHEMA ownerName,
+    CHARACTER_SET_NAME columnCharacterSetName,
+    IS_NULLABLE isNullable,
+    DATA_TYPE columnDataType,
+    COLUMN_TYPE columnType
+FROM information_schema.columns
+WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
+  AND TABLE_NAME={sqlValuePack(tableName)}
+  AND COLUMN_NAME={sqlValuePack(columnName)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ALTER TABLE [{ownerNamePack}.]{tableNamePack} ADD COLUMN {columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)} [COMMENT {sqlValuePack(columnComment)}] [AFTER {columnAfterColumnPack}]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ALTER TABLE [{ownerNamePack}.]{tableNamePack} CHANGE COLUMN {oldColumnNamePack} {columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)} [COMMENT {sqlValuePack(columnComment)}] [AFTER {columnAfterColumnPack}]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT
+    t1.INDEX_NAME indexName,
+    t1.COLUMN_NAME columnName,
+    t1.INDEX_COMMENT indexComment,
+    t1.NON_UNIQUE nonUnique,
+    t1.TABLE_NAME tableName,
+    t1.TABLE_SCHEMA ownerName,
+    t2.CONSTRAINT_TYPE
+FROM information_schema.statistics t1
+LEFT JOIN information_schema.table_constraints t2 
+ON (t2.CONSTRAINT_NAME=t1.INDEX_NAME AND t2.TABLE_SCHEMA=t1.TABLE_SCHEMA AND t2.TABLE_NAME=t1.TABLE_NAME)
+WHERE t1.TABLE_SCHEMA={sqlValuePack(ownerName)}
+  AND t1.TABLE_NAME={sqlValuePack(tableName)}
+  AND (t2.CONSTRAINT_TYPE !='PRIMARY KEY' OR t2.CONSTRAINT_TYPE = '' OR t2.CONSTRAINT_TYPE IS NULL)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ALTER TABLE [{ownerNamePack}.]{tableNamePack} ADD {indexType} [{indexNamePack}] ({columnNamesPack}) [COMMENT {sqlValuePack(indexComment)}]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ALTER TABLE [{ownerNamePack}.]{tableNamePack} DROP INDEX {indexNamePack}
 </t>
   </si>
   <si>
@@ -549,169 +710,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}.]{tableNamePack} DROP INDEX {indexNamePack}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-CREATE USER {doubleQuotationMarksPack(ownerName)} IDENTIFIED BY {doubleQuotationMarksPack(ownerPassword)};
-GRANT DBA TO {doubleQuotationMarksPack(ownerName)};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT
-    SCHEMA_NAME ownerName,
-    DEFAULT_CHARACTER_SET_NAME ownerCharacterSetName,
-    DEFAULT_COLLATION_NAME ownerCollationName
-FROM information_schema.schemata
-ORDER BY SCHEMA_NAME
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT
-    SCHEMA_NAME ownerName,
-    DEFAULT_CHARACTER_SET_NAME ownerCharacterSetName,
-    DEFAULT_COLLATION_NAME ownerCollationName
-FROM information_schema.schemata
-WHERE SCHEMA_NAME={sqlValuePack(ownerName)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-CREATE DATABASE [IF NOT EXISTS] {ownerNamePack}
-[CHARACTER SET {ownerCharacterSetName}]
-[COLLATE {ownerCollationName}]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-DROP DATABASE IF EXISTS {ownerNamePack}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT
-    TABLE_NAME tableName,
-    TABLE_COMMENT tableComment,
-    TABLE_SCHEMA ownerName
-FROM information_schema.tables
-WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
-ORDER BY TABLE_NAME
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT
-    TABLE_NAME tableName,
-    TABLE_COMMENT tableComment,
-    TABLE_SCHEMA ownerName
-FROM information_schema.tables
-WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
-  AND TABLE_NAME={sqlValuePack(tableName)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-CREATE TABLE [{ownerNamePack}.]{tableNamePack}(
-{ tableCreateColumnContent }
-{ tableCreatePrimaryKeyContent }
-)[CHARACTER SET {tableCharacterSetName}]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)} [COMMENT {sqlValuePack(columnComment)}]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}.]{tableNamePack} COMMENT {sqlValuePack(tableComment)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}.]{oldTableNamePack} RENAME AS {newTableNamePack}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-DROP TABLE IF EXISTS [{ownerNamePack}.]{tableNamePack}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT
-    COLUMN_NAME columnName,
-    COLUMN_COMMENT columnComment,
-    COLUMN_DEFAULT columnDefault,
-    EXTRA columnExtra,
-    TABLE_NAME tableName,
-    TABLE_SCHEMA ownerName,
-    CHARACTER_SET_NAME columnCharacterSetName,
-    IS_NULLABLE isNullable,
-    DATA_TYPE columnDataType,
-    COLUMN_TYPE columnType,
-    DATETIME_PRECISION DATETIME_PRECISION,
-    NUMERIC_PRECISION NUMERIC_PRECISION,
-    NUMERIC_SCALE NUMERIC_SCALE,
-    CHARACTER_MAXIMUM_LENGTH CHARACTER_MAXIMUM_LENGTH
-FROM information_schema.columns
-WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
-  AND TABLE_NAME={sqlValuePack(tableName)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT
-    COLUMN_NAME columnName,
-    COLUMN_COMMENT columnComment,
-    COLUMN_DEFAULT columnDefault,
-    EXTRA columnExtra,
-    TABLE_NAME tableName,
-    TABLE_SCHEMA ownerName,
-    CHARACTER_SET_NAME columnCharacterSetName,
-    IS_NULLABLE isNullable,
-    DATA_TYPE columnDataType,
-    COLUMN_TYPE columnType
-FROM information_schema.columns
-WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
-  AND TABLE_NAME={sqlValuePack(tableName)}
-  AND COLUMN_NAME={sqlValuePack(columnName)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}.]{tableNamePack} ADD COLUMN {columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)} [COMMENT {sqlValuePack(columnComment)}] [AFTER {columnAfterColumnPack}]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}.]{tableNamePack} CHANGE COLUMN {oldColumnNamePack} {columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)} [COMMENT {sqlValuePack(columnComment)}] [AFTER {columnAfterColumnPack}]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT
-    t1.INDEX_NAME indexName,
-    t1.COLUMN_NAME columnName,
-    t1.INDEX_COMMENT indexComment,
-    t1.NON_UNIQUE nonUnique,
-    t1.TABLE_NAME tableName,
-    t1.TABLE_SCHEMA ownerName,
-    t2.CONSTRAINT_TYPE
-FROM information_schema.statistics t1
-LEFT JOIN information_schema.table_constraints t2 
-ON (t2.CONSTRAINT_NAME=t1.INDEX_NAME AND t2.TABLE_SCHEMA=t1.TABLE_SCHEMA AND t2.TABLE_NAME=t1.TABLE_NAME)
-WHERE t1.TABLE_SCHEMA={sqlValuePack(ownerName)}
-  AND t1.TABLE_NAME={sqlValuePack(tableName)}
-  AND (t2.CONSTRAINT_TYPE !='PRIMARY KEY' OR t2.CONSTRAINT_TYPE = '' OR t2.CONSTRAINT_TYPE IS NULL)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}.]{tableNamePack} ADD {indexType} [{indexNamePack}] ({columnNamesPack}) [COMMENT {sqlValuePack(indexComment)}]
+CREATE USER {ownerName} WITH PASSWORD {sqlValuePack(ownerPassword)};
 </t>
   </si>
   <si>
@@ -1150,7 +1149,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1517,7 +1516,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -1546,7 +1545,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -1575,7 +1574,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -1604,7 +1603,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -1760,7 +1759,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -1789,7 +1788,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -1818,7 +1817,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -1847,7 +1846,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -1905,7 +1904,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
@@ -1934,7 +1933,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="2"/>
@@ -1963,7 +1962,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="2"/>
@@ -2044,7 +2043,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -2073,7 +2072,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -2102,7 +2101,7 @@
         <v>31</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
@@ -2214,7 +2213,7 @@
         <v>39</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
@@ -2486,7 +2485,7 @@
         <v>50</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>
@@ -2515,7 +2514,7 @@
         <v>52</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="2"/>
@@ -2544,7 +2543,7 @@
         <v>54</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="2"/>
@@ -6678,7 +6677,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -12451,7 +12450,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>83</v>
+        <v>6</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -19713,7 +19712,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -25422,7 +25421,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -25454,7 +25453,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -25688,7 +25687,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -25720,7 +25719,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -25848,7 +25847,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
@@ -25910,7 +25909,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="2"/>
@@ -26000,7 +25999,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -26032,7 +26031,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -26064,7 +26063,7 @@
         <v>31</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
@@ -26308,7 +26307,7 @@
         <v>43</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -26490,7 +26489,7 @@
         <v>50</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>
@@ -26522,7 +26521,7 @@
         <v>52</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="2"/>
@@ -26554,7 +26553,7 @@
         <v>54</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="2"/>

--- a/数据库SQL.xlsx
+++ b/数据库SQL.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="126" uniqueCount="126">
   <si>
     <t>库|模式|所属者</t>
   </si>
@@ -29,10 +29,12 @@
   </si>
   <si>
     <t xml:space="preserve">
-SELECT 
-	USERNAME ownerName
-FROM DBA_USERS 
-ORDER BY USERNAME
+SELECT
+    SCHEMA_NAME ownerName,
+    DEFAULT_CHARACTER_SET_NAME ownerCharacterSetName,
+    DEFAULT_COLLATION_NAME ownerCollationName
+FROM information_schema.schemata
+ORDER BY SCHEMA_NAME
 </t>
   </si>
   <si>
@@ -40,10 +42,12 @@
   </si>
   <si>
     <t xml:space="preserve">
-SELECT 
-	USERNAME ownerName
-FROM DBA_USERS 
-WHERE USERNAME={sqlValuePack(ownerName)}
+SELECT
+    SCHEMA_NAME ownerName,
+    DEFAULT_CHARACTER_SET_NAME ownerCharacterSetName,
+    DEFAULT_COLLATION_NAME ownerCollationName
+FROM information_schema.schemata
+WHERE SCHEMA_NAME={sqlValuePack(ownerName)}
 </t>
   </si>
   <si>
@@ -51,8 +55,9 @@
   </si>
   <si>
     <t xml:space="preserve">
-CREATE USER {doubleQuotationMarksPack(ownerName)} IDENTIFIED BY {doubleQuotationMarksPack(ownerPassword)};
-GRANT DBA TO {doubleQuotationMarksPack(ownerName)};
+CREATE DATABASE [IF NOT EXISTS] {ownerNamePack}
+[CHARACTER SET {ownerCharacterSetName}]
+[COLLATE {ownerCollationName}]
 </t>
   </si>
   <si>
@@ -60,7 +65,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-DROP USER {ownerName} CASCADE
+DROP DATABASE IF EXISTS {ownerNamePack}
 </t>
   </si>
   <si>
@@ -71,11 +76,13 @@
   </si>
   <si>
     <t xml:space="preserve">
-SELECT 
-	TABLE_NAME tableName,
-	OWNER ownerName
-FROM ALL_TABLES
-WHERE OWNER={sqlValuePack(ownerName)}
+SELECT
+    TABLE_NAME tableName,
+    TABLE_COMMENT tableComment,
+    TABLE_SCHEMA ownerName
+FROM information_schema.tables
+WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
+ORDER BY TABLE_NAME
 </t>
   </si>
   <si>
@@ -83,11 +90,12 @@
   </si>
   <si>
     <t xml:space="preserve">
-SELECT 
-	TABLE_NAME tableName,
-	OWNER ownerName
-FROM ALL_TABLES
-WHERE OWNER={sqlValuePack(ownerName)}
+SELECT
+    TABLE_NAME tableName,
+    TABLE_COMMENT tableComment,
+    TABLE_SCHEMA ownerName
+FROM information_schema.tables
+WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
   AND TABLE_NAME={sqlValuePack(tableName)}
 </t>
   </si>
@@ -99,7 +107,7 @@
 CREATE TABLE [{ownerNamePack}.]{tableNamePack}(
 { tableCreateColumnContent }
 { tableCreatePrimaryKeyContent }
-)
+)[CHARACTER SET {tableCharacterSetName}]
 </t>
   </si>
   <si>
@@ -107,7 +115,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-	{columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)}
+	{columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)} [COMMENT {sqlValuePack(columnComment)}]
 </t>
   </si>
   <si>
@@ -123,7 +131,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-DROP TABLE [{ownerNamePack}.]{tableNamePack}
+DROP TABLE IF EXISTS [{ownerNamePack}.]{tableNamePack}
 </t>
   </si>
   <si>
@@ -131,15 +139,14 @@
   </si>
   <si>
     <t xml:space="preserve">
-COMMENT ON TABLE [{ownerNamePack}.]{tableNamePack} IS {sqlValuePack(tableComment)}
-</t>
+ALTER TABLE [{ownerNamePack}.]{tableNamePack} COMMENT {sqlValuePack(tableComment)}</t>
   </si>
   <si>
     <t>TableRename</t>
   </si>
   <si>
     <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}.]{oldTableNamePack} RENAME TO {tableNamePack}
+ALTER TABLE [{ownerNamePack}.]{oldTableNamePack} RENAME AS {tableNamePack}
 </t>
   </si>
   <si>
@@ -150,22 +157,24 @@
   </si>
   <si>
     <t xml:space="preserve">
-SELECT 
-	t.COLUMN_NAME columnName,
-	t.DATA_DEFAULT columnDefault,
-	t.CHARACTER_SET_NAME columnCharacterSetName,
-	t.NULLABLE isNullable,
-	t.DATA_TYPE columnDataType,
-	t.DATA_LENGTH,
-	t.DATA_PRECISION,
-	t.DATA_SCALE,
-	tc.COMMENTS columnComment,
-	t.TABLE_NAME tableName,
-	t.OWNER ownerName
-FROM ALL_TAB_COLUMNS t
-LEFT JOIN ALL_COL_COMMENTS tc ON(tc.OWNER=t.OWNER AND tc.TABLE_NAME=t.TABLE_NAME AND tc.COLUMN_NAME=t.COLUMN_NAME)
-WHERE t.OWNER={sqlValuePack(ownerName)}
-    AND t.TABLE_NAME={sqlValuePack(tableName)}
+SELECT
+    COLUMN_NAME columnName,
+    COLUMN_COMMENT columnComment,
+    COLUMN_DEFAULT columnDefault,
+    EXTRA columnExtra,
+    TABLE_NAME tableName,
+    TABLE_SCHEMA ownerName,
+    CHARACTER_SET_NAME columnCharacterSetName,
+    IS_NULLABLE isNullable,
+    DATA_TYPE columnDataType,
+    COLUMN_TYPE columnType,
+    DATETIME_PRECISION DATETIME_PRECISION,
+    NUMERIC_PRECISION NUMERIC_PRECISION,
+    NUMERIC_SCALE NUMERIC_SCALE,
+    CHARACTER_MAXIMUM_LENGTH CHARACTER_MAXIMUM_LENGTH
+FROM information_schema.columns
+WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
+  AND TABLE_NAME={sqlValuePack(tableName)}
 </t>
   </si>
   <si>
@@ -173,23 +182,21 @@
   </si>
   <si>
     <t xml:space="preserve">
-SELECT 
-	t.COLUMN_NAME columnName,
-	t.DATA_DEFAULT columnDefault,
-	t.CHARACTER_SET_NAME columnCharacterSetName,
-	t.NULLABLE isNullable,
-	t.DATA_TYPE columnDataType,
-	t.DATA_LENGTH,
-	t.DATA_PRECISION,
-	t.DATA_SCALE,
-	tc.COMMENTS columnComment,
-	t.TABLE_NAME tableName,
-	t.OWNER ownerName
-FROM ALL_TAB_COLUMNS t
-LEFT JOIN ALL_COL_COMMENTS tc ON(tc.OWNER=t.OWNER AND tc.TABLE_NAME=t.TABLE_NAME AND tc.COLUMN_NAME=t.COLUMN_NAME)
-WHERE t.OWNER={sqlValuePack(ownerName)}
-    AND t.TABLE_NAME={sqlValuePack(tableName)}
-    AND t.COLUMN_NAME={sqlValuePack(columnName)}
+SELECT
+    COLUMN_NAME columnName,
+    COLUMN_COMMENT columnComment,
+    COLUMN_DEFAULT columnDefault,
+    EXTRA columnExtra,
+    TABLE_NAME tableName,
+    TABLE_SCHEMA ownerName,
+    CHARACTER_SET_NAME columnCharacterSetName,
+    IS_NULLABLE isNullable,
+    DATA_TYPE columnDataType,
+    COLUMN_TYPE columnType
+FROM information_schema.columns
+WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
+  AND TABLE_NAME={sqlValuePack(tableName)}
+  AND COLUMN_NAME={sqlValuePack(columnName)}
 </t>
   </si>
   <si>
@@ -197,7 +204,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}.]{tableNamePack} ADD {columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)}
+ALTER TABLE [{ownerNamePack}.]{tableNamePack} ADD COLUMN {columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)} [COMMENT {sqlValuePack(columnComment)}] [AFTER {columnAfterColumnPack}]
 </t>
   </si>
   <si>
@@ -212,24 +219,14 @@
     <t>ColumnComment</t>
   </si>
   <si>
-    <t xml:space="preserve">
-COMMENT ON COLUMN [{ownerNamePack}.]{tableNamePack}.{columnNamePack} IS {sqlValuePack(columnComment)}
-</t>
-  </si>
-  <si>
     <t>ColumnRename</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}.]{tableNamePack} RENAME COLUMN {oldColumnNamePack} TO {columnNamePack}
-</t>
   </si>
   <si>
     <t>ColumnUpdate</t>
   </si>
   <si>
     <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}.]{tableNamePack} MODIFY {columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)}
+ALTER TABLE [{ownerNamePack}.]{tableNamePack} CHANGE COLUMN {oldColumnNamePack} {columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)} [COMMENT {sqlValuePack(columnComment)}] [AFTER {columnAfterColumnPack}]
 </t>
   </si>
   <si>
@@ -243,15 +240,16 @@
   </si>
   <si>
     <t xml:space="preserve">
-SELECT 
-    t1.COLUMN_NAME columnName,
-    t2.TABLE_NAME tableName,
-    t2.OWNER ownerName
-FROM ALL_CONS_COLUMNS t1
-LEFT JOIN ALL_CONSTRAINTS t2 ON (t2.CONSTRAINT_NAME = t1.CONSTRAINT_NAME)
-WHERE t2.OWNER={sqlValuePack(ownerName)}
-	AND t2.TABLE_NAME={sqlValuePack(tableName)}
-	AND t2.CONSTRAINT_TYPE = 'P'
+SELECT
+    t2.COLUMN_NAME columnName,
+    t1.TABLE_NAME tableName,
+    t1.TABLE_SCHEMA ownerName
+FROM information_schema.table_constraints t1
+LEFT JOIN information_schema.key_column_usage t2 
+ON (t2.CONSTRAINT_NAME=t1.CONSTRAINT_NAME AND t2.TABLE_SCHEMA=t1.TABLE_SCHEMA AND t2.TABLE_NAME=t1.TABLE_NAME)
+WHERE t1.TABLE_SCHEMA={sqlValuePack(ownerName)}
+  AND t1.TABLE_NAME={sqlValuePack(tableName)}
+  AND t1.CONSTRAINT_TYPE='PRIMARY KEY'
 </t>
   </si>
   <si>
@@ -278,6 +276,194 @@
   </si>
   <si>
     <t xml:space="preserve">
+SELECT
+    t1.INDEX_NAME indexName,
+    t1.COLUMN_NAME columnName,
+    t1.INDEX_COMMENT indexComment,
+    t1.NON_UNIQUE nonUnique,
+    t1.TABLE_NAME tableName,
+    t1.TABLE_SCHEMA ownerName,
+    t2.CONSTRAINT_TYPE
+FROM information_schema.statistics t1
+LEFT JOIN information_schema.table_constraints t2 
+ON (t2.CONSTRAINT_NAME=t1.INDEX_NAME AND t2.TABLE_SCHEMA=t1.TABLE_SCHEMA AND t2.TABLE_NAME=t1.TABLE_NAME)
+WHERE t1.TABLE_SCHEMA={sqlValuePack(ownerName)}
+  AND t1.TABLE_NAME={sqlValuePack(tableName)}
+  AND (t2.CONSTRAINT_TYPE !='PRIMARY KEY' OR t2.CONSTRAINT_TYPE = '' OR t2.CONSTRAINT_TYPE IS NULL)
+</t>
+  </si>
+  <si>
+    <t>IndexAdd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ALTER TABLE [{ownerNamePack}.]{tableNamePack} ADD {indexType} [{indexNamePack}] ({columnNamesPack}) [COMMENT {sqlValuePack(indexComment)}]
+</t>
+  </si>
+  <si>
+    <t>IndexDelete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ALTER TABLE [{ownerNamePack}.]{tableNamePack} DROP INDEX {indexNamePack}
+</t>
+  </si>
+  <si>
+    <t>IndexNamePack</t>
+  </si>
+  <si>
+    <t>外键</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT 
+	USERNAME ownerName
+FROM DBA_USERS 
+ORDER BY USERNAME
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT 
+	USERNAME ownerName
+FROM DBA_USERS 
+WHERE USERNAME={sqlValuePack(ownerName)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CREATE USER {ownerName} WITH PASSWORD {sqlValuePack(ownerPassword)};
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DROP USER {ownerName} CASCADE
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT 
+	TABLE_NAME tableName,
+	OWNER ownerName
+FROM ALL_TABLES
+WHERE OWNER={sqlValuePack(ownerName)}
+ORDER BY TABLE_NAME 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT 
+	TABLE_NAME tableName,
+	OWNER ownerName
+FROM ALL_TABLES
+WHERE OWNER={sqlValuePack(ownerName)}
+  AND TABLE_NAME={sqlValuePack(tableName)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CREATE TABLE [{ownerNamePack}.]{tableNamePack}(
+{ tableCreateColumnContent }
+{ tableCreatePrimaryKeyContent }
+)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DROP TABLE [{ownerNamePack}.]{tableNamePack}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+COMMENT ON TABLE [{ownerNamePack}.]{tableNamePack} IS {sqlValuePack(tableComment)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ALTER TABLE [{ownerNamePack}.]{oldTableNamePack} RENAME TO {tableNamePack}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT 
+	t.COLUMN_NAME columnName,
+	t.DATA_DEFAULT columnDefault,
+	t.CHARACTER_SET_NAME columnCharacterSetName,
+	t.NULLABLE isNullable,
+	t.DATA_TYPE columnDataType,
+	t.DATA_LENGTH,
+	t.DATA_PRECISION,
+	t.DATA_SCALE,
+	tc.COMMENTS columnComment,
+	t.TABLE_NAME tableName,
+	t.OWNER ownerName
+FROM ALL_TAB_COLUMNS t
+LEFT JOIN ALL_COL_COMMENTS tc ON(tc.OWNER=t.OWNER AND tc.TABLE_NAME=t.TABLE_NAME AND tc.COLUMN_NAME=t.COLUMN_NAME)
+WHERE t.OWNER={sqlValuePack(ownerName)}
+    AND t.TABLE_NAME={sqlValuePack(tableName)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT 
+	t.COLUMN_NAME columnName,
+	t.DATA_DEFAULT columnDefault,
+	t.CHARACTER_SET_NAME columnCharacterSetName,
+	t.NULLABLE isNullable,
+	t.DATA_TYPE columnDataType,
+	t.DATA_LENGTH,
+	t.DATA_PRECISION,
+	t.DATA_SCALE,
+	tc.COMMENTS columnComment,
+	t.TABLE_NAME tableName,
+	t.OWNER ownerName
+FROM ALL_TAB_COLUMNS t
+LEFT JOIN ALL_COL_COMMENTS tc ON(tc.OWNER=t.OWNER AND tc.TABLE_NAME=t.TABLE_NAME AND tc.COLUMN_NAME=t.COLUMN_NAME)
+WHERE t.OWNER={sqlValuePack(ownerName)}
+    AND t.TABLE_NAME={sqlValuePack(tableName)}
+    AND t.COLUMN_NAME={sqlValuePack(columnName)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ALTER TABLE [{ownerNamePack}.]{tableNamePack} ADD {columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+COMMENT ON COLUMN [{ownerNamePack}.]{tableNamePack}.{columnNamePack} IS {sqlValuePack(columnComment)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ALTER TABLE [{ownerNamePack}.]{tableNamePack} RENAME COLUMN {oldColumnNamePack} TO {columnNamePack}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ALTER TABLE [{ownerNamePack}.]{tableNamePack} MODIFY {columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT 
+    t1.COLUMN_NAME columnName,
+    t2.TABLE_NAME tableName,
+    t2.OWNER ownerName
+FROM ALL_CONS_COLUMNS t1
+LEFT JOIN ALL_CONSTRAINTS t2 ON (t2.CONSTRAINT_NAME = t1.CONSTRAINT_NAME)
+WHERE t2.OWNER={sqlValuePack(ownerName)}
+	AND t2.TABLE_NAME={sqlValuePack(tableName)}
+	AND t2.CONSTRAINT_TYPE = 'P'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 SELECT 
     t1.INDEX_NAME indexName,
     t1.COLUMN_NAME columnName,
@@ -293,26 +479,14 @@
 </t>
   </si>
   <si>
-    <t>IndexAdd</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 CREATE {indexType} [{indexNamePack}] ON [{ownerNamePack}.]{tableNamePack} ({columnNamesPack})
 </t>
   </si>
   <si>
-    <t>IndexDelete</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 DROP INDEX {indexNamePack}
 </t>
-  </si>
-  <si>
-    <t>IndexNamePack</t>
-  </si>
-  <si>
-    <t>外键</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -407,20 +581,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-SELECT
-    t2.COLUMN_NAME columnName,
-    t1.TABLE_NAME tableName,
-    t1.TABLE_SCHEMA ownerName
-FROM information_schema.table_constraints t1
-LEFT JOIN information_schema.key_column_usage t2 
-ON (t2.CONSTRAINT_NAME=t1.CONSTRAINT_NAME AND t2.TABLE_SCHEMA=t1.TABLE_SCHEMA AND t2.TABLE_NAME=t1.TABLE_NAME)
-WHERE t1.TABLE_SCHEMA={sqlValuePack(ownerName)}
-  AND t1.TABLE_NAME={sqlValuePack(tableName)}
-  AND t1.CONSTRAINT_TYPE='PRIMARY KEY'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
 SELECT 
     t1.INDEX_NAME indexName,
     t1.COLUMN_NAME columnName,
@@ -454,163 +614,12 @@
   </si>
   <si>
     <t xml:space="preserve">
-SELECT
-    SCHEMA_NAME ownerName,
-    DEFAULT_CHARACTER_SET_NAME ownerCharacterSetName,
-    DEFAULT_COLLATION_NAME ownerCollationName
-FROM information_schema.schemata
-ORDER BY SCHEMA_NAME
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT
-    SCHEMA_NAME ownerName,
-    DEFAULT_CHARACTER_SET_NAME ownerCharacterSetName,
-    DEFAULT_COLLATION_NAME ownerCollationName
-FROM information_schema.schemata
-WHERE SCHEMA_NAME={sqlValuePack(ownerName)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-CREATE DATABASE [IF NOT EXISTS] {ownerNamePack}
-[CHARACTER SET {ownerCharacterSetName}]
-[COLLATE {ownerCollationName}]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-DROP DATABASE IF EXISTS {ownerNamePack}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT
-    TABLE_NAME tableName,
-    TABLE_COMMENT tableComment,
-    TABLE_SCHEMA ownerName
-FROM information_schema.tables
-WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
-ORDER BY TABLE_NAME
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT
-    TABLE_NAME tableName,
-    TABLE_COMMENT tableComment,
-    TABLE_SCHEMA ownerName
-FROM information_schema.tables
-WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
-  AND TABLE_NAME={sqlValuePack(tableName)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-CREATE TABLE [{ownerNamePack}.]{tableNamePack}(
-{ tableCreateColumnContent }
-{ tableCreatePrimaryKeyContent }
-)[CHARACTER SET {tableCharacterSetName}]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)} [COMMENT {sqlValuePack(columnComment)}]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-DROP TABLE IF EXISTS [{ownerNamePack}.]{tableNamePack}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}.]{tableNamePack} COMMENT {sqlValuePack(tableComment)}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}.]{oldTableNamePack} RENAME AS {tableNamePack}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT
-    COLUMN_NAME columnName,
-    COLUMN_COMMENT columnComment,
-    COLUMN_DEFAULT columnDefault,
-    EXTRA columnExtra,
-    TABLE_NAME tableName,
-    TABLE_SCHEMA ownerName,
-    CHARACTER_SET_NAME columnCharacterSetName,
-    IS_NULLABLE isNullable,
-    DATA_TYPE columnDataType,
-    COLUMN_TYPE columnType,
-    DATETIME_PRECISION DATETIME_PRECISION,
-    NUMERIC_PRECISION NUMERIC_PRECISION,
-    NUMERIC_SCALE NUMERIC_SCALE,
-    CHARACTER_MAXIMUM_LENGTH CHARACTER_MAXIMUM_LENGTH
-FROM information_schema.columns
-WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
-  AND TABLE_NAME={sqlValuePack(tableName)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT
-    COLUMN_NAME columnName,
-    COLUMN_COMMENT columnComment,
-    COLUMN_DEFAULT columnDefault,
-    EXTRA columnExtra,
-    TABLE_NAME tableName,
-    TABLE_SCHEMA ownerName,
-    CHARACTER_SET_NAME columnCharacterSetName,
-    IS_NULLABLE isNullable,
-    DATA_TYPE columnDataType,
-    COLUMN_TYPE columnType
-FROM information_schema.columns
-WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
-  AND TABLE_NAME={sqlValuePack(tableName)}
-  AND COLUMN_NAME={sqlValuePack(columnName)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}.]{tableNamePack} ADD COLUMN {columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)} [COMMENT {sqlValuePack(columnComment)}] [AFTER {columnAfterColumnPack}]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}.]{tableNamePack} CHANGE COLUMN {oldColumnNamePack} {columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)} [COMMENT {sqlValuePack(columnComment)}] [AFTER {columnAfterColumnPack}]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT
-    t1.INDEX_NAME indexName,
-    t1.COLUMN_NAME columnName,
-    t1.INDEX_COMMENT indexComment,
-    t1.NON_UNIQUE nonUnique,
-    t1.TABLE_NAME tableName,
-    t1.TABLE_SCHEMA ownerName,
-    t2.CONSTRAINT_TYPE
-FROM information_schema.statistics t1
-LEFT JOIN information_schema.table_constraints t2 
-ON (t2.CONSTRAINT_NAME=t1.INDEX_NAME AND t2.TABLE_SCHEMA=t1.TABLE_SCHEMA AND t2.TABLE_NAME=t1.TABLE_NAME)
-WHERE t1.TABLE_SCHEMA={sqlValuePack(ownerName)}
-  AND t1.TABLE_NAME={sqlValuePack(tableName)}
-  AND (t2.CONSTRAINT_TYPE !='PRIMARY KEY' OR t2.CONSTRAINT_TYPE = '' OR t2.CONSTRAINT_TYPE IS NULL)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}.]{tableNamePack} ADD {indexType} [{indexNamePack}] ({columnNamesPack}) [COMMENT {sqlValuePack(indexComment)}]
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}.]{tableNamePack} DROP INDEX {indexNamePack}
-</t>
+SELECT 
+	TABLE_NAME tableName,
+	OWNER ownerName
+FROM ALL_TABLES
+WHERE OWNER={sqlValuePack(ownerName)}
+ORDER BY TABLE_NAME </t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -710,7 +719,8 @@
   </si>
   <si>
     <t xml:space="preserve">
-CREATE USER {ownerName} WITH PASSWORD {sqlValuePack(ownerPassword)};
+CREATE USER {doubleQuotationMarksPack(ownerName)} IDENTIFIED BY {doubleQuotationMarksPack(ownerPassword)};
+GRANT DBA TO {doubleQuotationMarksPack(ownerName)};
 </t>
   </si>
   <si>
@@ -1149,7 +1159,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1477,16 +1487,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -1516,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -1545,7 +1555,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -1574,7 +1584,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -1603,7 +1613,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -1759,7 +1769,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -1788,7 +1798,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -1817,7 +1827,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -1846,7 +1856,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -1904,7 +1914,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
@@ -1933,7 +1943,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="2"/>
@@ -1962,7 +1972,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="2"/>
@@ -2043,7 +2053,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -2072,7 +2082,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -2101,7 +2111,7 @@
         <v>31</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
@@ -2183,7 +2193,7 @@
     <row r="26">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -2210,10 +2220,10 @@
     <row r="27">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
@@ -2239,7 +2249,7 @@
     <row r="28">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -2315,13 +2325,13 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -2347,10 +2357,10 @@
     <row r="32">
       <c r="A32" s="5"/>
       <c r="B32" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="2"/>
@@ -2376,10 +2386,10 @@
     <row r="33">
       <c r="A33" s="5"/>
       <c r="B33" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="2"/>
@@ -2479,13 +2489,13 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>
@@ -2511,10 +2521,10 @@
     <row r="38">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="2"/>
@@ -2540,10 +2550,10 @@
     <row r="39">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="2"/>
@@ -2569,7 +2579,7 @@
     <row r="40">
       <c r="A40" s="5"/>
       <c r="B40" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -2620,7 +2630,7 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -6571,16 +6581,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -6613,7 +6623,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -6645,7 +6655,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -6677,7 +6687,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -6709,7 +6719,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -6883,7 +6893,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -6915,7 +6925,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -6947,7 +6957,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -6979,7 +6989,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -7043,7 +7053,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
@@ -7075,7 +7085,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="2"/>
@@ -7107,7 +7117,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="2"/>
@@ -7197,7 +7207,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -7229,7 +7239,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -7261,7 +7271,7 @@
         <v>31</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
@@ -7325,7 +7335,7 @@
         <v>35</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="2"/>
@@ -7354,10 +7364,10 @@
     <row r="26">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="2"/>
@@ -7386,10 +7396,10 @@
     <row r="27">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
@@ -7418,7 +7428,7 @@
     <row r="28">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -7503,13 +7513,13 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -7538,10 +7548,10 @@
     <row r="32">
       <c r="A32" s="5"/>
       <c r="B32" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="2"/>
@@ -7570,10 +7580,10 @@
     <row r="33">
       <c r="A33" s="5"/>
       <c r="B33" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="2"/>
@@ -7685,13 +7695,13 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>
@@ -7720,10 +7730,10 @@
     <row r="38">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="2"/>
@@ -7752,10 +7762,10 @@
     <row r="39">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="2"/>
@@ -7784,7 +7794,7 @@
     <row r="40">
       <c r="A40" s="5"/>
       <c r="B40" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -7841,7 +7851,7 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -12344,16 +12354,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -12386,7 +12396,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -12418,7 +12428,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -12450,7 +12460,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -12482,7 +12492,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -12656,7 +12666,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -12688,7 +12698,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -12720,7 +12730,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -12752,7 +12762,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -12816,7 +12826,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
@@ -12848,7 +12858,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="2"/>
@@ -12880,7 +12890,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="2"/>
@@ -12970,7 +12980,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -13002,7 +13012,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -13034,7 +13044,7 @@
         <v>31</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
@@ -13098,7 +13108,7 @@
         <v>35</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="2"/>
@@ -13127,10 +13137,10 @@
     <row r="26">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="2"/>
@@ -13159,10 +13169,10 @@
     <row r="27">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
@@ -13191,7 +13201,7 @@
     <row r="28">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -13276,13 +13286,13 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -13311,10 +13321,10 @@
     <row r="32">
       <c r="A32" s="5"/>
       <c r="B32" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="2"/>
@@ -13343,10 +13353,10 @@
     <row r="33">
       <c r="A33" s="5"/>
       <c r="B33" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="2"/>
@@ -13458,13 +13468,13 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>
@@ -13493,10 +13503,10 @@
     <row r="38">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="2"/>
@@ -13525,10 +13535,10 @@
     <row r="39">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="2"/>
@@ -13557,7 +13567,7 @@
     <row r="40">
       <c r="A40" s="5"/>
       <c r="B40" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -13614,7 +13624,7 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -18117,16 +18127,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -18159,7 +18169,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -18191,7 +18201,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -18223,7 +18233,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -18255,7 +18265,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -18429,7 +18439,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -18461,7 +18471,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -18493,7 +18503,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -18525,7 +18535,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -18589,7 +18599,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
@@ -18621,7 +18631,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="2"/>
@@ -18653,7 +18663,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="2"/>
@@ -18743,7 +18753,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -18775,7 +18785,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -18807,7 +18817,7 @@
         <v>31</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
@@ -18871,7 +18881,7 @@
         <v>35</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="2"/>
@@ -18900,10 +18910,10 @@
     <row r="26">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="2"/>
@@ -18932,10 +18942,10 @@
     <row r="27">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
@@ -18964,7 +18974,7 @@
     <row r="28">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -19049,13 +19059,13 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -19084,10 +19094,10 @@
     <row r="32">
       <c r="A32" s="5"/>
       <c r="B32" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="2"/>
@@ -19116,10 +19126,10 @@
     <row r="33">
       <c r="A33" s="5"/>
       <c r="B33" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="2"/>
@@ -19231,13 +19241,13 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>
@@ -19266,10 +19276,10 @@
     <row r="38">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="2"/>
@@ -19298,10 +19308,10 @@
     <row r="39">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="2"/>
@@ -19330,7 +19340,7 @@
     <row r="40">
       <c r="A40" s="5"/>
       <c r="B40" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -19387,7 +19397,7 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -19606,16 +19616,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -19648,7 +19658,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -19680,7 +19690,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -19712,7 +19722,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -19744,7 +19754,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -19918,7 +19928,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -19950,7 +19960,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -19982,7 +19992,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -20014,7 +20024,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -20078,7 +20088,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
@@ -20110,7 +20120,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="2"/>
@@ -20142,7 +20152,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="2"/>
@@ -20232,7 +20242,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -20264,7 +20274,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -20296,7 +20306,7 @@
         <v>31</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
@@ -20360,7 +20370,7 @@
         <v>35</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="2"/>
@@ -20389,10 +20399,10 @@
     <row r="26">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="2"/>
@@ -20421,10 +20431,10 @@
     <row r="27">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
@@ -20453,7 +20463,7 @@
     <row r="28">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -20538,13 +20548,13 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -20573,10 +20583,10 @@
     <row r="32">
       <c r="A32" s="5"/>
       <c r="B32" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="2"/>
@@ -20605,10 +20615,10 @@
     <row r="33">
       <c r="A33" s="5"/>
       <c r="B33" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="2"/>
@@ -20720,13 +20730,13 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>
@@ -20755,10 +20765,10 @@
     <row r="38">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="2"/>
@@ -20787,10 +20797,10 @@
     <row r="39">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="2"/>
@@ -20819,7 +20829,7 @@
     <row r="40">
       <c r="A40" s="5"/>
       <c r="B40" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -20876,7 +20886,7 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -25379,16 +25389,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -25421,7 +25431,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -25453,7 +25463,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -25687,7 +25697,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -25719,7 +25729,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -25751,7 +25761,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -25783,7 +25793,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -25847,7 +25857,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
@@ -25909,7 +25919,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="2"/>
@@ -25999,7 +26009,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -26031,7 +26041,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -26063,7 +26073,7 @@
         <v>31</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
@@ -26154,10 +26164,10 @@
     <row r="26">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="2"/>
@@ -26186,7 +26196,7 @@
     <row r="27">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -26216,7 +26226,7 @@
     <row r="28">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -26301,13 +26311,13 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -26336,10 +26346,10 @@
     <row r="32">
       <c r="A32" s="5"/>
       <c r="B32" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="2"/>
@@ -26368,10 +26378,10 @@
     <row r="33">
       <c r="A33" s="5"/>
       <c r="B33" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="2"/>
@@ -26483,13 +26493,13 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>
@@ -26518,10 +26528,10 @@
     <row r="38">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="2"/>
@@ -26550,10 +26560,10 @@
     <row r="39">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="2"/>
@@ -26582,7 +26592,7 @@
     <row r="40">
       <c r="A40" s="5"/>
       <c r="B40" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -26639,7 +26649,7 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>

--- a/数据库SQL.xlsx
+++ b/数据库SQL.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:ns4="http://schemas.microsoft.com/office/excel/2006/main" xmlns:ns5="http://schemas.microsoft.com/office/excel/2008/2/main" count="137" uniqueCount="137">
   <si>
     <t>库|模式|所属者</t>
   </si>
@@ -30,9 +30,7 @@
   <si>
     <t xml:space="preserve">
 SELECT
-    SCHEMA_NAME ownerName,
-    DEFAULT_CHARACTER_SET_NAME ownerCharacterSetName,
-    DEFAULT_COLLATION_NAME ownerCollationName
+    SCHEMA_NAME ownerName
 FROM information_schema.schemata
 ORDER BY SCHEMA_NAME
 </t>
@@ -43,9 +41,7 @@
   <si>
     <t xml:space="preserve">
 SELECT
-    SCHEMA_NAME ownerName,
-    DEFAULT_CHARACTER_SET_NAME ownerCharacterSetName,
-    DEFAULT_COLLATION_NAME ownerCollationName
+    SCHEMA_NAME ownerName
 FROM information_schema.schemata
 WHERE SCHEMA_NAME={sqlValuePack(ownerName)}
 </t>
@@ -55,9 +51,11 @@
   </si>
   <si>
     <t xml:space="preserve">
-CREATE DATABASE [IF NOT EXISTS] {ownerNamePack}
-[CHARACTER SET {ownerCharacterSetName}]
-[COLLATE {ownerCollationName}]
+CREATE USER {ownerName} WITH PASSWORD {sqlValuePack(ownerPassword)};
+CREATE SCHEMA {ownerName};
+GRANT USAGE ON SCHEMA {ownerName} TO {ownerName};
+GRANT ALL ON SCHEMA {ownerName} TO {ownerName};
+GRANT ALL ON ALL TABLES IN SCHEMA {ownerName} TO {ownerName};
 </t>
   </si>
   <si>
@@ -65,7 +63,8 @@
   </si>
   <si>
     <t xml:space="preserve">
-DROP DATABASE IF EXISTS {ownerNamePack}
+DROP SCHEMA IF EXISTS {ownerName} CASCADE;
+DROP USER IF EXISTS {ownerName};
 </t>
   </si>
   <si>
@@ -78,7 +77,6 @@
     <t xml:space="preserve">
 SELECT
     TABLE_NAME tableName,
-    TABLE_COMMENT tableComment,
     TABLE_SCHEMA ownerName
 FROM information_schema.tables
 WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
@@ -92,7 +90,6 @@
     <t xml:space="preserve">
 SELECT
     TABLE_NAME tableName,
-    TABLE_COMMENT tableComment,
     TABLE_SCHEMA ownerName
 FROM information_schema.tables
 WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
@@ -107,7 +104,7 @@
 CREATE TABLE [{ownerNamePack}.]{tableNamePack}(
 { tableCreateColumnContent }
 { tableCreatePrimaryKeyContent }
-)[CHARACTER SET {tableCharacterSetName}]
+)
 </t>
   </si>
   <si>
@@ -115,7 +112,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-	{columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)} [COMMENT {sqlValuePack(columnComment)}]
+	{columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)}
 </t>
   </si>
   <si>
@@ -131,7 +128,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-DROP TABLE IF EXISTS [{ownerNamePack}.]{tableNamePack}
+DROP TABLE [{ownerNamePack}.]{tableNamePack}
 </t>
   </si>
   <si>
@@ -139,14 +136,15 @@
   </si>
   <si>
     <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}.]{tableNamePack} COMMENT {sqlValuePack(tableComment)}</t>
+COMMENT ON TABLE [{ownerNamePack}.]{tableNamePack} IS {sqlValuePack(tableComment)}
+</t>
   </si>
   <si>
     <t>TableRename</t>
   </si>
   <si>
     <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}.]{oldTableNamePack} RENAME AS {tableNamePack}
+ALTER TABLE [{ownerNamePack}.]{oldTableNamePack} RENAME TO {tableNamePack}
 </t>
   </si>
   <si>
@@ -159,15 +157,11 @@
     <t xml:space="preserve">
 SELECT
     COLUMN_NAME columnName,
-    COLUMN_COMMENT columnComment,
     COLUMN_DEFAULT columnDefault,
-    EXTRA columnExtra,
     TABLE_NAME tableName,
     TABLE_SCHEMA ownerName,
-    CHARACTER_SET_NAME columnCharacterSetName,
     IS_NULLABLE isNullable,
     DATA_TYPE columnDataType,
-    COLUMN_TYPE columnType,
     DATETIME_PRECISION DATETIME_PRECISION,
     NUMERIC_PRECISION NUMERIC_PRECISION,
     NUMERIC_SCALE NUMERIC_SCALE,
@@ -181,18 +175,16 @@
     <t>ColumnSelect</t>
   </si>
   <si>
-    <t xml:space="preserve">
-SELECT
+    <t xml:space="preserve">SELECT
     COLUMN_NAME columnName,
-    COLUMN_COMMENT columnComment,
     COLUMN_DEFAULT columnDefault,
-    EXTRA columnExtra,
     TABLE_NAME tableName,
     TABLE_SCHEMA ownerName,
-    CHARACTER_SET_NAME columnCharacterSetName,
     IS_NULLABLE isNullable,
     DATA_TYPE columnDataType,
-    COLUMN_TYPE columnType
+    NUMERIC_PRECISION NUMERIC_PRECISION,
+    NUMERIC_SCALE NUMERIC_SCALE,
+    CHARACTER_MAXIMUM_LENGTH CHARACTER_MAXIMUM_LENGTH
 FROM information_schema.columns
 WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
   AND TABLE_NAME={sqlValuePack(tableName)}
@@ -204,7 +196,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}.]{tableNamePack} ADD COLUMN {columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)} [COMMENT {sqlValuePack(columnComment)}] [AFTER {columnAfterColumnPack}]
+ALTER TABLE [{ownerNamePack}.]{tableNamePack} ADD {columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)}
 </t>
   </si>
   <si>
@@ -219,14 +211,24 @@
     <t>ColumnComment</t>
   </si>
   <si>
+    <t xml:space="preserve">
+COMMENT ON COLUMN [{ownerNamePack}.]{tableNamePack}.{columnNamePack} IS {sqlValuePack(columnComment)}
+</t>
+  </si>
+  <si>
     <t>ColumnRename</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ALTER TABLE [{ownerNamePack}.]{tableNamePack} RENAME COLUMN {oldColumnNamePack} TO {columnNamePack}
+</t>
   </si>
   <si>
     <t>ColumnUpdate</t>
   </si>
   <si>
     <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}.]{tableNamePack} CHANGE COLUMN {oldColumnNamePack} {columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)} [COMMENT {sqlValuePack(columnComment)}] [AFTER {columnAfterColumnPack}]
+ALTER TABLE [{ownerNamePack}.]{tableNamePack} ALTER COLUMN {columnNamePack} TYPE {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)}
 </t>
   </si>
   <si>
@@ -276,20 +278,29 @@
   </si>
   <si>
     <t xml:space="preserve">
-SELECT
+SELECT 
     t1.INDEX_NAME indexName,
     t1.COLUMN_NAME columnName,
-    t1.INDEX_COMMENT indexComment,
-    t1.NON_UNIQUE nonUnique,
+    t1.TABLE_OWNER ownerName,
     t1.TABLE_NAME tableName,
-    t1.TABLE_SCHEMA ownerName,
-    t2.CONSTRAINT_TYPE
-FROM information_schema.statistics t1
-LEFT JOIN information_schema.table_constraints t2 
-ON (t2.CONSTRAINT_NAME=t1.INDEX_NAME AND t2.TABLE_SCHEMA=t1.TABLE_SCHEMA AND t2.TABLE_NAME=t1.TABLE_NAME)
+    t2.UNIQUENESS 
+FROM ALL_IND_COLUMNS t1
+LEFT JOIN ALL_INDEXES t2 ON (t2.INDEX_NAME = t1.INDEX_NAME)
+LEFT JOIN ALL_CONSTRAINTS t3 ON (t3.CONSTRAINT_NAME = t1.INDEX_NAME)
+WHERE t1.INDEX_NAME IN(
+    SELECT INDEXNAME 
+    FROM SYS_CATALOG.sys_indexes 
+    WHERE SCHEMANAME={sqlValuePack(ownerName)}
+        AND TABLENAME={sqlValuePack(tableName)}
+) 
+	AND t1.INDEX_NAME NOT IN(
+    SELECT
+    t1.CONSTRAINT_NAME
+FROM information_schema.table_constraints t1
 WHERE t1.TABLE_SCHEMA={sqlValuePack(ownerName)}
   AND t1.TABLE_NAME={sqlValuePack(tableName)}
-  AND (t2.CONSTRAINT_TYPE !='PRIMARY KEY' OR t2.CONSTRAINT_TYPE = '' OR t2.CONSTRAINT_TYPE IS NULL)
+  AND t1.CONSTRAINT_TYPE='PRIMARY KEY'
+)
 </t>
   </si>
   <si>
@@ -297,7 +308,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}.]{tableNamePack} ADD {indexType} [{indexNamePack}] ({columnNamesPack}) [COMMENT {sqlValuePack(indexComment)}]
+CREATE {indexType} [{indexNamePack}] ON [{ownerNamePack}.]{tableNamePack} ({columnNamesPack})
 </t>
   </si>
   <si>
@@ -305,7 +316,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}.]{tableNamePack} DROP INDEX {indexNamePack}
+DROP INDEX {indexNamePack}
 </t>
   </si>
   <si>
@@ -362,34 +373,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-CREATE TABLE [{ownerNamePack}.]{tableNamePack}(
-{ tableCreateColumnContent }
-{ tableCreatePrimaryKeyContent }
-)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-DROP TABLE [{ownerNamePack}.]{tableNamePack}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-COMMENT ON TABLE [{ownerNamePack}.]{tableNamePack} IS {sqlValuePack(tableComment)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}.]{oldTableNamePack} RENAME TO {tableNamePack}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
 SELECT 
 	t.COLUMN_NAME columnName,
 	t.DATA_DEFAULT columnDefault,
@@ -431,21 +414,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}.]{tableNamePack} ADD {columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-COMMENT ON COLUMN [{ownerNamePack}.]{tableNamePack}.{columnNamePack} IS {sqlValuePack(columnComment)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}.]{tableNamePack} RENAME COLUMN {oldColumnNamePack} TO {columnNamePack}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
 ALTER TABLE [{ownerNamePack}.]{tableNamePack} MODIFY {columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)}
 </t>
   </si>
@@ -477,149 +445,6 @@
 	AND t1.TABLE_NAME={sqlValuePack(tableName)}
 	AND (t3.CONSTRAINT_TYPE !='P' OR t3.CONSTRAINT_TYPE = '' OR t3.CONSTRAINT_TYPE IS NULL)
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-CREATE {indexType} [{indexNamePack}] ON [{ownerNamePack}.]{tableNamePack} ({columnNamesPack})
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-DROP INDEX {indexNamePack}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT
-    SCHEMA_NAME ownerName
-FROM information_schema.schemata
-ORDER BY SCHEMA_NAME
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT
-    SCHEMA_NAME ownerName
-FROM information_schema.schemata
-WHERE SCHEMA_NAME={sqlValuePack(ownerName)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-CREATE USER {ownerName} WITH PASSWORD {sqlValuePack(ownerPassword)};
-CREATE SCHEMA {ownerName};
-GRANT USAGE ON SCHEMA {ownerName} TO {ownerName};
-GRANT ALL ON SCHEMA {ownerName} TO {ownerName};
-GRANT ALL ON ALL TABLES IN SCHEMA {ownerName} TO {ownerName};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-DROP SCHEMA IF EXISTS {ownerName} CASCADE;
-DROP USER IF EXISTS {ownerName};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT
-    TABLE_NAME tableName,
-    TABLE_SCHEMA ownerName
-FROM information_schema.tables
-WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
-ORDER BY TABLE_NAME
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT
-    TABLE_NAME tableName,
-    TABLE_SCHEMA ownerName
-FROM information_schema.tables
-WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
-  AND TABLE_NAME={sqlValuePack(tableName)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT
-    COLUMN_NAME columnName,
-    COLUMN_DEFAULT columnDefault,
-    TABLE_NAME tableName,
-    TABLE_SCHEMA ownerName,
-    IS_NULLABLE isNullable,
-    DATA_TYPE columnDataType,
-    DATETIME_PRECISION DATETIME_PRECISION,
-    NUMERIC_PRECISION NUMERIC_PRECISION,
-    NUMERIC_SCALE NUMERIC_SCALE,
-    CHARACTER_MAXIMUM_LENGTH CHARACTER_MAXIMUM_LENGTH
-FROM information_schema.columns
-WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
-  AND TABLE_NAME={sqlValuePack(tableName)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT
-    COLUMN_NAME columnName,
-    COLUMN_DEFAULT columnDefault,
-    TABLE_NAME tableName,
-    TABLE_SCHEMA ownerName,
-    IS_NULLABLE isNullable,
-    DATA_TYPE columnDataType,
-    NUMERIC_PRECISION NUMERIC_PRECISION,
-    NUMERIC_SCALE NUMERIC_SCALE,
-    CHARACTER_MAXIMUM_LENGTH CHARACTER_MAXIMUM_LENGTH
-FROM information_schema.columns
-WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
-  AND TABLE_NAME={sqlValuePack(tableName)}
-  AND COLUMN_NAME={sqlValuePack(columnName)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}.]{tableNamePack} ALTER COLUMN {columnNamePack} TYPE {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT 
-    t1.INDEX_NAME indexName,
-    t1.COLUMN_NAME columnName,
-    t1.TABLE_OWNER ownerName,
-    t1.TABLE_NAME tableName,
-    t2.UNIQUENESS 
-FROM ALL_IND_COLUMNS t1
-LEFT JOIN ALL_INDEXES t2 ON (t2.INDEX_NAME = t1.INDEX_NAME)
-LEFT JOIN ALL_CONSTRAINTS t3 ON (t3.CONSTRAINT_NAME = t1.INDEX_NAME)
-WHERE t1.INDEX_NAME IN(
-    SELECT INDEXNAME 
-    FROM SYS_CATALOG.sys_indexes 
-    WHERE SCHEMANAME={sqlValuePack(ownerName)}
-        AND TABLENAME={sqlValuePack(tableName)}
-) 
-	AND t1.INDEX_NAME NOT IN(
-    SELECT
-    t1.CONSTRAINT_NAME
-FROM information_schema.table_constraints t1
-WHERE t1.TABLE_SCHEMA={sqlValuePack(ownerName)}
-  AND t1.TABLE_NAME={sqlValuePack(tableName)}
-  AND t1.CONSTRAINT_TYPE='PRIMARY KEY'
-)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-CREATE USER {ownerName} IDENTIFIED BY {doubleQuotationMarksPack(ownerPassword)};
-GRANT dba,resource,connect TO {ownerName};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT 
-	TABLE_NAME tableName,
-	OWNER ownerName
-FROM ALL_TABLES
-WHERE OWNER={sqlValuePack(ownerName)}
-ORDER BY TABLE_NAME </t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -719,9 +544,313 @@
   </si>
   <si>
     <t xml:space="preserve">
+ALTER TABLE [{ownerNamePack}.]{tableNamePack} DROP INDEX {indexNamePack}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 CREATE USER {doubleQuotationMarksPack(ownerName)} IDENTIFIED BY {doubleQuotationMarksPack(ownerPassword)};
 GRANT DBA TO {doubleQuotationMarksPack(ownerName)};
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CREATE USER {ownerName} IDENTIFIED BY {doubleQuotationMarksPack(ownerPassword)};
+GRANT dba,resource,connect TO {ownerName};
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT 
+	TABLE_NAME tableName,
+	OWNER ownerName
+FROM ALL_TABLES
+WHERE OWNER={sqlValuePack(ownerName)}
+ORDER BY TABLE_NAME </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT
+    SCHEMA_NAME ownerName,
+    DEFAULT_CHARACTER_SET_NAME ownerCharacterSetName,
+    DEFAULT_COLLATION_NAME ownerCollationName
+FROM information_schema.schemata
+ORDER BY SCHEMA_NAME
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT
+    SCHEMA_NAME ownerName,
+    DEFAULT_CHARACTER_SET_NAME ownerCharacterSetName,
+    DEFAULT_COLLATION_NAME ownerCollationName
+FROM information_schema.schemata
+WHERE SCHEMA_NAME={sqlValuePack(ownerName)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CREATE DATABASE [IF NOT EXISTS] {ownerNamePack}
+[CHARACTER SET {ownerCharacterSetName}]
+[COLLATE {ownerCollationName}]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DROP DATABASE IF EXISTS {ownerNamePack}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT
+    TABLE_NAME tableName,
+    TABLE_COMMENT tableComment,
+    TABLE_SCHEMA ownerName
+FROM information_schema.tables
+WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
+ORDER BY TABLE_NAME
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT
+    TABLE_NAME tableName,
+    TABLE_COMMENT tableComment,
+    TABLE_SCHEMA ownerName
+FROM information_schema.tables
+WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
+  AND TABLE_NAME={sqlValuePack(tableName)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CREATE TABLE [{ownerNamePack}.]{tableNamePack}(
+{ tableCreateColumnContent }
+{ tableCreatePrimaryKeyContent }
+)[CHARACTER SET {tableCharacterSetName}]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)} [COMMENT {sqlValuePack(columnComment)}]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DROP TABLE IF EXISTS [{ownerNamePack}.]{tableNamePack}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ALTER TABLE [{ownerNamePack}.]{tableNamePack} COMMENT {sqlValuePack(tableComment)}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ALTER TABLE [{ownerNamePack}.]{oldTableNamePack} RENAME AS {tableNamePack}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT
+    COLUMN_NAME columnName,
+    COLUMN_COMMENT columnComment,
+    COLUMN_DEFAULT columnDefault,
+    EXTRA columnExtra,
+    TABLE_NAME tableName,
+    TABLE_SCHEMA ownerName,
+    CHARACTER_SET_NAME columnCharacterSetName,
+    IS_NULLABLE isNullable,
+    DATA_TYPE columnDataType,
+    COLUMN_TYPE columnType,
+    DATETIME_PRECISION DATETIME_PRECISION,
+    NUMERIC_PRECISION NUMERIC_PRECISION,
+    NUMERIC_SCALE NUMERIC_SCALE,
+    CHARACTER_MAXIMUM_LENGTH CHARACTER_MAXIMUM_LENGTH
+FROM information_schema.columns
+WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
+  AND TABLE_NAME={sqlValuePack(tableName)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT
+    COLUMN_NAME columnName,
+    COLUMN_COMMENT columnComment,
+    COLUMN_DEFAULT columnDefault,
+    EXTRA columnExtra,
+    TABLE_NAME tableName,
+    TABLE_SCHEMA ownerName,
+    CHARACTER_SET_NAME columnCharacterSetName,
+    IS_NULLABLE isNullable,
+    DATA_TYPE columnDataType,
+    COLUMN_TYPE columnType
+FROM information_schema.columns
+WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
+  AND TABLE_NAME={sqlValuePack(tableName)}
+  AND COLUMN_NAME={sqlValuePack(columnName)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ALTER TABLE [{ownerNamePack}.]{tableNamePack} ADD COLUMN {columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)} [COMMENT {sqlValuePack(columnComment)}] [AFTER {columnAfterColumnPack}]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ALTER TABLE [{ownerNamePack}.]{tableNamePack} CHANGE COLUMN {oldColumnNamePack} {columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)} [COMMENT {sqlValuePack(columnComment)}] [AFTER {columnAfterColumnPack}]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT
+    t1.INDEX_NAME indexName,
+    t1.COLUMN_NAME columnName,
+    t1.INDEX_COMMENT indexComment,
+    t1.NON_UNIQUE nonUnique,
+    t1.TABLE_NAME tableName,
+    t1.TABLE_SCHEMA ownerName,
+    t2.CONSTRAINT_TYPE
+FROM information_schema.statistics t1
+LEFT JOIN information_schema.table_constraints t2 
+ON (t2.CONSTRAINT_NAME=t1.INDEX_NAME AND t2.TABLE_SCHEMA=t1.TABLE_SCHEMA AND t2.TABLE_NAME=t1.TABLE_NAME)
+WHERE t1.TABLE_SCHEMA={sqlValuePack(ownerName)}
+  AND t1.TABLE_NAME={sqlValuePack(tableName)}
+  AND (t2.CONSTRAINT_TYPE !='PRIMARY KEY' OR t2.CONSTRAINT_TYPE = '' OR t2.CONSTRAINT_TYPE IS NULL)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ALTER TABLE [{ownerNamePack}.]{tableNamePack} ADD {indexType} [{indexNamePack}] ({columnNamesPack}) [COMMENT {sqlValuePack(indexComment)}]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+select  trim(name) as "ownerName" 
+from sysmaster:sysdatabases
+ORDER BY name
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+select  trim(name) as "ownerName" 
+from sysmaster:sysdatabases
+WHERE name={sqlValuePack(ownerName)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DROP DATABASE {ownerName}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+select  trim(dbsname) as "ownerName",trim(tabname) as "tableName"
+ from sysmaster:systabnames 
+WHERE dbsname={sqlValuePack(ownerName)}
+ORDER BY tabname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+select  trim(dbsname) as "ownerName",trim(tabname) as "tableName"
+ from sysmaster:systabnames 
+WHERE dbsname={sqlValuePack(ownerName)}
+  AND tabname={sqlValuePack(tableName)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+select 
+  trim(t.tabname) as "tableName",
+  trim(c.colname) as "columnName",
+  trim(d.default) as "columnDefault",
+  get_colname(c.coltype ,c.collength ,c.extended_id ,1 ) as dataType,
+  cs_null.constrtype  as notNull,
+  c.collength as characterLength,
+  trim(cc.comments) as columnComment,
+  c.colno as sortNo
+ from {ownerNamePack}:systables t
+ left join {ownerNamePack}:syscolumns c on c.tabid = t.tabid
+ left join {ownerNamePack}:syscolcomms cc on (t.tabid = cc.tabid and c.colno = cc.colno)
+ left join {ownerNamePack}:sysdefaults d on (t.tabid = d.tabid and c.colno = d.colno)
+ left join {ownerNamePack}:syscoldepend cd on (c.tabid = cd.tabid and c.colno = cd.colno)
+ left join {ownerNamePack}:sysxtdtypes xt on c.extended_id = xt.extended_id
+ left join {ownerNamePack}:sysseclabels e on c.seclabelid = e.seclabelid
+ left join {ownerNamePack}:sysconstraints cs_null on (cd.tabid = cs_null.tabid and cd.constrid = cs_null.constrid  and cs_null.constrtype = 'N')
+WHERE
+    AND t.tabname={sqlValuePack(tableName)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+select 
+  trim(t.tabname) as "tableName",
+  trim(c.colname) as "columnName",
+  trim(d.default) as "columnDefault",
+  get_colname(c.coltype ,c.collength ,c.extended_id ,1 ) as dataType,
+  cs_null.constrtype  as notNull,
+  c.collength as characterLength,
+  trim(cc.comments) as columnComment,
+  c.colno as sortNo
+ from {ownerNamePack}:systables t
+ left join {ownerNamePack}:syscolumns c on c.tabid = t.tabid
+ left join {ownerNamePack}:syscolcomms cc on (t.tabid = cc.tabid and c.colno = cc.colno)
+ left join {ownerNamePack}:sysdefaults d on (t.tabid = d.tabid and c.colno = d.colno)
+ left join {ownerNamePack}:syscoldepend cd on (c.tabid = cd.tabid and c.colno = cd.colno)
+ left join {ownerNamePack}:sysxtdtypes xt on c.extended_id = xt.extended_id
+ left join {ownerNamePack}:sysseclabels e on c.seclabelid = e.seclabelid
+ left join {ownerNamePack}:sysconstraints cs_null on (cd.tabid = cs_null.tabid and cd.constrid = cs_null.constrid  and cs_null.constrtype = 'N')
+WHERE
+    AND t.tabname={sqlValuePack(tableName)}
+    AND t.colname={sqlValuePack(columnName)}
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <sz val="10.0"/>
+        <color rgb="FFFFFFFF"/>
+        <b val="true"/>
+      </rPr>
+      <t xml:space="preserve">类型</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <sz val="10.0"/>
+        <color rgb="FFFFFFFF"/>
+        <b val="true"/>
+      </rPr>
+      <t xml:space="preserve">名称</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <sz val="10.0"/>
+        <color rgb="FFFFFFFF"/>
+        <b val="true"/>
+      </rPr>
+      <t xml:space="preserve">SQL</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="微软雅黑"/>
+        <sz val="10.0"/>
+        <color rgb="FFFFFFFF"/>
+        <b val="true"/>
+      </rPr>
+      <t xml:space="preserve">说明</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1159,7 +1288,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1487,16 +1616,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -1526,7 +1655,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -1555,7 +1684,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -1584,7 +1713,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -1613,7 +1742,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -1769,7 +1898,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -1798,7 +1927,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -1827,7 +1956,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -1856,7 +1985,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -1914,7 +2043,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
@@ -1943,7 +2072,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="2"/>
@@ -1972,7 +2101,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="2"/>
@@ -2053,7 +2182,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -2082,7 +2211,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -2111,7 +2240,7 @@
         <v>31</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
@@ -2193,7 +2322,7 @@
     <row r="26">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -2220,10 +2349,10 @@
     <row r="27">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
@@ -2249,7 +2378,7 @@
     <row r="28">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -2325,13 +2454,13 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -2357,10 +2486,10 @@
     <row r="32">
       <c r="A32" s="5"/>
       <c r="B32" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="2"/>
@@ -2386,10 +2515,10 @@
     <row r="33">
       <c r="A33" s="5"/>
       <c r="B33" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="2"/>
@@ -2489,13 +2618,13 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>
@@ -2521,10 +2650,10 @@
     <row r="38">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="2"/>
@@ -2550,10 +2679,10 @@
     <row r="39">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="2"/>
@@ -2579,7 +2708,7 @@
     <row r="40">
       <c r="A40" s="5"/>
       <c r="B40" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -2630,7 +2759,7 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -6581,16 +6710,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -6623,7 +6752,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -6655,7 +6784,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -6687,7 +6816,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -6719,7 +6848,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -6893,7 +7022,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -6925,7 +7054,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -6957,7 +7086,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -6989,7 +7118,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -7053,7 +7182,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
@@ -7085,7 +7214,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="2"/>
@@ -7117,7 +7246,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="2"/>
@@ -7207,7 +7336,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -7239,7 +7368,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -7271,7 +7400,7 @@
         <v>31</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
@@ -7335,7 +7464,7 @@
         <v>35</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="2"/>
@@ -7364,10 +7493,10 @@
     <row r="26">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="2"/>
@@ -7396,10 +7525,10 @@
     <row r="27">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
@@ -7428,7 +7557,7 @@
     <row r="28">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -7513,13 +7642,13 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -7548,10 +7677,10 @@
     <row r="32">
       <c r="A32" s="5"/>
       <c r="B32" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="2"/>
@@ -7580,10 +7709,10 @@
     <row r="33">
       <c r="A33" s="5"/>
       <c r="B33" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="2"/>
@@ -7695,13 +7824,13 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>
@@ -7730,10 +7859,10 @@
     <row r="38">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="2"/>
@@ -7762,10 +7891,10 @@
     <row r="39">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="2"/>
@@ -7794,7 +7923,7 @@
     <row r="40">
       <c r="A40" s="5"/>
       <c r="B40" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -7851,7 +7980,7 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -12354,16 +12483,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -12396,7 +12525,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -12428,7 +12557,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -12460,7 +12589,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -12492,7 +12621,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -12666,7 +12795,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -12698,7 +12827,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -12730,7 +12859,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -12762,7 +12891,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -12826,7 +12955,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
@@ -12858,7 +12987,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="2"/>
@@ -12890,7 +13019,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="2"/>
@@ -12980,7 +13109,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -13012,7 +13141,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -13044,7 +13173,7 @@
         <v>31</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
@@ -13108,7 +13237,7 @@
         <v>35</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="2"/>
@@ -13137,10 +13266,10 @@
     <row r="26">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="2"/>
@@ -13169,10 +13298,10 @@
     <row r="27">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
@@ -13201,7 +13330,7 @@
     <row r="28">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -13286,13 +13415,13 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -13321,10 +13450,10 @@
     <row r="32">
       <c r="A32" s="5"/>
       <c r="B32" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="2"/>
@@ -13353,10 +13482,10 @@
     <row r="33">
       <c r="A33" s="5"/>
       <c r="B33" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="2"/>
@@ -13468,13 +13597,13 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>
@@ -13503,10 +13632,10 @@
     <row r="38">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="2"/>
@@ -13535,10 +13664,10 @@
     <row r="39">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="2"/>
@@ -13567,7 +13696,7 @@
     <row r="40">
       <c r="A40" s="5"/>
       <c r="B40" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -13624,7 +13753,7 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -18127,16 +18256,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -18169,7 +18298,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -18201,7 +18330,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -18233,7 +18362,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -18265,7 +18394,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -18439,7 +18568,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -18471,7 +18600,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -18503,7 +18632,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -18535,7 +18664,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -18599,7 +18728,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
@@ -18631,7 +18760,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="2"/>
@@ -18663,7 +18792,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="2"/>
@@ -18753,7 +18882,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -18785,7 +18914,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -18817,7 +18946,7 @@
         <v>31</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
@@ -18881,7 +19010,7 @@
         <v>35</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="2"/>
@@ -18910,10 +19039,10 @@
     <row r="26">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="2"/>
@@ -18942,10 +19071,10 @@
     <row r="27">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
@@ -18974,7 +19103,7 @@
     <row r="28">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -19059,13 +19188,13 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -19094,10 +19223,10 @@
     <row r="32">
       <c r="A32" s="5"/>
       <c r="B32" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="2"/>
@@ -19126,10 +19255,10 @@
     <row r="33">
       <c r="A33" s="5"/>
       <c r="B33" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="2"/>
@@ -19241,13 +19370,13 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>
@@ -19276,10 +19405,10 @@
     <row r="38">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="2"/>
@@ -19308,10 +19437,10 @@
     <row r="39">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="2"/>
@@ -19340,7 +19469,7 @@
     <row r="40">
       <c r="A40" s="5"/>
       <c r="B40" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -19397,7 +19526,7 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -19616,16 +19745,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -19658,7 +19787,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -19690,7 +19819,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -19722,7 +19851,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -19754,7 +19883,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -19928,7 +20057,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -19960,7 +20089,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -19992,7 +20121,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -20024,7 +20153,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -20088,7 +20217,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
@@ -20120,7 +20249,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="2"/>
@@ -20152,7 +20281,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="2"/>
@@ -20242,7 +20371,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -20274,7 +20403,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -20306,7 +20435,7 @@
         <v>31</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
@@ -20370,7 +20499,7 @@
         <v>35</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="2"/>
@@ -20399,10 +20528,10 @@
     <row r="26">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="2"/>
@@ -20431,10 +20560,10 @@
     <row r="27">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
@@ -20463,7 +20592,7 @@
     <row r="28">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -20548,13 +20677,13 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -20583,10 +20712,10 @@
     <row r="32">
       <c r="A32" s="5"/>
       <c r="B32" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="2"/>
@@ -20615,10 +20744,10 @@
     <row r="33">
       <c r="A33" s="5"/>
       <c r="B33" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="2"/>
@@ -20730,13 +20859,13 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>
@@ -20765,10 +20894,10 @@
     <row r="38">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="2"/>
@@ -20797,10 +20926,10 @@
     <row r="39">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="2"/>
@@ -20829,7 +20958,7 @@
     <row r="40">
       <c r="A40" s="5"/>
       <c r="B40" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -20886,7 +21015,7 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -25389,16 +25518,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -25431,7 +25560,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -25463,7 +25592,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -25697,7 +25826,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -25729,7 +25858,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -25761,7 +25890,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -25793,7 +25922,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -25857,7 +25986,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
@@ -25919,7 +26048,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="2"/>
@@ -26009,7 +26138,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -26041,7 +26170,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -26073,7 +26202,7 @@
         <v>31</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
@@ -26164,10 +26293,10 @@
     <row r="26">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="2"/>
@@ -26196,7 +26325,7 @@
     <row r="27">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -26226,7 +26355,7 @@
     <row r="28">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -26311,13 +26440,13 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -26346,10 +26475,10 @@
     <row r="32">
       <c r="A32" s="5"/>
       <c r="B32" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="2"/>
@@ -26378,10 +26507,10 @@
     <row r="33">
       <c r="A33" s="5"/>
       <c r="B33" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="2"/>
@@ -26493,13 +26622,13 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>
@@ -26528,10 +26657,10 @@
     <row r="38">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="2"/>
@@ -26560,10 +26689,10 @@
     <row r="39">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="2"/>
@@ -26592,7 +26721,7 @@
     <row r="40">
       <c r="A40" s="5"/>
       <c r="B40" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -26649,7 +26778,7 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -31122,10 +31251,10 @@
     <sheetView showGridLines="true" tabSelected="false" workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="14.0" hidden="false" customWidth="true"/>
-    <col min="2" max="2" width="14.0" hidden="false" customWidth="true"/>
-    <col min="3" max="3" width="14.0" hidden="false" customWidth="true"/>
-    <col min="4" max="4" width="14.0" hidden="false" customWidth="true"/>
+    <col min="1" max="1" width="26.0" hidden="false" customWidth="true"/>
+    <col min="2" max="2" width="26.0" hidden="false" customWidth="true"/>
+    <col min="3" max="3" width="100.0" hidden="false" customWidth="true"/>
+    <col min="4" max="4" width="57.0" hidden="false" customWidth="true"/>
     <col min="5" max="5" width="14.0" hidden="false" customWidth="true"/>
     <col min="6" max="6" width="14.0" hidden="false" customWidth="true"/>
     <col min="7" max="7" width="14.0" hidden="false" customWidth="true"/>
@@ -31151,10 +31280,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="A1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -31179,10 +31316,16 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -31207,10 +31350,14 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="5"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -31235,10 +31382,12 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -31263,10 +31412,14 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -31291,10 +31444,10 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -31319,10 +31472,10 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -31347,10 +31500,10 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -31375,10 +31528,10 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -31403,10 +31556,10 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -31431,10 +31584,16 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="5"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -31459,10 +31618,14 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="5"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -31487,10 +31650,14 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="5"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -31515,10 +31682,14 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="5"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -31543,10 +31714,14 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="5"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -31571,10 +31746,14 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="5"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -31599,10 +31778,14 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="5"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -31627,10 +31810,14 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="5"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -31655,10 +31842,10 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -31683,10 +31870,10 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -31711,10 +31898,16 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="A21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="5"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -31739,10 +31932,14 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="5"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -31767,10 +31964,14 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="5"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -31795,10 +31996,14 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="5"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -31823,10 +32028,14 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="5"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -31851,10 +32060,14 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="5"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -31879,10 +32092,14 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="5"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -31907,10 +32124,12 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -31935,10 +32154,10 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -31963,10 +32182,10 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -31991,10 +32210,14 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+      <c r="A31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -32019,10 +32242,14 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="5"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -32047,10 +32274,14 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
+      <c r="A33" s="5"/>
+      <c r="B33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="5"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -32075,10 +32306,10 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -32103,10 +32334,10 @@
       <c r="Z34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -32131,10 +32362,10 @@
       <c r="Z35" s="2"/>
     </row>
     <row r="36">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -32159,10 +32390,14 @@
       <c r="Z36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+      <c r="A37" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="5"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -32187,10 +32422,14 @@
       <c r="Z37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+      <c r="A38" s="5"/>
+      <c r="B38" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="5"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -32215,10 +32454,14 @@
       <c r="Z38" s="2"/>
     </row>
     <row r="39">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="5"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -32243,10 +32486,12 @@
       <c r="Z39" s="2"/>
     </row>
     <row r="40">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
@@ -32271,10 +32516,10 @@
       <c r="Z40" s="2"/>
     </row>
     <row r="41">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
@@ -32299,10 +32544,12 @@
       <c r="Z41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+      <c r="A42" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
@@ -32327,10 +32574,10 @@
       <c r="Z42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -32355,10 +32602,10 @@
       <c r="Z43" s="2"/>
     </row>
     <row r="44">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -32383,10 +32630,10 @@
       <c r="Z44" s="2"/>
     </row>
     <row r="45">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -32411,10 +32658,10 @@
       <c r="Z45" s="2"/>
     </row>
     <row r="46">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -36752,6 +36999,14 @@
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A11:A20"/>
+    <mergeCell ref="A21:A30"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A31:A36"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/数据库SQL.xlsx
+++ b/数据库SQL.xlsx
@@ -29,10 +29,9 @@
   </si>
   <si>
     <t xml:space="preserve">
-SELECT
-    SCHEMA_NAME ownerName
-FROM information_schema.schemata
-ORDER BY SCHEMA_NAME
+select  trim(name) as "ownerName" 
+from sysmaster:sysdatabases
+ORDER BY name
 </t>
   </si>
   <si>
@@ -40,31 +39,20 @@
   </si>
   <si>
     <t xml:space="preserve">
-SELECT
-    SCHEMA_NAME ownerName
-FROM information_schema.schemata
-WHERE SCHEMA_NAME={sqlValuePack(ownerName)}
+select  trim(name) as "ownerName" 
+from sysmaster:sysdatabases
+WHERE name={sqlValuePack(ownerName)}
 </t>
   </si>
   <si>
     <t>OwnerCreate</t>
   </si>
   <si>
-    <t xml:space="preserve">
-CREATE USER {ownerName} WITH PASSWORD {sqlValuePack(ownerPassword)};
-CREATE SCHEMA {ownerName};
-GRANT USAGE ON SCHEMA {ownerName} TO {ownerName};
-GRANT ALL ON SCHEMA {ownerName} TO {ownerName};
-GRANT ALL ON ALL TABLES IN SCHEMA {ownerName} TO {ownerName};
-</t>
-  </si>
-  <si>
     <t>OwnerDelete</t>
   </si>
   <si>
     <t xml:space="preserve">
-DROP SCHEMA IF EXISTS {ownerName} CASCADE;
-DROP USER IF EXISTS {ownerName};
+DROP DATABASE {ownerName}
 </t>
   </si>
   <si>
@@ -75,25 +63,20 @@
   </si>
   <si>
     <t xml:space="preserve">
-SELECT
-    TABLE_NAME tableName,
-    TABLE_SCHEMA ownerName
-FROM information_schema.tables
-WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
-ORDER BY TABLE_NAME
-</t>
+select  trim(dbsname) as "ownerName",trim(tabname) as "tableName"
+ from sysmaster:systabnames 
+WHERE dbsname={sqlValuePack(ownerName)}
+ORDER BY tabname</t>
   </si>
   <si>
     <t>TableSelect</t>
   </si>
   <si>
     <t xml:space="preserve">
-SELECT
-    TABLE_NAME tableName,
-    TABLE_SCHEMA ownerName
-FROM information_schema.tables
-WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
-  AND TABLE_NAME={sqlValuePack(tableName)}
+select  trim(dbsname) as "ownerName",trim(tabname) as "tableName"
+ from sysmaster:systabnames 
+WHERE dbsname={sqlValuePack(ownerName)}
+  AND tabname={sqlValuePack(tableName)}
 </t>
   </si>
   <si>
@@ -155,40 +138,52 @@
   </si>
   <si>
     <t xml:space="preserve">
-SELECT
-    COLUMN_NAME columnName,
-    COLUMN_DEFAULT columnDefault,
-    TABLE_NAME tableName,
-    TABLE_SCHEMA ownerName,
-    IS_NULLABLE isNullable,
-    DATA_TYPE columnDataType,
-    DATETIME_PRECISION DATETIME_PRECISION,
-    NUMERIC_PRECISION NUMERIC_PRECISION,
-    NUMERIC_SCALE NUMERIC_SCALE,
-    CHARACTER_MAXIMUM_LENGTH CHARACTER_MAXIMUM_LENGTH
-FROM information_schema.columns
-WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
-  AND TABLE_NAME={sqlValuePack(tableName)}
+select 
+  trim(t.tabname) as "tableName",
+  trim(c.colname) as "columnName",
+  trim(d.default) as "columnDefault",
+  get_colname(c.coltype ,c.collength ,c.extended_id ,1 ) as "columnType",
+  cs_null.constrtype  as notNull,
+  c.collength as "characterLength",
+  trim(cc.comments) as "columnComment",
+  c.colno as sortNo
+ from {ownerNamePack}:systables t
+ left join {ownerNamePack}:syscolumns c on c.tabid = t.tabid
+ left join {ownerNamePack}:syscolcomms cc on (t.tabid = cc.tabid and c.colno = cc.colno)
+ left join {ownerNamePack}:sysdefaults d on (t.tabid = d.tabid and c.colno = d.colno)
+ left join {ownerNamePack}:syscoldepend cd on (c.tabid = cd.tabid and c.colno = cd.colno)
+ left join {ownerNamePack}:sysxtdtypes xt on c.extended_id = xt.extended_id
+ left join {ownerNamePack}:sysseclabels e on c.seclabelid = e.seclabelid
+ left join {ownerNamePack}:sysconstraints cs_null on (cd.tabid = cs_null.tabid and cd.constrid = cs_null.constrid  and cs_null.constrtype = 'N')
+WHERE
+    t.tabname={sqlValuePack(tableName)}
 </t>
   </si>
   <si>
     <t>ColumnSelect</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT
-    COLUMN_NAME columnName,
-    COLUMN_DEFAULT columnDefault,
-    TABLE_NAME tableName,
-    TABLE_SCHEMA ownerName,
-    IS_NULLABLE isNullable,
-    DATA_TYPE columnDataType,
-    NUMERIC_PRECISION NUMERIC_PRECISION,
-    NUMERIC_SCALE NUMERIC_SCALE,
-    CHARACTER_MAXIMUM_LENGTH CHARACTER_MAXIMUM_LENGTH
-FROM information_schema.columns
-WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
-  AND TABLE_NAME={sqlValuePack(tableName)}
-  AND COLUMN_NAME={sqlValuePack(columnName)}
+    <t xml:space="preserve">
+select 
+  trim(t.tabname) as "tableName",
+  trim(c.colname) as "columnName",
+  trim(d.default) as "columnDefault",
+  get_colname(c.coltype ,c.collength ,c.extended_id ,1 ) as "columnType",
+  cs_null.constrtype  as notNull,
+  c.collength as "characterLength",
+  trim(cc.comments) as "columnComment",
+  c.colno as sortNo
+ from {ownerNamePack}:systables t
+ left join {ownerNamePack}:syscolumns c on c.tabid = t.tabid
+ left join {ownerNamePack}:syscolcomms cc on (t.tabid = cc.tabid and c.colno = cc.colno)
+ left join {ownerNamePack}:sysdefaults d on (t.tabid = d.tabid and c.colno = d.colno)
+ left join {ownerNamePack}:syscoldepend cd on (c.tabid = cd.tabid and c.colno = cd.colno)
+ left join {ownerNamePack}:sysxtdtypes xt on c.extended_id = xt.extended_id
+ left join {ownerNamePack}:sysseclabels e on c.seclabelid = e.seclabelid
+ left join {ownerNamePack}:sysconstraints cs_null on (cd.tabid = cs_null.tabid and cd.constrid = cs_null.constrid  and cs_null.constrtype = 'N')
+WHERE
+    t.tabname={sqlValuePack(tableName)}
+    AND t.colname={sqlValuePack(columnName)}
 </t>
   </si>
   <si>
@@ -228,7 +223,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}.]{tableNamePack} ALTER COLUMN {columnNamePack} TYPE {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)}
+ALTER TABLE [{ownerNamePack}.]{tableNamePack} MODIFY {columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)}
 </t>
   </si>
   <si>
@@ -239,20 +234,6 @@
   </si>
   <si>
     <t>PrimaryKeysSelect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT
-    t2.COLUMN_NAME columnName,
-    t1.TABLE_NAME tableName,
-    t1.TABLE_SCHEMA ownerName
-FROM information_schema.table_constraints t1
-LEFT JOIN information_schema.key_column_usage t2 
-ON (t2.CONSTRAINT_NAME=t1.CONSTRAINT_NAME AND t2.TABLE_SCHEMA=t1.TABLE_SCHEMA AND t2.TABLE_NAME=t1.TABLE_NAME)
-WHERE t1.TABLE_SCHEMA={sqlValuePack(ownerName)}
-  AND t1.TABLE_NAME={sqlValuePack(tableName)}
-  AND t1.CONSTRAINT_TYPE='PRIMARY KEY'
-</t>
   </si>
   <si>
     <t>PrimaryKeyAdd</t>
@@ -275,33 +256,6 @@
   </si>
   <si>
     <t>IndexesSelect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT 
-    t1.INDEX_NAME indexName,
-    t1.COLUMN_NAME columnName,
-    t1.TABLE_OWNER ownerName,
-    t1.TABLE_NAME tableName,
-    t2.UNIQUENESS 
-FROM ALL_IND_COLUMNS t1
-LEFT JOIN ALL_INDEXES t2 ON (t2.INDEX_NAME = t1.INDEX_NAME)
-LEFT JOIN ALL_CONSTRAINTS t3 ON (t3.CONSTRAINT_NAME = t1.INDEX_NAME)
-WHERE t1.INDEX_NAME IN(
-    SELECT INDEXNAME 
-    FROM SYS_CATALOG.sys_indexes 
-    WHERE SCHEMANAME={sqlValuePack(ownerName)}
-        AND TABLENAME={sqlValuePack(tableName)}
-) 
-	AND t1.INDEX_NAME NOT IN(
-    SELECT
-    t1.CONSTRAINT_NAME
-FROM information_schema.table_constraints t1
-WHERE t1.TABLE_SCHEMA={sqlValuePack(ownerName)}
-  AND t1.TABLE_NAME={sqlValuePack(tableName)}
-  AND t1.CONSTRAINT_TYPE='PRIMARY KEY'
-)
-</t>
   </si>
   <si>
     <t>IndexAdd</t>
@@ -343,7 +297,8 @@
   </si>
   <si>
     <t xml:space="preserve">
-CREATE USER {ownerName} WITH PASSWORD {sqlValuePack(ownerPassword)};
+CREATE USER {ownerName} IDENTIFIED BY {doubleQuotationMarksPack(ownerPassword)};
+GRANT dba,resource,connect TO {ownerName};
 </t>
   </si>
   <si>
@@ -358,8 +313,7 @@
 	OWNER ownerName
 FROM ALL_TABLES
 WHERE OWNER={sqlValuePack(ownerName)}
-ORDER BY TABLE_NAME 
-</t>
+ORDER BY TABLE_NAME </t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -414,11 +368,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}.]{tableNamePack} MODIFY {columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
 SELECT 
     t1.COLUMN_NAME columnName,
     t2.TABLE_NAME tableName,
@@ -445,128 +394,6 @@
 	AND t1.TABLE_NAME={sqlValuePack(tableName)}
 	AND (t3.CONSTRAINT_TYPE !='P' OR t3.CONSTRAINT_TYPE = '' OR t3.CONSTRAINT_TYPE IS NULL)
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT 
-	name ownerName
-FROM pragma_database_list AS t_i 
-ORDER BY name
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT 
-	name ownerName
-FROM pragma_database_list AS t_i 
-WHERE name={sqlValuePack(ownerName)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT 
-	name tableName,
-    sql 
-FROM sqlite_master 
-WHERE type ='table'
-ORDER BY name
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT 
-	name tableName,
-    sql 
-FROM sqlite_master 
-WHERE type ='table'
-  AND name={sqlValuePack(tableName)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-DROP TABLE IF EXISTS [{ownerName}.]{tableName}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ALTER TABLE [{ownerName}.]{oldTableName} RENAME AS {newTableName}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT 
-	name columnName,
-	dflt_value columnDefault,
-	"notnull" isNotNull,
-	type columnType
-FROM pragma_table_info({tableNamePack}) AS t_i 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT 
-	name columnName,
-	dflt_value columnDefault,
-	"notnull" isNotNull,
-	type columnType
-FROM pragma_table_info({tableNamePack}) AS t_i 
-WHERE name={sqlValuePack(columnName)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}.]{tableNamePack} ADD COLUMN {columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT 
-	a.name indexName,
-	b.name columnName 
-FROM pragma_index_list({tableNamePack}) AS a,pragma_index_info(a.name) b 
-WHERE a.origin = "pk"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT 
-	a.name indexName,
-	a."unique" isUnique,
-	b.name columnName 
-FROM pragma_index_list({tableNamePack}) AS a,pragma_index_info(a.name) b 
-WHERE a.origin != "pk"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-CREATE {indexType} [{indexNamePack}] ON {tableNamePack}({columnNamesPack})
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}.]{tableNamePack} DROP INDEX {indexNamePack}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-CREATE USER {doubleQuotationMarksPack(ownerName)} IDENTIFIED BY {doubleQuotationMarksPack(ownerPassword)};
-GRANT DBA TO {doubleQuotationMarksPack(ownerName)};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-CREATE USER {ownerName} IDENTIFIED BY {doubleQuotationMarksPack(ownerPassword)};
-GRANT dba,resource,connect TO {ownerName};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT 
-	TABLE_NAME tableName,
-	OWNER ownerName
-FROM ALL_TABLES
-WHERE OWNER={sqlValuePack(ownerName)}
-ORDER BY TABLE_NAME </t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -703,6 +530,20 @@
   <si>
     <t xml:space="preserve">
 SELECT
+    t2.COLUMN_NAME columnName,
+    t1.TABLE_NAME tableName,
+    t1.TABLE_SCHEMA ownerName
+FROM information_schema.table_constraints t1
+LEFT JOIN information_schema.key_column_usage t2 
+ON (t2.CONSTRAINT_NAME=t1.CONSTRAINT_NAME AND t2.TABLE_SCHEMA=t1.TABLE_SCHEMA AND t2.TABLE_NAME=t1.TABLE_NAME)
+WHERE t1.TABLE_SCHEMA={sqlValuePack(ownerName)}
+  AND t1.TABLE_NAME={sqlValuePack(tableName)}
+  AND t1.CONSTRAINT_TYPE='PRIMARY KEY'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT
     t1.INDEX_NAME indexName,
     t1.COLUMN_NAME columnName,
     t1.INDEX_COMMENT indexComment,
@@ -725,83 +566,242 @@
   </si>
   <si>
     <t xml:space="preserve">
-select  trim(name) as "ownerName" 
-from sysmaster:sysdatabases
+ALTER TABLE [{ownerNamePack}.]{tableNamePack} DROP INDEX {indexNamePack}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CREATE USER {ownerName} WITH PASSWORD {sqlValuePack(ownerPassword)};
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT 
+	TABLE_NAME tableName,
+	OWNER ownerName
+FROM ALL_TABLES
+WHERE OWNER={sqlValuePack(ownerName)}
+ORDER BY TABLE_NAME 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT
+    SCHEMA_NAME ownerName
+FROM information_schema.schemata
+ORDER BY SCHEMA_NAME
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT
+    SCHEMA_NAME ownerName
+FROM information_schema.schemata
+WHERE SCHEMA_NAME={sqlValuePack(ownerName)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CREATE USER {ownerName} WITH PASSWORD {sqlValuePack(ownerPassword)};
+CREATE SCHEMA {ownerName};
+GRANT USAGE ON SCHEMA {ownerName} TO {ownerName};
+GRANT ALL ON SCHEMA {ownerName} TO {ownerName};
+GRANT ALL ON ALL TABLES IN SCHEMA {ownerName} TO {ownerName};
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DROP SCHEMA IF EXISTS {ownerName} CASCADE;
+DROP USER IF EXISTS {ownerName};
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT
+    TABLE_NAME tableName,
+    TABLE_SCHEMA ownerName
+FROM information_schema.tables
+WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
+ORDER BY TABLE_NAME
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT
+    TABLE_NAME tableName,
+    TABLE_SCHEMA ownerName
+FROM information_schema.tables
+WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
+  AND TABLE_NAME={sqlValuePack(tableName)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT
+    COLUMN_NAME columnName,
+    COLUMN_DEFAULT columnDefault,
+    TABLE_NAME tableName,
+    TABLE_SCHEMA ownerName,
+    IS_NULLABLE isNullable,
+    DATA_TYPE columnDataType,
+    DATETIME_PRECISION DATETIME_PRECISION,
+    NUMERIC_PRECISION NUMERIC_PRECISION,
+    NUMERIC_SCALE NUMERIC_SCALE,
+    CHARACTER_MAXIMUM_LENGTH CHARACTER_MAXIMUM_LENGTH
+FROM information_schema.columns
+WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
+  AND TABLE_NAME={sqlValuePack(tableName)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT
+    COLUMN_NAME columnName,
+    COLUMN_DEFAULT columnDefault,
+    TABLE_NAME tableName,
+    TABLE_SCHEMA ownerName,
+    IS_NULLABLE isNullable,
+    DATA_TYPE columnDataType,
+    NUMERIC_PRECISION NUMERIC_PRECISION,
+    NUMERIC_SCALE NUMERIC_SCALE,
+    CHARACTER_MAXIMUM_LENGTH CHARACTER_MAXIMUM_LENGTH
+FROM information_schema.columns
+WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
+  AND TABLE_NAME={sqlValuePack(tableName)}
+  AND COLUMN_NAME={sqlValuePack(columnName)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ALTER TABLE [{ownerNamePack}.]{tableNamePack} ALTER COLUMN {columnNamePack} TYPE {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT 
+    t1.INDEX_NAME indexName,
+    t1.COLUMN_NAME columnName,
+    t1.TABLE_OWNER ownerName,
+    t1.TABLE_NAME tableName,
+    t2.UNIQUENESS 
+FROM ALL_IND_COLUMNS t1
+LEFT JOIN ALL_INDEXES t2 ON (t2.INDEX_NAME = t1.INDEX_NAME)
+LEFT JOIN ALL_CONSTRAINTS t3 ON (t3.CONSTRAINT_NAME = t1.INDEX_NAME)
+WHERE t1.INDEX_NAME IN(
+    SELECT INDEXNAME 
+    FROM SYS_CATALOG.sys_indexes 
+    WHERE SCHEMANAME={sqlValuePack(ownerName)}
+        AND TABLENAME={sqlValuePack(tableName)}
+) 
+	AND t1.INDEX_NAME NOT IN(
+    SELECT
+    t1.CONSTRAINT_NAME
+FROM information_schema.table_constraints t1
+WHERE t1.TABLE_SCHEMA={sqlValuePack(ownerName)}
+  AND t1.TABLE_NAME={sqlValuePack(tableName)}
+  AND t1.CONSTRAINT_TYPE='PRIMARY KEY'
+)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT 
+	name ownerName
+FROM pragma_database_list AS t_i 
 ORDER BY name
 </t>
   </si>
   <si>
     <t xml:space="preserve">
-select  trim(name) as "ownerName" 
-from sysmaster:sysdatabases
+SELECT 
+	name ownerName
+FROM pragma_database_list AS t_i 
 WHERE name={sqlValuePack(ownerName)}
 </t>
   </si>
   <si>
     <t xml:space="preserve">
-DROP DATABASE {ownerName}
+SELECT 
+	name tableName,
+    sql 
+FROM sqlite_master 
+WHERE type ='table'
+ORDER BY name
 </t>
   </si>
   <si>
     <t xml:space="preserve">
-select  trim(dbsname) as "ownerName",trim(tabname) as "tableName"
- from sysmaster:systabnames 
-WHERE dbsname={sqlValuePack(ownerName)}
-ORDER BY tabname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-select  trim(dbsname) as "ownerName",trim(tabname) as "tableName"
- from sysmaster:systabnames 
-WHERE dbsname={sqlValuePack(ownerName)}
-  AND tabname={sqlValuePack(tableName)}
+SELECT 
+	name tableName,
+    sql 
+FROM sqlite_master 
+WHERE type ='table'
+  AND name={sqlValuePack(tableName)}
 </t>
   </si>
   <si>
     <t xml:space="preserve">
-select 
-  trim(t.tabname) as "tableName",
-  trim(c.colname) as "columnName",
-  trim(d.default) as "columnDefault",
-  get_colname(c.coltype ,c.collength ,c.extended_id ,1 ) as dataType,
-  cs_null.constrtype  as notNull,
-  c.collength as characterLength,
-  trim(cc.comments) as columnComment,
-  c.colno as sortNo
- from {ownerNamePack}:systables t
- left join {ownerNamePack}:syscolumns c on c.tabid = t.tabid
- left join {ownerNamePack}:syscolcomms cc on (t.tabid = cc.tabid and c.colno = cc.colno)
- left join {ownerNamePack}:sysdefaults d on (t.tabid = d.tabid and c.colno = d.colno)
- left join {ownerNamePack}:syscoldepend cd on (c.tabid = cd.tabid and c.colno = cd.colno)
- left join {ownerNamePack}:sysxtdtypes xt on c.extended_id = xt.extended_id
- left join {ownerNamePack}:sysseclabels e on c.seclabelid = e.seclabelid
- left join {ownerNamePack}:sysconstraints cs_null on (cd.tabid = cs_null.tabid and cd.constrid = cs_null.constrid  and cs_null.constrtype = 'N')
-WHERE
-    AND t.tabname={sqlValuePack(tableName)}
+DROP TABLE IF EXISTS [{ownerName}.]{tableName}
 </t>
   </si>
   <si>
     <t xml:space="preserve">
-select 
-  trim(t.tabname) as "tableName",
-  trim(c.colname) as "columnName",
-  trim(d.default) as "columnDefault",
-  get_colname(c.coltype ,c.collength ,c.extended_id ,1 ) as dataType,
-  cs_null.constrtype  as notNull,
-  c.collength as characterLength,
-  trim(cc.comments) as columnComment,
-  c.colno as sortNo
- from {ownerNamePack}:systables t
- left join {ownerNamePack}:syscolumns c on c.tabid = t.tabid
- left join {ownerNamePack}:syscolcomms cc on (t.tabid = cc.tabid and c.colno = cc.colno)
- left join {ownerNamePack}:sysdefaults d on (t.tabid = d.tabid and c.colno = d.colno)
- left join {ownerNamePack}:syscoldepend cd on (c.tabid = cd.tabid and c.colno = cd.colno)
- left join {ownerNamePack}:sysxtdtypes xt on c.extended_id = xt.extended_id
- left join {ownerNamePack}:sysseclabels e on c.seclabelid = e.seclabelid
- left join {ownerNamePack}:sysconstraints cs_null on (cd.tabid = cs_null.tabid and cd.constrid = cs_null.constrid  and cs_null.constrtype = 'N')
-WHERE
-    AND t.tabname={sqlValuePack(tableName)}
-    AND t.colname={sqlValuePack(columnName)}
+ALTER TABLE [{ownerName}.]{oldTableName} RENAME AS {newTableName}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT 
+	name columnName,
+	dflt_value columnDefault,
+	"notnull" isNotNull,
+	type columnType
+FROM pragma_table_info({tableNamePack}) AS t_i 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT 
+	name columnName,
+	dflt_value columnDefault,
+	"notnull" isNotNull,
+	type columnType
+FROM pragma_table_info({tableNamePack}) AS t_i 
+WHERE name={sqlValuePack(columnName)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ALTER TABLE [{ownerNamePack}.]{tableNamePack} ADD COLUMN {columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT 
+	a.name indexName,
+	b.name columnName 
+FROM pragma_index_list({tableNamePack}) AS a,pragma_index_info(a.name) b 
+WHERE a.origin = "pk"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT 
+	a.name indexName,
+	a."unique" isUnique,
+	b.name columnName 
+FROM pragma_index_list({tableNamePack}) AS a,pragma_index_info(a.name) b 
+WHERE a.origin != "pk"
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CREATE {indexType} [{indexNamePack}] ON {tableNamePack}({columnNamesPack})
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CREATE USER {doubleQuotationMarksPack(ownerName)} IDENTIFIED BY {doubleQuotationMarksPack(ownerPassword)};
+GRANT DBA TO {doubleQuotationMarksPack(ownerName)};
 </t>
   </si>
   <si>
@@ -1288,7 +1288,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1655,7 +1655,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -1684,7 +1684,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -1713,7 +1713,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -1739,10 +1739,10 @@
     <row r="5">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -1892,13 +1892,13 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -1924,10 +1924,10 @@
     <row r="12">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -1953,10 +1953,10 @@
     <row r="13">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -1982,10 +1982,10 @@
     <row r="14">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -2011,10 +2011,10 @@
     <row r="15">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
@@ -2040,10 +2040,10 @@
     <row r="16">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
@@ -2069,10 +2069,10 @@
     <row r="17">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="2"/>
@@ -2098,10 +2098,10 @@
     <row r="18">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="2"/>
@@ -2176,13 +2176,13 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="C21" s="4" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -2208,10 +2208,10 @@
     <row r="22">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -2237,10 +2237,10 @@
     <row r="23">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
@@ -2266,10 +2266,10 @@
     <row r="24">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="2"/>
@@ -2295,7 +2295,7 @@
     <row r="25">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -2322,7 +2322,7 @@
     <row r="26">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -2349,10 +2349,10 @@
     <row r="27">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
@@ -2378,7 +2378,7 @@
     <row r="28">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -2454,13 +2454,13 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="C31" s="4" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -2486,10 +2486,10 @@
     <row r="32">
       <c r="A32" s="5"/>
       <c r="B32" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="2"/>
@@ -2515,10 +2515,10 @@
     <row r="33">
       <c r="A33" s="5"/>
       <c r="B33" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="2"/>
@@ -2618,13 +2618,13 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>
@@ -2650,10 +2650,10 @@
     <row r="38">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="2"/>
@@ -2679,10 +2679,10 @@
     <row r="39">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="2"/>
@@ -2708,7 +2708,7 @@
     <row r="40">
       <c r="A40" s="5"/>
       <c r="B40" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -6752,7 +6752,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -6784,7 +6784,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -6816,7 +6816,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -6845,10 +6845,10 @@
     <row r="5">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -7016,13 +7016,13 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -7051,10 +7051,10 @@
     <row r="12">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -7083,10 +7083,10 @@
     <row r="13">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -7115,10 +7115,10 @@
     <row r="14">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -7147,10 +7147,10 @@
     <row r="15">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
@@ -7179,10 +7179,10 @@
     <row r="16">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
@@ -7211,10 +7211,10 @@
     <row r="17">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="2"/>
@@ -7243,10 +7243,10 @@
     <row r="18">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="2"/>
@@ -7330,13 +7330,13 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="C21" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -7365,10 +7365,10 @@
     <row r="22">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -7397,10 +7397,10 @@
     <row r="23">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
@@ -7429,10 +7429,10 @@
     <row r="24">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="2"/>
@@ -7461,10 +7461,10 @@
     <row r="25">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="2"/>
@@ -7493,10 +7493,10 @@
     <row r="26">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="2"/>
@@ -7525,10 +7525,10 @@
     <row r="27">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
@@ -7557,7 +7557,7 @@
     <row r="28">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -7642,13 +7642,13 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="C31" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -7677,10 +7677,10 @@
     <row r="32">
       <c r="A32" s="5"/>
       <c r="B32" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="2"/>
@@ -7709,10 +7709,10 @@
     <row r="33">
       <c r="A33" s="5"/>
       <c r="B33" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="2"/>
@@ -7824,13 +7824,13 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>
@@ -7859,10 +7859,10 @@
     <row r="38">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="2"/>
@@ -7891,10 +7891,10 @@
     <row r="39">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="2"/>
@@ -7923,7 +7923,7 @@
     <row r="40">
       <c r="A40" s="5"/>
       <c r="B40" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -7980,7 +7980,7 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -12525,7 +12525,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -12557,7 +12557,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -12589,7 +12589,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -12618,10 +12618,10 @@
     <row r="5">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -12789,13 +12789,13 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -12824,10 +12824,10 @@
     <row r="12">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -12856,10 +12856,10 @@
     <row r="13">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -12888,10 +12888,10 @@
     <row r="14">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -12920,10 +12920,10 @@
     <row r="15">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
@@ -12952,10 +12952,10 @@
     <row r="16">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
@@ -12984,10 +12984,10 @@
     <row r="17">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="2"/>
@@ -13016,10 +13016,10 @@
     <row r="18">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="2"/>
@@ -13103,13 +13103,13 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="C21" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -13138,10 +13138,10 @@
     <row r="22">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -13170,10 +13170,10 @@
     <row r="23">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
@@ -13202,10 +13202,10 @@
     <row r="24">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="2"/>
@@ -13234,10 +13234,10 @@
     <row r="25">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="2"/>
@@ -13266,10 +13266,10 @@
     <row r="26">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="2"/>
@@ -13298,10 +13298,10 @@
     <row r="27">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
@@ -13330,7 +13330,7 @@
     <row r="28">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -13415,13 +13415,13 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="C31" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -13450,10 +13450,10 @@
     <row r="32">
       <c r="A32" s="5"/>
       <c r="B32" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="2"/>
@@ -13482,10 +13482,10 @@
     <row r="33">
       <c r="A33" s="5"/>
       <c r="B33" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="2"/>
@@ -13597,13 +13597,13 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>
@@ -13632,10 +13632,10 @@
     <row r="38">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="2"/>
@@ -13664,10 +13664,10 @@
     <row r="39">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="2"/>
@@ -13696,7 +13696,7 @@
     <row r="40">
       <c r="A40" s="5"/>
       <c r="B40" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -13753,7 +13753,7 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -18298,7 +18298,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -18330,7 +18330,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -18362,7 +18362,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -18391,10 +18391,10 @@
     <row r="5">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -18562,13 +18562,13 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -18597,10 +18597,10 @@
     <row r="12">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -18629,10 +18629,10 @@
     <row r="13">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -18661,10 +18661,10 @@
     <row r="14">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -18693,10 +18693,10 @@
     <row r="15">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
@@ -18725,10 +18725,10 @@
     <row r="16">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
@@ -18757,10 +18757,10 @@
     <row r="17">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="2"/>
@@ -18789,10 +18789,10 @@
     <row r="18">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="2"/>
@@ -18876,13 +18876,13 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="C21" s="4" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -18911,10 +18911,10 @@
     <row r="22">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -18943,10 +18943,10 @@
     <row r="23">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
@@ -18975,10 +18975,10 @@
     <row r="24">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="2"/>
@@ -19007,10 +19007,10 @@
     <row r="25">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="2"/>
@@ -19039,10 +19039,10 @@
     <row r="26">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="2"/>
@@ -19071,10 +19071,10 @@
     <row r="27">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
@@ -19103,7 +19103,7 @@
     <row r="28">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -19188,13 +19188,13 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="C31" s="4" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -19223,10 +19223,10 @@
     <row r="32">
       <c r="A32" s="5"/>
       <c r="B32" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="2"/>
@@ -19255,10 +19255,10 @@
     <row r="33">
       <c r="A33" s="5"/>
       <c r="B33" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="2"/>
@@ -19370,13 +19370,13 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>
@@ -19405,10 +19405,10 @@
     <row r="38">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="2"/>
@@ -19437,10 +19437,10 @@
     <row r="39">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="2"/>
@@ -19469,7 +19469,7 @@
     <row r="40">
       <c r="A40" s="5"/>
       <c r="B40" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -19526,7 +19526,7 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -19787,7 +19787,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -19819,7 +19819,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -19851,7 +19851,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -19880,10 +19880,10 @@
     <row r="5">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -20051,13 +20051,13 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -20086,10 +20086,10 @@
     <row r="12">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -20118,10 +20118,10 @@
     <row r="13">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -20150,10 +20150,10 @@
     <row r="14">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -20182,10 +20182,10 @@
     <row r="15">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
@@ -20214,10 +20214,10 @@
     <row r="16">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
@@ -20246,10 +20246,10 @@
     <row r="17">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="2"/>
@@ -20278,10 +20278,10 @@
     <row r="18">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="2"/>
@@ -20365,13 +20365,13 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="C21" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -20400,10 +20400,10 @@
     <row r="22">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -20432,10 +20432,10 @@
     <row r="23">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
@@ -20464,10 +20464,10 @@
     <row r="24">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="2"/>
@@ -20496,10 +20496,10 @@
     <row r="25">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="2"/>
@@ -20528,10 +20528,10 @@
     <row r="26">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="2"/>
@@ -20560,10 +20560,10 @@
     <row r="27">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
@@ -20592,7 +20592,7 @@
     <row r="28">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -20677,13 +20677,13 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="C31" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -20712,10 +20712,10 @@
     <row r="32">
       <c r="A32" s="5"/>
       <c r="B32" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="2"/>
@@ -20744,10 +20744,10 @@
     <row r="33">
       <c r="A33" s="5"/>
       <c r="B33" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="2"/>
@@ -20859,13 +20859,13 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>
@@ -20894,10 +20894,10 @@
     <row r="38">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="2"/>
@@ -20926,10 +20926,10 @@
     <row r="39">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="2"/>
@@ -20958,7 +20958,7 @@
     <row r="40">
       <c r="A40" s="5"/>
       <c r="B40" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -21015,7 +21015,7 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -25560,7 +25560,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -25592,7 +25592,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -25651,7 +25651,7 @@
     <row r="5">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -25820,13 +25820,13 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -25855,10 +25855,10 @@
     <row r="12">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -25887,10 +25887,10 @@
     <row r="13">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -25919,10 +25919,10 @@
     <row r="14">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -25951,10 +25951,10 @@
     <row r="15">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
@@ -25983,10 +25983,10 @@
     <row r="16">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
@@ -26015,7 +26015,7 @@
     <row r="17">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -26045,10 +26045,10 @@
     <row r="18">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="2"/>
@@ -26132,13 +26132,13 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="C21" s="4" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -26167,10 +26167,10 @@
     <row r="22">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -26199,10 +26199,10 @@
     <row r="23">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
@@ -26231,10 +26231,10 @@
     <row r="24">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="2"/>
@@ -26263,7 +26263,7 @@
     <row r="25">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -26293,10 +26293,10 @@
     <row r="26">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="2"/>
@@ -26325,7 +26325,7 @@
     <row r="27">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -26355,7 +26355,7 @@
     <row r="28">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -26440,13 +26440,13 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="C31" s="4" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -26475,10 +26475,10 @@
     <row r="32">
       <c r="A32" s="5"/>
       <c r="B32" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="2"/>
@@ -26507,10 +26507,10 @@
     <row r="33">
       <c r="A33" s="5"/>
       <c r="B33" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="2"/>
@@ -26622,13 +26622,13 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>
@@ -26657,10 +26657,10 @@
     <row r="38">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="2"/>
@@ -26689,10 +26689,10 @@
     <row r="39">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="2"/>
@@ -26721,7 +26721,7 @@
     <row r="40">
       <c r="A40" s="5"/>
       <c r="B40" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -26778,7 +26778,7 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -31323,7 +31323,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -31355,7 +31355,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -31414,10 +31414,10 @@
     <row r="5">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -31585,13 +31585,13 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -31620,10 +31620,10 @@
     <row r="12">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -31652,10 +31652,10 @@
     <row r="13">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -31684,10 +31684,10 @@
     <row r="14">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -31716,10 +31716,10 @@
     <row r="15">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
@@ -31748,10 +31748,10 @@
     <row r="16">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
@@ -31780,10 +31780,10 @@
     <row r="17">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="2"/>
@@ -31812,10 +31812,10 @@
     <row r="18">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="2"/>
@@ -31899,13 +31899,13 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -31934,10 +31934,10 @@
     <row r="22">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -31966,10 +31966,10 @@
     <row r="23">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
@@ -31998,10 +31998,10 @@
     <row r="24">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="2"/>
@@ -32030,10 +32030,10 @@
     <row r="25">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="2"/>
@@ -32062,10 +32062,10 @@
     <row r="26">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="2"/>
@@ -32094,10 +32094,10 @@
     <row r="27">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
@@ -32126,7 +32126,7 @@
     <row r="28">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -32211,10 +32211,10 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="5"/>
@@ -32244,10 +32244,10 @@
     <row r="32">
       <c r="A32" s="5"/>
       <c r="B32" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="2"/>
@@ -32276,10 +32276,10 @@
     <row r="33">
       <c r="A33" s="5"/>
       <c r="B33" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="2"/>
@@ -32391,10 +32391,10 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="5"/>
@@ -32424,10 +32424,10 @@
     <row r="38">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="2"/>
@@ -32456,10 +32456,10 @@
     <row r="39">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="2"/>
@@ -32488,7 +32488,7 @@
     <row r="40">
       <c r="A40" s="5"/>
       <c r="B40" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -32545,7 +32545,7 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>

--- a/数据库SQL.xlsx
+++ b/数据库SQL.xlsx
@@ -29,12 +29,10 @@
   </si>
   <si>
     <t xml:space="preserve">
-SELECT
-    SCHEMA_NAME ownerName,
-    DEFAULT_CHARACTER_SET_NAME ownerCharacterSetName,
-    DEFAULT_COLLATION_NAME ownerCollationName
-FROM information_schema.schemata
-ORDER BY SCHEMA_NAME
+SELECT 
+	name ownerName
+FROM pragma_database_list AS t_i 
+ORDER BY name
 </t>
   </si>
   <si>
@@ -42,31 +40,17 @@
   </si>
   <si>
     <t xml:space="preserve">
-SELECT
-    SCHEMA_NAME ownerName,
-    DEFAULT_CHARACTER_SET_NAME ownerCharacterSetName,
-    DEFAULT_COLLATION_NAME ownerCollationName
-FROM information_schema.schemata
-WHERE SCHEMA_NAME={sqlValuePack(ownerName)}
+SELECT 
+	name ownerName
+FROM pragma_database_list AS t_i 
+WHERE name={sqlValuePack(ownerName)}
 </t>
   </si>
   <si>
     <t>OwnerCreate</t>
   </si>
   <si>
-    <t xml:space="preserve">
-CREATE DATABASE [IF NOT EXISTS] {ownerNamePack}
-[CHARACTER SET {ownerCharacterSetName}]
-[COLLATE {ownerCollationName}]
-</t>
-  </si>
-  <si>
     <t>OwnerDelete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-DROP DATABASE IF EXISTS {ownerNamePack}
-</t>
   </si>
   <si>
     <t>表</t>
@@ -76,13 +60,12 @@
   </si>
   <si>
     <t xml:space="preserve">
-SELECT
-    TABLE_NAME tableName,
-    TABLE_COMMENT tableComment,
-    TABLE_SCHEMA ownerName
-FROM information_schema.tables
-WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
-ORDER BY TABLE_NAME
+SELECT 
+	name tableName,
+    sql 
+FROM sqlite_master 
+WHERE type ='table'
+ORDER BY name
 </t>
   </si>
   <si>
@@ -90,13 +73,12 @@
   </si>
   <si>
     <t xml:space="preserve">
-SELECT
-    TABLE_NAME tableName,
-    TABLE_COMMENT tableComment,
-    TABLE_SCHEMA ownerName
-FROM information_schema.tables
-WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
-  AND TABLE_NAME={sqlValuePack(tableName)}
+SELECT 
+	name tableName,
+    sql 
+FROM sqlite_master 
+WHERE type ='table'
+  AND name={sqlValuePack(tableName)}
 </t>
   </si>
   <si>
@@ -107,7 +89,7 @@
 CREATE TABLE [{ownerNamePack}.]{tableNamePack}(
 { tableCreateColumnContent }
 { tableCreatePrimaryKeyContent }
-)[CHARACTER SET {tableCharacterSetName}]
+)
 </t>
   </si>
   <si>
@@ -115,7 +97,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-	{columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)} [COMMENT {sqlValuePack(columnComment)}]
+	{columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)}
 </t>
   </si>
   <si>
@@ -131,22 +113,18 @@
   </si>
   <si>
     <t xml:space="preserve">
-DROP TABLE IF EXISTS [{ownerNamePack}.]{tableNamePack}
+DROP TABLE IF EXISTS [{ownerName}.]{tableName}
 </t>
   </si>
   <si>
     <t>TableComment</t>
   </si>
   <si>
-    <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}.]{tableNamePack} COMMENT {sqlValuePack(tableComment)}</t>
-  </si>
-  <si>
     <t>TableRename</t>
   </si>
   <si>
     <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}.]{oldTableNamePack} RENAME AS {tableNamePack}
+ALTER TABLE [{ownerName}.]{oldTableName} RENAME AS {newTableName}
 </t>
   </si>
   <si>
@@ -157,24 +135,12 @@
   </si>
   <si>
     <t xml:space="preserve">
-SELECT
-    COLUMN_NAME columnName,
-    COLUMN_COMMENT columnComment,
-    COLUMN_DEFAULT columnDefault,
-    EXTRA columnExtra,
-    TABLE_NAME tableName,
-    TABLE_SCHEMA ownerName,
-    CHARACTER_SET_NAME columnCharacterSetName,
-    IS_NULLABLE isNullable,
-    DATA_TYPE columnDataType,
-    COLUMN_TYPE columnType,
-    DATETIME_PRECISION DATETIME_PRECISION,
-    NUMERIC_PRECISION NUMERIC_PRECISION,
-    NUMERIC_SCALE NUMERIC_SCALE,
-    CHARACTER_MAXIMUM_LENGTH CHARACTER_MAXIMUM_LENGTH
-FROM information_schema.columns
-WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
-  AND TABLE_NAME={sqlValuePack(tableName)}
+SELECT 
+	name columnName,
+	dflt_value columnDefault,
+	"notnull" isNotNull,
+	type columnType
+FROM pragma_table_info({tableNamePack}) AS t_i 
 </t>
   </si>
   <si>
@@ -182,21 +148,13 @@
   </si>
   <si>
     <t xml:space="preserve">
-SELECT
-    COLUMN_NAME columnName,
-    COLUMN_COMMENT columnComment,
-    COLUMN_DEFAULT columnDefault,
-    EXTRA columnExtra,
-    TABLE_NAME tableName,
-    TABLE_SCHEMA ownerName,
-    CHARACTER_SET_NAME columnCharacterSetName,
-    IS_NULLABLE isNullable,
-    DATA_TYPE columnDataType,
-    COLUMN_TYPE columnType
-FROM information_schema.columns
-WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
-  AND TABLE_NAME={sqlValuePack(tableName)}
-  AND COLUMN_NAME={sqlValuePack(columnName)}
+SELECT 
+	name columnName,
+	dflt_value columnDefault,
+	"notnull" isNotNull,
+	type columnType
+FROM pragma_table_info({tableNamePack}) AS t_i 
+WHERE name={sqlValuePack(columnName)}
 </t>
   </si>
   <si>
@@ -204,7 +162,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}.]{tableNamePack} ADD COLUMN {columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)} [COMMENT {sqlValuePack(columnComment)}] [AFTER {columnAfterColumnPack}]
+ALTER TABLE [{ownerNamePack}.]{tableNamePack} ADD COLUMN {columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)}
 </t>
   </si>
   <si>
@@ -222,12 +180,12 @@
     <t>ColumnRename</t>
   </si>
   <si>
-    <t>ColumnUpdate</t>
+    <t xml:space="preserve">
+ALTER TABLE [{ownerNamePack}.]{tableNamePack} RENAME COLUMN {oldColumnNamePack} TO {columnNamePack}
+</t>
   </si>
   <si>
-    <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}.]{tableNamePack} CHANGE COLUMN {oldColumnNamePack} {columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)} [COMMENT {sqlValuePack(columnComment)}] [AFTER {columnAfterColumnPack}]
-</t>
+    <t>ColumnUpdate</t>
   </si>
   <si>
     <t>ColumnAfter</t>
@@ -240,16 +198,11 @@
   </si>
   <si>
     <t xml:space="preserve">
-SELECT
-    t2.COLUMN_NAME columnName,
-    t1.TABLE_NAME tableName,
-    t1.TABLE_SCHEMA ownerName
-FROM information_schema.table_constraints t1
-LEFT JOIN information_schema.key_column_usage t2 
-ON (t2.CONSTRAINT_NAME=t1.CONSTRAINT_NAME AND t2.TABLE_SCHEMA=t1.TABLE_SCHEMA AND t2.TABLE_NAME=t1.TABLE_NAME)
-WHERE t1.TABLE_SCHEMA={sqlValuePack(ownerName)}
-  AND t1.TABLE_NAME={sqlValuePack(tableName)}
-  AND t1.CONSTRAINT_TYPE='PRIMARY KEY'
+SELECT 
+	a.name indexName,
+	b.name columnName 
+FROM pragma_index_list({tableNamePack}) AS a,pragma_index_info(a.name) b 
+WHERE a.origin = "pk"
 </t>
   </si>
   <si>
@@ -276,20 +229,12 @@
   </si>
   <si>
     <t xml:space="preserve">
-SELECT
-    t1.INDEX_NAME indexName,
-    t1.COLUMN_NAME columnName,
-    t1.INDEX_COMMENT indexComment,
-    t1.NON_UNIQUE nonUnique,
-    t1.TABLE_NAME tableName,
-    t1.TABLE_SCHEMA ownerName,
-    t2.CONSTRAINT_TYPE
-FROM information_schema.statistics t1
-LEFT JOIN information_schema.table_constraints t2 
-ON (t2.CONSTRAINT_NAME=t1.INDEX_NAME AND t2.TABLE_SCHEMA=t1.TABLE_SCHEMA AND t2.TABLE_NAME=t1.TABLE_NAME)
-WHERE t1.TABLE_SCHEMA={sqlValuePack(ownerName)}
-  AND t1.TABLE_NAME={sqlValuePack(tableName)}
-  AND (t2.CONSTRAINT_TYPE !='PRIMARY KEY' OR t2.CONSTRAINT_TYPE = '' OR t2.CONSTRAINT_TYPE IS NULL)
+SELECT 
+	a.name indexName,
+	a."unique" isUnique,
+	b.name columnName 
+FROM pragma_index_list({tableNamePack}) AS a,pragma_index_info(a.name) b 
+WHERE a.origin != "pk"
 </t>
   </si>
   <si>
@@ -297,7 +242,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}.]{tableNamePack} ADD {indexType} [{indexNamePack}] ({columnNamesPack}) [COMMENT {sqlValuePack(indexComment)}]
+CREATE {indexType} [{indexNamePack}] ON {tableNamePack}({columnNamesPack})
 </t>
   </si>
   <si>
@@ -332,8 +277,8 @@
   </si>
   <si>
     <t xml:space="preserve">
-CREATE USER {doubleQuotationMarksPack(ownerName)} IDENTIFIED BY {doubleQuotationMarksPack(ownerPassword)};
-GRANT DBA TO {doubleQuotationMarksPack(ownerName)};
+CREATE USER {ownerName} IDENTIFIED BY {doubleQuotationMarksPack(ownerPassword)};
+GRANT dba,resource,connect TO {ownerName};
 </t>
   </si>
   <si>
@@ -348,8 +293,7 @@
 	OWNER ownerName
 FROM ALL_TABLES
 WHERE OWNER={sqlValuePack(ownerName)}
-ORDER BY TABLE_NAME 
-</t>
+ORDER BY TABLE_NAME </t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -359,19 +303,6 @@
 FROM ALL_TABLES
 WHERE OWNER={sqlValuePack(ownerName)}
   AND TABLE_NAME={sqlValuePack(tableName)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-CREATE TABLE [{ownerNamePack}.]{tableNamePack}(
-{ tableCreateColumnContent }
-{ tableCreatePrimaryKeyContent }
-)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)}
 </t>
   </si>
   <si>
@@ -442,11 +373,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}.]{tableNamePack} RENAME COLUMN {oldColumnNamePack} TO {columnNamePack}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
 ALTER TABLE [{ownerNamePack}.]{tableNamePack} MODIFY {columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)}
 </t>
   </si>
@@ -491,8 +417,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-CREATE USER {ownerName} IDENTIFIED BY {doubleQuotationMarksPack(ownerPassword)};
-GRANT dba,resource,connect TO {ownerName};
+CREATE USER {ownerName} WITH PASSWORD {sqlValuePack(ownerPassword)};
 </t>
   </si>
   <si>
@@ -502,11 +427,7 @@
 	OWNER ownerName
 FROM ALL_TABLES
 WHERE OWNER={sqlValuePack(ownerName)}
-ORDER BY TABLE_NAME </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-CREATE USER {ownerName} WITH PASSWORD {sqlValuePack(ownerPassword)};
+ORDER BY TABLE_NAME 
 </t>
   </si>
   <si>
@@ -602,6 +523,20 @@
   </si>
   <si>
     <t xml:space="preserve">
+SELECT
+    t2.COLUMN_NAME columnName,
+    t1.TABLE_NAME tableName,
+    t1.TABLE_SCHEMA ownerName
+FROM information_schema.table_constraints t1
+LEFT JOIN information_schema.key_column_usage t2 
+ON (t2.CONSTRAINT_NAME=t1.CONSTRAINT_NAME AND t2.TABLE_SCHEMA=t1.TABLE_SCHEMA AND t2.TABLE_NAME=t1.TABLE_NAME)
+WHERE t1.TABLE_SCHEMA={sqlValuePack(ownerName)}
+  AND t1.TABLE_NAME={sqlValuePack(tableName)}
+  AND t1.CONSTRAINT_TYPE='PRIMARY KEY'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 SELECT 
     t1.INDEX_NAME indexName,
     t1.COLUMN_NAME columnName,
@@ -629,102 +564,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-SELECT 
-	name ownerName
-FROM pragma_database_list AS t_i 
-ORDER BY name
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT 
-	name ownerName
-FROM pragma_database_list AS t_i 
-WHERE name={sqlValuePack(ownerName)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT 
-	name tableName,
-    sql 
-FROM sqlite_master 
-WHERE type ='table'
-ORDER BY name
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT 
-	name tableName,
-    sql 
-FROM sqlite_master 
-WHERE type ='table'
-  AND name={sqlValuePack(tableName)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-DROP TABLE IF EXISTS [{ownerName}.]{tableName}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ALTER TABLE [{ownerName}.]{oldTableName} RENAME AS {newTableName}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT 
-	name columnName,
-	dflt_value columnDefault,
-	"notnull" isNotNull,
-	type columnType
-FROM pragma_table_info({tableNamePack}) AS t_i 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT 
-	name columnName,
-	dflt_value columnDefault,
-	"notnull" isNotNull,
-	type columnType
-FROM pragma_table_info({tableNamePack}) AS t_i 
-WHERE name={sqlValuePack(columnName)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}.]{tableNamePack} ADD COLUMN {columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT 
-	a.name indexName,
-	b.name columnName 
-FROM pragma_index_list({tableNamePack}) AS a,pragma_index_info(a.name) b 
-WHERE a.origin = "pk"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT 
-	a.name indexName,
-	a."unique" isUnique,
-	b.name columnName 
-FROM pragma_index_list({tableNamePack}) AS a,pragma_index_info(a.name) b 
-WHERE a.origin != "pk"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-CREATE {indexType} [{indexNamePack}] ON {tableNamePack}({columnNamesPack})
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
 select  trim(name) as "ownerName" 
 from sysmaster:sysdatabases
 ORDER BY name
@@ -744,17 +583,16 @@
   </si>
   <si>
     <t xml:space="preserve">
-select  trim(dbsname) as "ownerName",trim(tabname) as "tableName"
- from sysmaster:systabnames 
-WHERE dbsname={sqlValuePack(ownerName)}
+select  trim(tabname) as "tableName"
+ from {ownerNamePack}:systables 
 ORDER BY tabname</t>
   </si>
   <si>
     <t xml:space="preserve">
-select  trim(dbsname) as "ownerName",trim(tabname) as "tableName"
- from sysmaster:systabnames 
-WHERE dbsname={sqlValuePack(ownerName)}
-  AND tabname={sqlValuePack(tableName)}
+select  trim(tabname) as "tableName"
+ from {ownerNamePack}:systables 
+WHERE
+  tabname={sqlValuePack(tableName)}
 </t>
   </si>
   <si>
@@ -865,6 +703,167 @@
   <si>
     <t xml:space="preserve">
 CREATE {indexType} [{indexNamePack}] ON [{ownerNamePack}:]{tableNamePack} ({columnNamesPack})
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT
+    SCHEMA_NAME ownerName,
+    DEFAULT_CHARACTER_SET_NAME ownerCharacterSetName,
+    DEFAULT_COLLATION_NAME ownerCollationName
+FROM information_schema.schemata
+ORDER BY SCHEMA_NAME
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT
+    SCHEMA_NAME ownerName,
+    DEFAULT_CHARACTER_SET_NAME ownerCharacterSetName,
+    DEFAULT_COLLATION_NAME ownerCollationName
+FROM information_schema.schemata
+WHERE SCHEMA_NAME={sqlValuePack(ownerName)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CREATE DATABASE [IF NOT EXISTS] {ownerNamePack}
+[CHARACTER SET {ownerCharacterSetName}]
+[COLLATE {ownerCollationName}]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DROP DATABASE IF EXISTS {ownerNamePack}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT
+    TABLE_NAME tableName,
+    TABLE_COMMENT tableComment,
+    TABLE_SCHEMA ownerName
+FROM information_schema.tables
+WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
+ORDER BY TABLE_NAME
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT
+    TABLE_NAME tableName,
+    TABLE_COMMENT tableComment,
+    TABLE_SCHEMA ownerName
+FROM information_schema.tables
+WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
+  AND TABLE_NAME={sqlValuePack(tableName)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CREATE TABLE [{ownerNamePack}.]{tableNamePack}(
+{ tableCreateColumnContent }
+{ tableCreatePrimaryKeyContent }
+)[CHARACTER SET {tableCharacterSetName}]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)} [COMMENT {sqlValuePack(columnComment)}]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DROP TABLE IF EXISTS [{ownerNamePack}.]{tableNamePack}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ALTER TABLE [{ownerNamePack}.]{tableNamePack} COMMENT {sqlValuePack(tableComment)}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ALTER TABLE [{ownerNamePack}.]{oldTableNamePack} RENAME AS {tableNamePack}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT
+    COLUMN_NAME columnName,
+    COLUMN_COMMENT columnComment,
+    COLUMN_DEFAULT columnDefault,
+    EXTRA columnExtra,
+    TABLE_NAME tableName,
+    TABLE_SCHEMA ownerName,
+    CHARACTER_SET_NAME columnCharacterSetName,
+    IS_NULLABLE isNullable,
+    DATA_TYPE columnDataType,
+    COLUMN_TYPE columnType,
+    DATETIME_PRECISION DATETIME_PRECISION,
+    NUMERIC_PRECISION NUMERIC_PRECISION,
+    NUMERIC_SCALE NUMERIC_SCALE,
+    CHARACTER_MAXIMUM_LENGTH CHARACTER_MAXIMUM_LENGTH
+FROM information_schema.columns
+WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
+  AND TABLE_NAME={sqlValuePack(tableName)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT
+    COLUMN_NAME columnName,
+    COLUMN_COMMENT columnComment,
+    COLUMN_DEFAULT columnDefault,
+    EXTRA columnExtra,
+    TABLE_NAME tableName,
+    TABLE_SCHEMA ownerName,
+    CHARACTER_SET_NAME columnCharacterSetName,
+    IS_NULLABLE isNullable,
+    DATA_TYPE columnDataType,
+    COLUMN_TYPE columnType
+FROM information_schema.columns
+WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
+  AND TABLE_NAME={sqlValuePack(tableName)}
+  AND COLUMN_NAME={sqlValuePack(columnName)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ALTER TABLE [{ownerNamePack}.]{tableNamePack} ADD COLUMN {columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)} [COMMENT {sqlValuePack(columnComment)}] [AFTER {columnAfterColumnPack}]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ALTER TABLE [{ownerNamePack}.]{tableNamePack} CHANGE COLUMN {oldColumnNamePack} {columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)} [COMMENT {sqlValuePack(columnComment)}] [AFTER {columnAfterColumnPack}]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT
+    t1.INDEX_NAME indexName,
+    t1.COLUMN_NAME columnName,
+    t1.INDEX_COMMENT indexComment,
+    t1.NON_UNIQUE nonUnique,
+    t1.TABLE_NAME tableName,
+    t1.TABLE_SCHEMA ownerName,
+    t2.CONSTRAINT_TYPE
+FROM information_schema.statistics t1
+LEFT JOIN information_schema.table_constraints t2 
+ON (t2.CONSTRAINT_NAME=t1.INDEX_NAME AND t2.TABLE_SCHEMA=t1.TABLE_SCHEMA AND t2.TABLE_NAME=t1.TABLE_NAME)
+WHERE t1.TABLE_SCHEMA={sqlValuePack(ownerName)}
+  AND t1.TABLE_NAME={sqlValuePack(tableName)}
+  AND (t2.CONSTRAINT_TYPE !='PRIMARY KEY' OR t2.CONSTRAINT_TYPE = '' OR t2.CONSTRAINT_TYPE IS NULL)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ALTER TABLE [{ownerNamePack}.]{tableNamePack} ADD {indexType} [{indexNamePack}] ({columnNamesPack}) [COMMENT {sqlValuePack(indexComment)}]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CREATE USER {doubleQuotationMarksPack(ownerName)} IDENTIFIED BY {doubleQuotationMarksPack(ownerPassword)};
+GRANT DBA TO {doubleQuotationMarksPack(ownerName)};
 </t>
   </si>
   <si>
@@ -1351,7 +1350,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1718,7 +1717,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -1747,7 +1746,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -1776,7 +1775,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -1802,10 +1801,10 @@
     <row r="5">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -1955,13 +1954,13 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -1987,10 +1986,10 @@
     <row r="12">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -2016,10 +2015,10 @@
     <row r="13">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -2045,10 +2044,10 @@
     <row r="14">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -2074,10 +2073,10 @@
     <row r="15">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
@@ -2103,10 +2102,10 @@
     <row r="16">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
@@ -2132,10 +2131,10 @@
     <row r="17">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="2"/>
@@ -2161,10 +2160,10 @@
     <row r="18">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="2"/>
@@ -2239,13 +2238,13 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -2271,10 +2270,10 @@
     <row r="22">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -2300,10 +2299,10 @@
     <row r="23">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
@@ -2329,10 +2328,10 @@
     <row r="24">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="2"/>
@@ -2358,7 +2357,7 @@
     <row r="25">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -2385,7 +2384,7 @@
     <row r="26">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -2412,10 +2411,10 @@
     <row r="27">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
@@ -2441,7 +2440,7 @@
     <row r="28">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -2517,13 +2516,13 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -2549,10 +2548,10 @@
     <row r="32">
       <c r="A32" s="5"/>
       <c r="B32" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="2"/>
@@ -2578,10 +2577,10 @@
     <row r="33">
       <c r="A33" s="5"/>
       <c r="B33" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="2"/>
@@ -2681,13 +2680,13 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>
@@ -2713,10 +2712,10 @@
     <row r="38">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="2"/>
@@ -2742,10 +2741,10 @@
     <row r="39">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="2"/>
@@ -2771,7 +2770,7 @@
     <row r="40">
       <c r="A40" s="5"/>
       <c r="B40" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -2822,7 +2821,7 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -6815,7 +6814,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -6847,7 +6846,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -6879,7 +6878,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -6908,10 +6907,10 @@
     <row r="5">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -7079,13 +7078,13 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -7114,10 +7113,10 @@
     <row r="12">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -7146,10 +7145,10 @@
     <row r="13">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -7178,10 +7177,10 @@
     <row r="14">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -7210,10 +7209,10 @@
     <row r="15">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
@@ -7242,10 +7241,10 @@
     <row r="16">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
@@ -7274,10 +7273,10 @@
     <row r="17">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="2"/>
@@ -7306,10 +7305,10 @@
     <row r="18">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="2"/>
@@ -7393,13 +7392,13 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -7428,10 +7427,10 @@
     <row r="22">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -7460,10 +7459,10 @@
     <row r="23">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
@@ -7492,10 +7491,10 @@
     <row r="24">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="2"/>
@@ -7524,10 +7523,10 @@
     <row r="25">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="2"/>
@@ -7556,10 +7555,10 @@
     <row r="26">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="2"/>
@@ -7588,10 +7587,10 @@
     <row r="27">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
@@ -7620,7 +7619,7 @@
     <row r="28">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -7705,13 +7704,13 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -7740,10 +7739,10 @@
     <row r="32">
       <c r="A32" s="5"/>
       <c r="B32" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="2"/>
@@ -7772,10 +7771,10 @@
     <row r="33">
       <c r="A33" s="5"/>
       <c r="B33" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="2"/>
@@ -7887,13 +7886,13 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>
@@ -7922,10 +7921,10 @@
     <row r="38">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="2"/>
@@ -7954,10 +7953,10 @@
     <row r="39">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="2"/>
@@ -7986,7 +7985,7 @@
     <row r="40">
       <c r="A40" s="5"/>
       <c r="B40" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -8043,7 +8042,7 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -12588,7 +12587,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -12620,7 +12619,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -12652,7 +12651,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -12681,10 +12680,10 @@
     <row r="5">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -12852,13 +12851,13 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -12887,10 +12886,10 @@
     <row r="12">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -12919,10 +12918,10 @@
     <row r="13">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -12951,10 +12950,10 @@
     <row r="14">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -12983,10 +12982,10 @@
     <row r="15">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
@@ -13015,10 +13014,10 @@
     <row r="16">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
@@ -13047,10 +13046,10 @@
     <row r="17">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="2"/>
@@ -13079,10 +13078,10 @@
     <row r="18">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="2"/>
@@ -13166,13 +13165,13 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -13201,10 +13200,10 @@
     <row r="22">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -13233,10 +13232,10 @@
     <row r="23">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
@@ -13265,10 +13264,10 @@
     <row r="24">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="2"/>
@@ -13297,10 +13296,10 @@
     <row r="25">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="2"/>
@@ -13329,10 +13328,10 @@
     <row r="26">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="2"/>
@@ -13361,10 +13360,10 @@
     <row r="27">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
@@ -13393,7 +13392,7 @@
     <row r="28">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -13478,13 +13477,13 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -13513,10 +13512,10 @@
     <row r="32">
       <c r="A32" s="5"/>
       <c r="B32" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="2"/>
@@ -13545,10 +13544,10 @@
     <row r="33">
       <c r="A33" s="5"/>
       <c r="B33" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="2"/>
@@ -13660,13 +13659,13 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>
@@ -13695,10 +13694,10 @@
     <row r="38">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="2"/>
@@ -13727,10 +13726,10 @@
     <row r="39">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="2"/>
@@ -13759,7 +13758,7 @@
     <row r="40">
       <c r="A40" s="5"/>
       <c r="B40" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -13816,7 +13815,7 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -18361,7 +18360,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -18393,7 +18392,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -18425,7 +18424,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -18454,10 +18453,10 @@
     <row r="5">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -18625,13 +18624,13 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -18660,10 +18659,10 @@
     <row r="12">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -18692,10 +18691,10 @@
     <row r="13">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -18724,10 +18723,10 @@
     <row r="14">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -18756,10 +18755,10 @@
     <row r="15">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
@@ -18788,10 +18787,10 @@
     <row r="16">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
@@ -18820,10 +18819,10 @@
     <row r="17">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="2"/>
@@ -18852,10 +18851,10 @@
     <row r="18">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="2"/>
@@ -18939,13 +18938,13 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -18974,10 +18973,10 @@
     <row r="22">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -19006,10 +19005,10 @@
     <row r="23">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
@@ -19038,10 +19037,10 @@
     <row r="24">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="2"/>
@@ -19070,10 +19069,10 @@
     <row r="25">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="2"/>
@@ -19102,10 +19101,10 @@
     <row r="26">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="2"/>
@@ -19134,10 +19133,10 @@
     <row r="27">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
@@ -19166,7 +19165,7 @@
     <row r="28">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -19251,13 +19250,13 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -19286,10 +19285,10 @@
     <row r="32">
       <c r="A32" s="5"/>
       <c r="B32" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="2"/>
@@ -19318,10 +19317,10 @@
     <row r="33">
       <c r="A33" s="5"/>
       <c r="B33" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="2"/>
@@ -19433,13 +19432,13 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>
@@ -19468,10 +19467,10 @@
     <row r="38">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="2"/>
@@ -19500,10 +19499,10 @@
     <row r="39">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="2"/>
@@ -19532,7 +19531,7 @@
     <row r="40">
       <c r="A40" s="5"/>
       <c r="B40" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -19589,7 +19588,7 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -19850,7 +19849,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -19882,7 +19881,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -19914,7 +19913,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -19943,10 +19942,10 @@
     <row r="5">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -20114,13 +20113,13 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -20149,10 +20148,10 @@
     <row r="12">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -20181,10 +20180,10 @@
     <row r="13">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -20213,10 +20212,10 @@
     <row r="14">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -20245,10 +20244,10 @@
     <row r="15">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
@@ -20277,10 +20276,10 @@
     <row r="16">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
@@ -20309,10 +20308,10 @@
     <row r="17">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="2"/>
@@ -20341,10 +20340,10 @@
     <row r="18">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="2"/>
@@ -20428,13 +20427,13 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -20463,10 +20462,10 @@
     <row r="22">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -20495,10 +20494,10 @@
     <row r="23">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
@@ -20527,10 +20526,10 @@
     <row r="24">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="2"/>
@@ -20559,10 +20558,10 @@
     <row r="25">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="2"/>
@@ -20591,10 +20590,10 @@
     <row r="26">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="2"/>
@@ -20623,10 +20622,10 @@
     <row r="27">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
@@ -20655,7 +20654,7 @@
     <row r="28">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -20740,13 +20739,13 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -20775,10 +20774,10 @@
     <row r="32">
       <c r="A32" s="5"/>
       <c r="B32" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="2"/>
@@ -20807,10 +20806,10 @@
     <row r="33">
       <c r="A33" s="5"/>
       <c r="B33" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="2"/>
@@ -20922,13 +20921,13 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>
@@ -20957,10 +20956,10 @@
     <row r="38">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="2"/>
@@ -20989,10 +20988,10 @@
     <row r="39">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="2"/>
@@ -21021,7 +21020,7 @@
     <row r="40">
       <c r="A40" s="5"/>
       <c r="B40" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -21078,7 +21077,7 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -25623,7 +25622,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -25655,7 +25654,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -25714,7 +25713,7 @@
     <row r="5">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -25883,13 +25882,13 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -25918,10 +25917,10 @@
     <row r="12">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -25950,10 +25949,10 @@
     <row r="13">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -25982,10 +25981,10 @@
     <row r="14">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -26014,10 +26013,10 @@
     <row r="15">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
@@ -26046,10 +26045,10 @@
     <row r="16">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
@@ -26078,7 +26077,7 @@
     <row r="17">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -26108,10 +26107,10 @@
     <row r="18">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="2"/>
@@ -26195,13 +26194,13 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -26230,10 +26229,10 @@
     <row r="22">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -26262,10 +26261,10 @@
     <row r="23">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
@@ -26294,10 +26293,10 @@
     <row r="24">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="2"/>
@@ -26326,7 +26325,7 @@
     <row r="25">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -26356,10 +26355,10 @@
     <row r="26">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="2"/>
@@ -26388,7 +26387,7 @@
     <row r="27">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -26418,7 +26417,7 @@
     <row r="28">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -26503,13 +26502,13 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -26538,10 +26537,10 @@
     <row r="32">
       <c r="A32" s="5"/>
       <c r="B32" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="2"/>
@@ -26570,10 +26569,10 @@
     <row r="33">
       <c r="A33" s="5"/>
       <c r="B33" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="2"/>
@@ -26685,13 +26684,13 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>
@@ -26720,10 +26719,10 @@
     <row r="38">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="2"/>
@@ -26752,10 +26751,10 @@
     <row r="39">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="2"/>
@@ -26784,7 +26783,7 @@
     <row r="40">
       <c r="A40" s="5"/>
       <c r="B40" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -26841,7 +26840,7 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -31386,7 +31385,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -31418,7 +31417,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -31477,10 +31476,10 @@
     <row r="5">
       <c r="A5" s="5"/>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -31648,13 +31647,13 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -31683,10 +31682,10 @@
     <row r="12">
       <c r="A12" s="5"/>
       <c r="B12" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -31715,10 +31714,10 @@
     <row r="13">
       <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -31747,10 +31746,10 @@
     <row r="14">
       <c r="A14" s="5"/>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -31779,10 +31778,10 @@
     <row r="15">
       <c r="A15" s="5"/>
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
@@ -31811,10 +31810,10 @@
     <row r="16">
       <c r="A16" s="5"/>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
@@ -31843,10 +31842,10 @@
     <row r="17">
       <c r="A17" s="5"/>
       <c r="B17" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="2"/>
@@ -31875,10 +31874,10 @@
     <row r="18">
       <c r="A18" s="5"/>
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="2"/>
@@ -31962,13 +31961,13 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -31997,10 +31996,10 @@
     <row r="22">
       <c r="A22" s="5"/>
       <c r="B22" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -32029,10 +32028,10 @@
     <row r="23">
       <c r="A23" s="5"/>
       <c r="B23" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
@@ -32061,10 +32060,10 @@
     <row r="24">
       <c r="A24" s="5"/>
       <c r="B24" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="2"/>
@@ -32093,10 +32092,10 @@
     <row r="25">
       <c r="A25" s="5"/>
       <c r="B25" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="2"/>
@@ -32125,10 +32124,10 @@
     <row r="26">
       <c r="A26" s="5"/>
       <c r="B26" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="2"/>
@@ -32157,10 +32156,10 @@
     <row r="27">
       <c r="A27" s="5"/>
       <c r="B27" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
@@ -32189,7 +32188,7 @@
     <row r="28">
       <c r="A28" s="5"/>
       <c r="B28" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -32274,10 +32273,10 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="5"/>
@@ -32307,10 +32306,10 @@
     <row r="32">
       <c r="A32" s="5"/>
       <c r="B32" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="2"/>
@@ -32339,10 +32338,10 @@
     <row r="33">
       <c r="A33" s="5"/>
       <c r="B33" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="2"/>
@@ -32454,10 +32453,10 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="5"/>
@@ -32487,10 +32486,10 @@
     <row r="38">
       <c r="A38" s="5"/>
       <c r="B38" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="2"/>
@@ -32519,10 +32518,10 @@
     <row r="39">
       <c r="A39" s="5"/>
       <c r="B39" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="2"/>
@@ -32551,7 +32550,7 @@
     <row r="40">
       <c r="A40" s="5"/>
       <c r="B40" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -32608,7 +32607,7 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>

--- a/数据库SQL.xlsx
+++ b/数据库SQL.xlsx
@@ -277,8 +277,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-CREATE USER {ownerName} IDENTIFIED BY {doubleQuotationMarksPack(ownerPassword)};
-GRANT dba,resource,connect TO {ownerName};
+CREATE USER {ownerName} WITH PASSWORD {sqlValuePack(ownerPassword)};
 </t>
   </si>
   <si>
@@ -293,7 +292,8 @@
 	OWNER ownerName
 FROM ALL_TABLES
 WHERE OWNER={sqlValuePack(ownerName)}
-ORDER BY TABLE_NAME </t>
+ORDER BY TABLE_NAME 
+</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -417,153 +417,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-CREATE USER {ownerName} WITH PASSWORD {sqlValuePack(ownerPassword)};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT 
-	TABLE_NAME tableName,
-	OWNER ownerName
-FROM ALL_TABLES
-WHERE OWNER={sqlValuePack(ownerName)}
-ORDER BY TABLE_NAME 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT
-    SCHEMA_NAME ownerName
-FROM information_schema.schemata
-ORDER BY SCHEMA_NAME
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT
-    SCHEMA_NAME ownerName
-FROM information_schema.schemata
-WHERE SCHEMA_NAME={sqlValuePack(ownerName)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-CREATE USER {ownerName} WITH PASSWORD {sqlValuePack(ownerPassword)};
-CREATE SCHEMA {ownerName};
-GRANT USAGE ON SCHEMA {ownerName} TO {ownerName};
-GRANT ALL ON SCHEMA {ownerName} TO {ownerName};
-GRANT ALL ON ALL TABLES IN SCHEMA {ownerName} TO {ownerName};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-DROP SCHEMA IF EXISTS {ownerName} CASCADE;
-DROP USER IF EXISTS {ownerName};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT
-    TABLE_NAME tableName,
-    TABLE_SCHEMA ownerName
-FROM information_schema.tables
-WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
-ORDER BY TABLE_NAME
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT
-    TABLE_NAME tableName,
-    TABLE_SCHEMA ownerName
-FROM information_schema.tables
-WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
-  AND TABLE_NAME={sqlValuePack(tableName)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT
-    COLUMN_NAME columnName,
-    COLUMN_DEFAULT columnDefault,
-    TABLE_NAME tableName,
-    TABLE_SCHEMA ownerName,
-    IS_NULLABLE isNullable,
-    DATA_TYPE columnDataType,
-    DATETIME_PRECISION DATETIME_PRECISION,
-    NUMERIC_PRECISION NUMERIC_PRECISION,
-    NUMERIC_SCALE NUMERIC_SCALE,
-    CHARACTER_MAXIMUM_LENGTH CHARACTER_MAXIMUM_LENGTH
-FROM information_schema.columns
-WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
-  AND TABLE_NAME={sqlValuePack(tableName)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT
-    COLUMN_NAME columnName,
-    COLUMN_DEFAULT columnDefault,
-    TABLE_NAME tableName,
-    TABLE_SCHEMA ownerName,
-    IS_NULLABLE isNullable,
-    DATA_TYPE columnDataType,
-    NUMERIC_PRECISION NUMERIC_PRECISION,
-    NUMERIC_SCALE NUMERIC_SCALE,
-    CHARACTER_MAXIMUM_LENGTH CHARACTER_MAXIMUM_LENGTH
-FROM information_schema.columns
-WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
-  AND TABLE_NAME={sqlValuePack(tableName)}
-  AND COLUMN_NAME={sqlValuePack(columnName)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}.]{tableNamePack} ALTER COLUMN {columnNamePack} TYPE {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT
-    t2.COLUMN_NAME columnName,
-    t1.TABLE_NAME tableName,
-    t1.TABLE_SCHEMA ownerName
-FROM information_schema.table_constraints t1
-LEFT JOIN information_schema.key_column_usage t2 
-ON (t2.CONSTRAINT_NAME=t1.CONSTRAINT_NAME AND t2.TABLE_SCHEMA=t1.TABLE_SCHEMA AND t2.TABLE_NAME=t1.TABLE_NAME)
-WHERE t1.TABLE_SCHEMA={sqlValuePack(ownerName)}
-  AND t1.TABLE_NAME={sqlValuePack(tableName)}
-  AND t1.CONSTRAINT_TYPE='PRIMARY KEY'
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT 
-    t1.INDEX_NAME indexName,
-    t1.COLUMN_NAME columnName,
-    t1.TABLE_OWNER ownerName,
-    t1.TABLE_NAME tableName,
-    t2.UNIQUENESS 
-FROM ALL_IND_COLUMNS t1
-LEFT JOIN ALL_INDEXES t2 ON (t2.INDEX_NAME = t1.INDEX_NAME)
-LEFT JOIN ALL_CONSTRAINTS t3 ON (t3.CONSTRAINT_NAME = t1.INDEX_NAME)
-WHERE t1.INDEX_NAME IN(
-    SELECT INDEXNAME 
-    FROM SYS_CATALOG.sys_indexes 
-    WHERE SCHEMANAME={sqlValuePack(ownerName)}
-        AND TABLENAME={sqlValuePack(tableName)}
-) 
-	AND t1.INDEX_NAME NOT IN(
-    SELECT
-    t1.CONSTRAINT_NAME
-FROM information_schema.table_constraints t1
-WHERE t1.TABLE_SCHEMA={sqlValuePack(ownerName)}
-  AND t1.TABLE_NAME={sqlValuePack(tableName)}
-  AND t1.CONSTRAINT_TYPE='PRIMARY KEY'
-)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
 select  trim(name) as "ownerName" 
 from sysmaster:sysdatabases
 ORDER BY name
@@ -627,11 +480,9 @@
   get_colname(c.coltype ,c.collength ,c.extended_id ,1 ) as "columnType",
   cs_null.constrtype  as notNull,
   c.collength as "DATA_LENGTH",
-  trim(cc.comments) as "columnComment",
   c.colno as sortNo
  from {ownerNamePack}:systables t
  left join {ownerNamePack}:syscolumns c on c.tabid = t.tabid
- left join {ownerNamePack}:syscolcomms cc on (t.tabid = cc.tabid and c.colno = cc.colno)
  left join {ownerNamePack}:sysdefaults d on (t.tabid = d.tabid and c.colno = d.colno)
  left join {ownerNamePack}:syscoldepend cd on (c.tabid = cd.tabid and c.colno = cd.colno)
  left join {ownerNamePack}:sysxtdtypes xt on c.extended_id = xt.extended_id
@@ -650,11 +501,9 @@
   get_colname(c.coltype ,c.collength ,c.extended_id ,1 ) as "columnType",
   cs_null.constrtype  as notNull,
   c.collength as "DATA_LENGTH",
-  trim(cc.comments) as "columnComment",
   c.colno as sortNo
  from {ownerNamePack}:systables t
  left join {ownerNamePack}:syscolumns c on c.tabid = t.tabid
- left join {ownerNamePack}:syscolcomms cc on (t.tabid = cc.tabid and c.colno = cc.colno)
  left join {ownerNamePack}:sysdefaults d on (t.tabid = d.tabid and c.colno = d.colno)
  left join {ownerNamePack}:syscoldepend cd on (c.tabid = cd.tabid and c.colno = cd.colno)
  left join {ownerNamePack}:sysxtdtypes xt on c.extended_id = xt.extended_id
@@ -703,6 +552,12 @@
   <si>
     <t xml:space="preserve">
 CREATE {indexType} [{indexNamePack}] ON [{ownerNamePack}:]{tableNamePack} ({columnNamesPack})
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CREATE USER {doubleQuotationMarksPack(ownerName)} IDENTIFIED BY {doubleQuotationMarksPack(ownerPassword)};
+GRANT DBA TO {doubleQuotationMarksPack(ownerName)};
 </t>
   </si>
   <si>
@@ -840,6 +695,20 @@
   <si>
     <t xml:space="preserve">
 SELECT
+    t2.COLUMN_NAME columnName,
+    t1.TABLE_NAME tableName,
+    t1.TABLE_SCHEMA ownerName
+FROM information_schema.table_constraints t1
+LEFT JOIN information_schema.key_column_usage t2 
+ON (t2.CONSTRAINT_NAME=t1.CONSTRAINT_NAME AND t2.TABLE_SCHEMA=t1.TABLE_SCHEMA AND t2.TABLE_NAME=t1.TABLE_NAME)
+WHERE t1.TABLE_SCHEMA={sqlValuePack(ownerName)}
+  AND t1.TABLE_NAME={sqlValuePack(tableName)}
+  AND t1.CONSTRAINT_TYPE='PRIMARY KEY'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT
     t1.INDEX_NAME indexName,
     t1.COLUMN_NAME columnName,
     t1.INDEX_COMMENT indexComment,
@@ -862,9 +731,136 @@
   </si>
   <si>
     <t xml:space="preserve">
-CREATE USER {doubleQuotationMarksPack(ownerName)} IDENTIFIED BY {doubleQuotationMarksPack(ownerPassword)};
-GRANT DBA TO {doubleQuotationMarksPack(ownerName)};
+SELECT
+    SCHEMA_NAME ownerName
+FROM information_schema.schemata
+ORDER BY SCHEMA_NAME
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT
+    SCHEMA_NAME ownerName
+FROM information_schema.schemata
+WHERE SCHEMA_NAME={sqlValuePack(ownerName)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CREATE USER {ownerName} WITH PASSWORD {sqlValuePack(ownerPassword)};
+CREATE SCHEMA {ownerName};
+GRANT USAGE ON SCHEMA {ownerName} TO {ownerName};
+GRANT ALL ON SCHEMA {ownerName} TO {ownerName};
+GRANT ALL ON ALL TABLES IN SCHEMA {ownerName} TO {ownerName};
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DROP SCHEMA IF EXISTS {ownerName} CASCADE;
+DROP USER IF EXISTS {ownerName};
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT
+    TABLE_NAME tableName,
+    TABLE_SCHEMA ownerName
+FROM information_schema.tables
+WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
+ORDER BY TABLE_NAME
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT
+    TABLE_NAME tableName,
+    TABLE_SCHEMA ownerName
+FROM information_schema.tables
+WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
+  AND TABLE_NAME={sqlValuePack(tableName)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT
+    COLUMN_NAME columnName,
+    COLUMN_DEFAULT columnDefault,
+    TABLE_NAME tableName,
+    TABLE_SCHEMA ownerName,
+    IS_NULLABLE isNullable,
+    DATA_TYPE columnDataType,
+    DATETIME_PRECISION DATETIME_PRECISION,
+    NUMERIC_PRECISION NUMERIC_PRECISION,
+    NUMERIC_SCALE NUMERIC_SCALE,
+    CHARACTER_MAXIMUM_LENGTH CHARACTER_MAXIMUM_LENGTH
+FROM information_schema.columns
+WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
+  AND TABLE_NAME={sqlValuePack(tableName)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT
+    COLUMN_NAME columnName,
+    COLUMN_DEFAULT columnDefault,
+    TABLE_NAME tableName,
+    TABLE_SCHEMA ownerName,
+    IS_NULLABLE isNullable,
+    DATA_TYPE columnDataType,
+    NUMERIC_PRECISION NUMERIC_PRECISION,
+    NUMERIC_SCALE NUMERIC_SCALE,
+    CHARACTER_MAXIMUM_LENGTH CHARACTER_MAXIMUM_LENGTH
+FROM information_schema.columns
+WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
+  AND TABLE_NAME={sqlValuePack(tableName)}
+  AND COLUMN_NAME={sqlValuePack(columnName)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ALTER TABLE [{ownerNamePack}.]{tableNamePack} ALTER COLUMN {columnNamePack} TYPE {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT 
+    t1.INDEX_NAME indexName,
+    t1.COLUMN_NAME columnName,
+    t1.TABLE_OWNER ownerName,
+    t1.TABLE_NAME tableName,
+    t2.UNIQUENESS 
+FROM ALL_IND_COLUMNS t1
+LEFT JOIN ALL_INDEXES t2 ON (t2.INDEX_NAME = t1.INDEX_NAME)
+LEFT JOIN ALL_CONSTRAINTS t3 ON (t3.CONSTRAINT_NAME = t1.INDEX_NAME)
+WHERE t1.INDEX_NAME IN(
+    SELECT INDEXNAME 
+    FROM SYS_CATALOG.sys_indexes 
+    WHERE SCHEMANAME={sqlValuePack(ownerName)}
+        AND TABLENAME={sqlValuePack(tableName)}
+) 
+	AND t1.INDEX_NAME NOT IN(
+    SELECT
+    t1.CONSTRAINT_NAME
+FROM information_schema.table_constraints t1
+WHERE t1.TABLE_SCHEMA={sqlValuePack(ownerName)}
+  AND t1.TABLE_NAME={sqlValuePack(tableName)}
+  AND t1.CONSTRAINT_TYPE='PRIMARY KEY'
+)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CREATE USER {ownerName} IDENTIFIED BY {doubleQuotationMarksPack(ownerPassword)};
+GRANT dba,resource,connect TO {ownerName};
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT 
+	TABLE_NAME tableName,
+	OWNER ownerName
+FROM ALL_TABLES
+WHERE OWNER={sqlValuePack(ownerName)}
+ORDER BY TABLE_NAME </t>
   </si>
   <si>
     <r>
@@ -1350,7 +1346,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
+<a:theme xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:xvml="urn:schemas-microsoft-com:office:excel" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:pvml="urn:schemas-microsoft-com:office:powerpoint" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:odx="http://opendope.org/xpaths" xmlns:odc="http://opendope.org/conditions" xmlns:odq="http://opendope.org/questions" xmlns:oda="http://opendope.org/answers" xmlns:odi="http://opendope.org/components" xmlns:odgm="http://opendope.org/SmartArt/DataHierarchy" xmlns:b="http://schemas.openxmlformats.org/officeDocument/2006/bibliography" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11" xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" name="">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1717,7 +1713,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -1746,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -1775,7 +1771,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -1804,7 +1800,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -1960,7 +1956,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -1989,7 +1985,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -2018,7 +2014,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -2047,7 +2043,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -2105,7 +2101,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
@@ -2134,7 +2130,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="2"/>
@@ -2163,7 +2159,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="2"/>
@@ -2244,7 +2240,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -2273,7 +2269,7 @@
         <v>26</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -2302,7 +2298,7 @@
         <v>28</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
@@ -2414,7 +2410,7 @@
         <v>35</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
@@ -2522,7 +2518,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -2686,7 +2682,7 @@
         <v>45</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>
@@ -2715,7 +2711,7 @@
         <v>47</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="2"/>
@@ -6878,7 +6874,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -7084,7 +7080,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -12651,7 +12647,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -12857,7 +12853,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -18360,7 +18356,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -18392,7 +18388,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -18424,7 +18420,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -18456,7 +18452,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -18630,7 +18626,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -18662,7 +18658,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -18944,7 +18940,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -18976,7 +18972,7 @@
         <v>26</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -19136,7 +19132,7 @@
         <v>35</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
@@ -19256,7 +19252,7 @@
         <v>38</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -19438,7 +19434,7 @@
         <v>45</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>
@@ -19913,7 +19909,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -20119,7 +20115,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -31385,7 +31381,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -31417,7 +31413,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -31479,7 +31475,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -31653,7 +31649,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -31685,7 +31681,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -31717,7 +31713,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -31813,7 +31809,7 @@
         <v>18</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
@@ -31845,7 +31841,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="2"/>
@@ -31877,7 +31873,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="2"/>
@@ -31967,7 +31963,7 @@
         <v>24</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -31999,7 +31995,7 @@
         <v>26</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -32031,7 +32027,7 @@
         <v>28</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
@@ -32063,7 +32059,7 @@
         <v>30</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="2"/>
@@ -32095,7 +32091,7 @@
         <v>32</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="2"/>
@@ -32127,7 +32123,7 @@
         <v>33</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="2"/>
@@ -32159,7 +32155,7 @@
         <v>35</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
@@ -32309,7 +32305,7 @@
         <v>40</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="2"/>
@@ -32341,7 +32337,7 @@
         <v>42</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="2"/>
@@ -32489,7 +32485,7 @@
         <v>47</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="2"/>

--- a/数据库SQL.xlsx
+++ b/数据库SQL.xlsx
@@ -30,10 +30,9 @@
   </si>
   <si>
     <t xml:space="preserve">
-SELECT
-    SCHEMA_NAME ownerName
-FROM information_schema.schemata
-ORDER BY SCHEMA_NAME
+select schema_name ownerName
+from information_schema.schemata
+ORDER BY schema_name
 </t>
   </si>
   <si>
@@ -41,10 +40,9 @@
   </si>
   <si>
     <t xml:space="preserve">
-SELECT
-    SCHEMA_NAME ownerName
-FROM information_schema.schemata
-WHERE SCHEMA_NAME={sqlValuePack(ownerName)}
+select schema_name ownerName
+from information_schema.schemata
+WHERE schema_name={sqlValuePack(ownerName)}
 </t>
   </si>
   <si>
@@ -52,11 +50,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-CREATE USER {ownerName} WITH PASSWORD {sqlValuePack(ownerPassword)};
-CREATE SCHEMA {ownerName};
-GRANT USAGE ON SCHEMA {ownerName} TO {ownerName};
-GRANT ALL ON SCHEMA {ownerName} TO {ownerName};
-GRANT ALL ON ALL TABLES IN SCHEMA {ownerName} TO {ownerName};
+CREATE SCHEMA {ownerName}
 </t>
   </si>
   <si>
@@ -64,8 +58,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-DROP SCHEMA IF EXISTS {ownerName} CASCADE;
-DROP USER IF EXISTS {ownerName};
+DROP SCHEMA IF EXISTS {ownerName} CASCADE
 </t>
   </si>
   <si>
@@ -76,25 +69,24 @@
   </si>
   <si>
     <t xml:space="preserve">
-SELECT
-    TABLE_NAME tableName,
-    TABLE_SCHEMA ownerName
+SELECT 
+table_schema ownerName,
+table_name tableName,
 FROM information_schema.tables
-WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
-ORDER BY TABLE_NAME
-</t>
+WHERE ownerName={sqlValuePack(ownerName)}
+ORDER BY table_name </t>
   </si>
   <si>
     <t>TableSelect</t>
   </si>
   <si>
     <t xml:space="preserve">
-SELECT
-    TABLE_NAME tableName,
-    TABLE_SCHEMA ownerName
+SELECT 
+table_schema ownerName,
+table_name tableName,
 FROM information_schema.tables
-WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
-  AND TABLE_NAME={sqlValuePack(tableName)}
+WHERE ownerName={sqlValuePack(ownerName)}
+  AND table_name={sqlValuePack(tableName)}
 </t>
   </si>
   <si>
@@ -157,39 +149,39 @@
   <si>
     <t xml:space="preserve">
 SELECT
-    COLUMN_NAME columnName,
-    COLUMN_DEFAULT columnDefault,
-    TABLE_NAME tableName,
-    TABLE_SCHEMA ownerName,
-    IS_NULLABLE isNullable,
-    DATA_TYPE columnDataType,
-    DATETIME_PRECISION DATETIME_PRECISION,
-    NUMERIC_PRECISION NUMERIC_PRECISION,
-    NUMERIC_SCALE NUMERIC_SCALE,
-    CHARACTER_MAXIMUM_LENGTH CHARACTER_MAXIMUM_LENGTH
+   table_schema ownerName,
+   table_name tableName,
+   column_name columnName,
+   column_default columnDefault,
+    is_nullable isNullable,
+    data_type columnDataType,
+    numeric_precision NUMERIC_PRECISION,
+    numeric_scale NUMERIC_SCALE,
+    character_maximum_length CHARACTER_MAXIMUM_LENGTH
 FROM information_schema.columns
-WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
-  AND TABLE_NAME={sqlValuePack(tableName)}
+WHERE table_schema={sqlValuePack(ownerName)}
+  AND table_name={sqlValuePack(tableName)}
 </t>
   </si>
   <si>
     <t>ColumnSelect</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT
-    COLUMN_NAME columnName,
-    COLUMN_DEFAULT columnDefault,
-    TABLE_NAME tableName,
-    TABLE_SCHEMA ownerName,
-    IS_NULLABLE isNullable,
-    DATA_TYPE columnDataType,
-    NUMERIC_PRECISION NUMERIC_PRECISION,
-    NUMERIC_SCALE NUMERIC_SCALE,
-    CHARACTER_MAXIMUM_LENGTH CHARACTER_MAXIMUM_LENGTH
+    <t xml:space="preserve">
+SELECT
+   table_schema ownerName,
+   table_name tableName,
+   column_name columnName,
+   column_default columnDefault,
+    is_nullable isNullable,
+    data_type columnDataType,
+    numeric_precision NUMERIC_PRECISION,
+    numeric_scale NUMERIC_SCALE,
+    character_maximum_length CHARACTER_MAXIMUM_LENGTH
 FROM information_schema.columns
-WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
-  AND TABLE_NAME={sqlValuePack(tableName)}
-  AND COLUMN_NAME={sqlValuePack(columnName)}
+WHERE table_schema={sqlValuePack(ownerName)}
+  AND table_name={sqlValuePack(tableName)}
+    AND column_name={sqlValuePack(columnName)}
 </t>
   </si>
   <si>
@@ -229,7 +221,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}.]{tableNamePack} ALTER COLUMN {columnNamePack} TYPE {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)}
+ALTER TABLE [{ownerNamePack}.]{tableNamePack} MODIFY {columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)}
 </t>
   </si>
   <si>
@@ -243,16 +235,25 @@
   </si>
   <si>
     <t xml:space="preserve">
-SELECT
-    t2.COLUMN_NAME columnName,
-    t1.TABLE_NAME tableName,
-    t1.TABLE_SCHEMA ownerName
-FROM information_schema.table_constraints t1
-LEFT JOIN information_schema.key_column_usage t2 
-ON (t2.CONSTRAINT_NAME=t1.CONSTRAINT_NAME AND t2.TABLE_SCHEMA=t1.TABLE_SCHEMA AND t2.TABLE_NAME=t1.TABLE_NAME)
-WHERE t1.TABLE_SCHEMA={sqlValuePack(ownerName)}
-  AND t1.TABLE_NAME={sqlValuePack(tableName)}
-  AND t1.CONSTRAINT_TYPE='PRIMARY KEY'
+select
+	pg_attribute.attname as columnName,
+	pg_namespace.nspname  as ownerName,
+	pg_class.relname as tableName
+from
+	pg_constraint
+inner join pg_class on
+	pg_constraint.conrelid = pg_class.oid
+inner join pg_attribute on
+	pg_attribute.attrelid = pg_class.oid
+	and pg_attribute.attnum = any(pg_constraint.conkey)
+inner join pg_type on
+	pg_type.oid = pg_attribute.atttypid
+inner join pg_namespace on
+	pg_namespace.oid = pg_class.relnamespace
+where
+	pg_constraint.contype = 'p'
+    AND pg_namespace.nspname={sqlValuePack(ownerName)}
+    AND pg_class.relname={sqlValuePack(tableName)}
 </t>
   </si>
   <si>
@@ -279,29 +280,21 @@
   </si>
   <si>
     <t xml:space="preserve">
-SELECT 
-    t1.INDEX_NAME indexName,
-    t1.COLUMN_NAME columnName,
-    t1.TABLE_OWNER ownerName,
-    t1.TABLE_NAME tableName,
-    t2.UNIQUENESS 
-FROM ALL_IND_COLUMNS t1
-LEFT JOIN ALL_INDEXES t2 ON (t2.INDEX_NAME = t1.INDEX_NAME)
-LEFT JOIN ALL_CONSTRAINTS t3 ON (t3.CONSTRAINT_NAME = t1.INDEX_NAME)
-WHERE t1.INDEX_NAME IN(
-    SELECT INDEXNAME 
-    FROM SYS_CATALOG.sys_indexes 
-    WHERE SCHEMANAME={sqlValuePack(ownerName)}
-        AND TABLENAME={sqlValuePack(tableName)}
-) 
-	AND t1.INDEX_NAME NOT IN(
-    SELECT
-    t1.CONSTRAINT_NAME
-FROM information_schema.table_constraints t1
-WHERE t1.TABLE_SCHEMA={sqlValuePack(ownerName)}
-  AND t1.TABLE_NAME={sqlValuePack(tableName)}
-  AND t1.CONSTRAINT_TYPE='PRIMARY KEY'
-)
+SELECT
+    na.nspname ownerName,
+    cl.relname tableName,
+    co.conname indexName,
+    co.contype,
+    pg_indexes.indexdef,
+    co.conkey,  --主键字段排序码（pg_attribute.attnum）
+    co.confkey  --外键字段排序码（pg_attribute.attnum）
+FROM pg_catalog.pg_class cl
+     join pg_catalog.pg_namespace na on cl.relnamespace = na.oid
+     join pg_constraint co on co.conrelid = cl.oid
+     join pg_indexes on pg_indexes.indexname = co.conname
+WHERE co.contype!='p'
+    AND na.nspname={sqlValuePack(ownerName)}
+    AND cl.relname={sqlValuePack(tableName)}
 </t>
   </si>
   <si>
@@ -344,7 +337,8 @@
   </si>
   <si>
     <t xml:space="preserve">
-CREATE USER {ownerName} WITH PASSWORD {sqlValuePack(ownerPassword)};
+CREATE USER {ownerName} IDENTIFIED BY {doubleQuotationMarksPack(ownerPassword)};
+GRANT dba,resource,connect TO {ownerName};
 </t>
   </si>
   <si>
@@ -359,8 +353,7 @@
 	OWNER ownerName
 FROM ALL_TABLES
 WHERE OWNER={sqlValuePack(ownerName)}
-ORDER BY TABLE_NAME 
-</t>
+ORDER BY TABLE_NAME </t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -415,11 +408,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}.]{tableNamePack} MODIFY {columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
 SELECT 
     t1.COLUMN_NAME columnName,
     t2.TABLE_NAME tableName,
@@ -445,6 +433,159 @@
 WHERE t1.TABLE_OWNER={sqlValuePack(ownerName)}
 	AND t1.TABLE_NAME={sqlValuePack(tableName)}
 	AND (t3.CONSTRAINT_TYPE !='P' OR t3.CONSTRAINT_TYPE = '' OR t3.CONSTRAINT_TYPE IS NULL)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CREATE USER {doubleQuotationMarksPack(ownerName)} IDENTIFIED BY {doubleQuotationMarksPack(ownerPassword)};
+GRANT DBA TO {doubleQuotationMarksPack(ownerName)};
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT 
+	TABLE_NAME tableName,
+	OWNER ownerName
+FROM ALL_TABLES
+WHERE OWNER={sqlValuePack(ownerName)}
+ORDER BY TABLE_NAME 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT
+    SCHEMA_NAME ownerName
+FROM information_schema.schemata
+ORDER BY SCHEMA_NAME
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT
+    SCHEMA_NAME ownerName
+FROM information_schema.schemata
+WHERE SCHEMA_NAME={sqlValuePack(ownerName)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CREATE USER {ownerName} WITH PASSWORD {sqlValuePack(ownerPassword)};
+CREATE SCHEMA {ownerName};
+GRANT USAGE ON SCHEMA {ownerName} TO {ownerName};
+GRANT ALL ON SCHEMA {ownerName} TO {ownerName};
+GRANT ALL ON ALL TABLES IN SCHEMA {ownerName} TO {ownerName};
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DROP SCHEMA IF EXISTS {ownerName} CASCADE;
+DROP USER IF EXISTS {ownerName};
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT
+    TABLE_NAME tableName,
+    TABLE_SCHEMA ownerName
+FROM information_schema.tables
+WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
+ORDER BY TABLE_NAME
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT
+    TABLE_NAME tableName,
+    TABLE_SCHEMA ownerName
+FROM information_schema.tables
+WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
+  AND TABLE_NAME={sqlValuePack(tableName)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT
+    COLUMN_NAME columnName,
+    COLUMN_DEFAULT columnDefault,
+    TABLE_NAME tableName,
+    TABLE_SCHEMA ownerName,
+    IS_NULLABLE isNullable,
+    DATA_TYPE columnDataType,
+    DATETIME_PRECISION DATETIME_PRECISION,
+    NUMERIC_PRECISION NUMERIC_PRECISION,
+    NUMERIC_SCALE NUMERIC_SCALE,
+    CHARACTER_MAXIMUM_LENGTH CHARACTER_MAXIMUM_LENGTH
+FROM information_schema.columns
+WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
+  AND TABLE_NAME={sqlValuePack(tableName)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT
+    COLUMN_NAME columnName,
+    COLUMN_DEFAULT columnDefault,
+    TABLE_NAME tableName,
+    TABLE_SCHEMA ownerName,
+    IS_NULLABLE isNullable,
+    DATA_TYPE columnDataType,
+    NUMERIC_PRECISION NUMERIC_PRECISION,
+    NUMERIC_SCALE NUMERIC_SCALE,
+    CHARACTER_MAXIMUM_LENGTH CHARACTER_MAXIMUM_LENGTH
+FROM information_schema.columns
+WHERE TABLE_SCHEMA={sqlValuePack(ownerName)}
+  AND TABLE_NAME={sqlValuePack(tableName)}
+  AND COLUMN_NAME={sqlValuePack(columnName)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ALTER TABLE [{ownerNamePack}.]{tableNamePack} ALTER COLUMN {columnNamePack} TYPE {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT
+    t2.COLUMN_NAME columnName,
+    t1.TABLE_NAME tableName,
+    t1.TABLE_SCHEMA ownerName
+FROM information_schema.table_constraints t1
+LEFT JOIN information_schema.key_column_usage t2 
+ON (t2.CONSTRAINT_NAME=t1.CONSTRAINT_NAME AND t2.TABLE_SCHEMA=t1.TABLE_SCHEMA AND t2.TABLE_NAME=t1.TABLE_NAME)
+WHERE t1.TABLE_SCHEMA={sqlValuePack(ownerName)}
+  AND t1.TABLE_NAME={sqlValuePack(tableName)}
+  AND t1.CONSTRAINT_TYPE='PRIMARY KEY'
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT 
+    t1.INDEX_NAME indexName,
+    t1.COLUMN_NAME columnName,
+    t1.TABLE_OWNER ownerName,
+    t1.TABLE_NAME tableName,
+    t2.UNIQUENESS 
+FROM ALL_IND_COLUMNS t1
+LEFT JOIN ALL_INDEXES t2 ON (t2.INDEX_NAME = t1.INDEX_NAME)
+LEFT JOIN ALL_CONSTRAINTS t3 ON (t3.CONSTRAINT_NAME = t1.INDEX_NAME)
+WHERE t1.INDEX_NAME IN(
+    SELECT INDEXNAME 
+    FROM SYS_CATALOG.sys_indexes 
+    WHERE SCHEMANAME={sqlValuePack(ownerName)}
+        AND TABLENAME={sqlValuePack(tableName)}
+) 
+	AND t1.INDEX_NAME NOT IN(
+    SELECT
+    t1.CONSTRAINT_NAME
+FROM information_schema.table_constraints t1
+WHERE t1.TABLE_SCHEMA={sqlValuePack(ownerName)}
+  AND t1.TABLE_NAME={sqlValuePack(tableName)}
+  AND t1.CONSTRAINT_TYPE='PRIMARY KEY'
+)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CREATE USER {ownerName} WITH PASSWORD {sqlValuePack(ownerPassword)};
 </t>
   </si>
   <si>
@@ -702,147 +843,6 @@
     <t xml:space="preserve">
 ALTER TABLE [{ownerNamePack}.]{tableNamePack} ADD {indexType} [{indexNamePack}] ({columnNamesPack}) [COMMENT {sqlValuePack(indexComment)}]
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-CREATE USER {doubleQuotationMarksPack(ownerName)} IDENTIFIED BY {doubleQuotationMarksPack(ownerPassword)};
-GRANT DBA TO {doubleQuotationMarksPack(ownerName)};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-select schema_name ownerName
-from information_schema.schemata
-ORDER BY datname
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-select schema_name ownerName
-from information_schema.schemata
-WHERE schema_name={sqlValuePack(ownerName)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-CREATE SCHEMA {ownerName}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-DROP SCHEMA IF EXISTS {ownerName} CASCADE
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT 
-table_schema ownerName,
-table_name tableName,
-FROM information_schema.tables
-WHERE ownerName={sqlValuePack(ownerName)}
-ORDER BY table_name </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT 
-table_schema ownerName,
-table_name tableName,
-FROM information_schema.tables
-WHERE ownerName={sqlValuePack(ownerName)}
-  AND table_name={sqlValuePack(tableName)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT
-   table_schema ownerName,
-   table_name tableName,
-   column_name columnName,
-   column_default columnDefault,
-    is_nullable isNullable,
-    data_type columnDataType,
-    numeric_precision NUMERIC_PRECISION,
-    numeric_scale NUMERIC_SCALE,
-    character_maximum_length CHARACTER_MAXIMUM_LENGTH
-FROM information_schema.columns
-WHERE table_schema={sqlValuePack(ownerName)}
-  AND table_name={sqlValuePack(tableName)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT
-   table_schema ownerName,
-   table_name tableName,
-   column_name columnName,
-   column_default columnDefault,
-    is_nullable isNullable,
-    data_type columnDataType,
-    numeric_precision NUMERIC_PRECISION,
-    numeric_scale NUMERIC_SCALE,
-    character_maximum_length CHARACTER_MAXIMUM_LENGTH
-FROM information_schema.columns
-WHERE table_schema={sqlValuePack(ownerName)}
-  AND table_name={sqlValuePack(tableName)}
-    AND column_name={sqlValuePack(columnName)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-select
-	pg_attribute.attname as columnName,
-	pg_namespace.nspname  as ownerName,
-	pg_class.relname as tableName
-from
-	pg_constraint
-inner join pg_class on
-	pg_constraint.conrelid = pg_class.oid
-inner join pg_attribute on
-	pg_attribute.attrelid = pg_class.oid
-	and pg_attribute.attnum = any(pg_constraint.conkey)
-inner join pg_type on
-	pg_type.oid = pg_attribute.atttypid
-inner join pg_namespace on
-	pg_namespace.oid = pg_class.relnamespace
-where
-	pg_constraint.contype = 'p'
-    AND pg_namespace.nspname={sqlValuePack(ownerName)}
-    AND pg_class.relname={sqlValuePack(tableName)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT
-    na.nspname ownerName,
-    cl.relname tableName,
-    co.conname indexName,
-    co.contype,
-    pg_indexes.indexdef,
-    co.conkey,  --主键字段排序码（pg_attribute.attnum）
-    co.confkey  --外键字段排序码（pg_attribute.attnum）
-FROM pg_catalog.pg_class cl
-     join pg_catalog.pg_namespace na on cl.relnamespace = na.oid
-     join pg_constraint co on co.conrelid = cl.oid
-     join pg_indexes on pg_indexes.indexname = co.conname
-WHERE co.contype!='p'
-    AND na.nspname={sqlValuePack(ownerName)}
-    AND cl.relname={sqlValuePack(tableName)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-CREATE USER {ownerName} IDENTIFIED BY {doubleQuotationMarksPack(ownerPassword)};
-GRANT dba,resource,connect TO {ownerName};
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT 
-	TABLE_NAME tableName,
-	OWNER ownerName
-FROM ALL_TABLES
-WHERE OWNER={sqlValuePack(ownerName)}
-ORDER BY TABLE_NAME </t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -1930,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -1959,7 +1959,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -1988,7 +1988,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -2017,7 +2017,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -2173,7 +2173,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -2202,7 +2202,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -2231,7 +2231,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -2260,7 +2260,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -2318,7 +2318,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
@@ -2347,7 +2347,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="2"/>
@@ -2376,7 +2376,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="2"/>
@@ -2457,7 +2457,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -2486,7 +2486,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -2515,7 +2515,7 @@
         <v>31</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
@@ -2627,7 +2627,7 @@
         <v>39</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
@@ -2735,7 +2735,7 @@
         <v>43</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -2899,7 +2899,7 @@
         <v>50</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>
@@ -2928,7 +2928,7 @@
         <v>52</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="2"/>
@@ -2957,7 +2957,7 @@
         <v>54</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="2"/>
@@ -12732,7 +12732,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -12938,7 +12938,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -13444,7 +13444,7 @@
         <v>39</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
@@ -13564,7 +13564,7 @@
         <v>43</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -13746,7 +13746,7 @@
         <v>50</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>
@@ -18505,7 +18505,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -18711,7 +18711,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -19217,7 +19217,7 @@
         <v>39</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
@@ -19337,7 +19337,7 @@
         <v>43</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -19519,7 +19519,7 @@
         <v>50</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>
@@ -24214,7 +24214,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -24246,7 +24246,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -24278,7 +24278,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>72</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -24310,7 +24310,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -24484,7 +24484,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -24516,7 +24516,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -24798,7 +24798,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -24830,7 +24830,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -24990,7 +24990,7 @@
         <v>39</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
@@ -25110,7 +25110,7 @@
         <v>43</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -25292,7 +25292,7 @@
         <v>50</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>
@@ -25767,7 +25767,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -25973,7 +25973,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -26479,7 +26479,7 @@
         <v>39</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
@@ -26599,7 +26599,7 @@
         <v>43</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -26781,7 +26781,7 @@
         <v>50</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>
@@ -31476,7 +31476,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -31508,7 +31508,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -31742,7 +31742,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -31774,7 +31774,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -31902,7 +31902,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
@@ -31964,7 +31964,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="2"/>
@@ -32054,7 +32054,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -32086,7 +32086,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -32118,7 +32118,7 @@
         <v>31</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
@@ -32362,7 +32362,7 @@
         <v>43</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -32544,7 +32544,7 @@
         <v>50</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>
@@ -32576,7 +32576,7 @@
         <v>52</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="2"/>
@@ -32608,7 +32608,7 @@
         <v>54</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="2"/>
@@ -43006,7 +43006,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -43038,7 +43038,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -43070,7 +43070,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -43102,7 +43102,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -43276,7 +43276,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -43308,7 +43308,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -43590,7 +43590,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -43622,7 +43622,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -43782,7 +43782,7 @@
         <v>39</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
@@ -43902,7 +43902,7 @@
         <v>43</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -44084,7 +44084,7 @@
         <v>50</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>
@@ -48779,7 +48779,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -48811,7 +48811,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -48843,7 +48843,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -48875,7 +48875,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -49049,7 +49049,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>104</v>
+        <v>11</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -49081,7 +49081,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -49363,7 +49363,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -49395,7 +49395,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -49555,7 +49555,7 @@
         <v>39</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
@@ -49675,7 +49675,7 @@
         <v>43</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -49857,7 +49857,7 @@
         <v>50</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>

--- a/数据库SQL.xlsx
+++ b/数据库SQL.xlsx
@@ -30,9 +30,10 @@
   </si>
   <si>
     <t xml:space="preserve">
-select schema_name ownerName
-from information_schema.schemata
-ORDER BY schema_name
+SELECT 
+	USERNAME ownerName
+FROM DBA_USERS 
+ORDER BY USERNAME
 </t>
   </si>
   <si>
@@ -40,9 +41,10 @@
   </si>
   <si>
     <t xml:space="preserve">
-select schema_name ownerName
-from information_schema.schemata
-WHERE schema_name={sqlValuePack(ownerName)}
+SELECT 
+	USERNAME ownerName
+FROM DBA_USERS 
+WHERE USERNAME={sqlValuePack(ownerName)}
 </t>
   </si>
   <si>
@@ -50,7 +52,8 @@
   </si>
   <si>
     <t xml:space="preserve">
-CREATE SCHEMA {ownerName}
+CREATE USER {ownerName} IDENTIFIED BY {doubleQuotationMarksPack(ownerPassword)};
+GRANT dba,resource,connect TO {ownerName};
 </t>
   </si>
   <si>
@@ -58,7 +61,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-DROP SCHEMA IF EXISTS {ownerName} CASCADE
+DROP USER {ownerName} CASCADE
 </t>
   </si>
   <si>
@@ -70,11 +73,11 @@
   <si>
     <t xml:space="preserve">
 SELECT 
-table_schema ownerName,
-table_name tableName,
-FROM information_schema.tables
-WHERE ownerName={sqlValuePack(ownerName)}
-ORDER BY table_name </t>
+	TABLE_NAME tableName,
+	OWNER ownerName
+FROM ALL_TABLES
+WHERE OWNER={sqlValuePack(ownerName)}
+ORDER BY TABLE_NAME </t>
   </si>
   <si>
     <t>TableSelect</t>
@@ -82,11 +85,11 @@
   <si>
     <t xml:space="preserve">
 SELECT 
-table_schema ownerName,
-table_name tableName,
-FROM information_schema.tables
-WHERE ownerName={sqlValuePack(ownerName)}
-  AND table_name={sqlValuePack(tableName)}
+	TABLE_NAME tableName,
+	OWNER ownerName
+FROM ALL_TABLES
+WHERE OWNER={sqlValuePack(ownerName)}
+  AND TABLE_NAME={sqlValuePack(tableName)}
 </t>
   </si>
   <si>
@@ -148,19 +151,22 @@
   </si>
   <si>
     <t xml:space="preserve">
-SELECT
-   table_schema ownerName,
-   table_name tableName,
-   column_name columnName,
-   column_default columnDefault,
-    is_nullable isNullable,
-    data_type columnDataType,
-    numeric_precision NUMERIC_PRECISION,
-    numeric_scale NUMERIC_SCALE,
-    character_maximum_length CHARACTER_MAXIMUM_LENGTH
-FROM information_schema.columns
-WHERE table_schema={sqlValuePack(ownerName)}
-  AND table_name={sqlValuePack(tableName)}
+SELECT 
+	t.COLUMN_NAME columnName,
+	t.DATA_DEFAULT columnDefault,
+	t.CHARACTER_SET_NAME columnCharacterSetName,
+	t.NULLABLE isNullable,
+	t.DATA_TYPE columnDataType,
+	t.DATA_LENGTH,
+	t.DATA_PRECISION,
+	t.DATA_SCALE,
+	tc.COMMENTS columnComment,
+	t.TABLE_NAME tableName,
+	t.OWNER ownerName
+FROM ALL_TAB_COLUMNS t
+LEFT JOIN ALL_COL_COMMENTS tc ON(tc.OWNER=t.OWNER AND tc.TABLE_NAME=t.TABLE_NAME AND tc.COLUMN_NAME=t.COLUMN_NAME)
+WHERE t.OWNER={sqlValuePack(ownerName)}
+    AND t.TABLE_NAME={sqlValuePack(tableName)}
 </t>
   </si>
   <si>
@@ -168,20 +174,23 @@
   </si>
   <si>
     <t xml:space="preserve">
-SELECT
-   table_schema ownerName,
-   table_name tableName,
-   column_name columnName,
-   column_default columnDefault,
-    is_nullable isNullable,
-    data_type columnDataType,
-    numeric_precision NUMERIC_PRECISION,
-    numeric_scale NUMERIC_SCALE,
-    character_maximum_length CHARACTER_MAXIMUM_LENGTH
-FROM information_schema.columns
-WHERE table_schema={sqlValuePack(ownerName)}
-  AND table_name={sqlValuePack(tableName)}
-    AND column_name={sqlValuePack(columnName)}
+SELECT 
+	t.COLUMN_NAME columnName,
+	t.DATA_DEFAULT columnDefault,
+	t.CHARACTER_SET_NAME columnCharacterSetName,
+	t.NULLABLE isNullable,
+	t.DATA_TYPE columnDataType,
+	t.DATA_LENGTH,
+	t.DATA_PRECISION,
+	t.DATA_SCALE,
+	tc.COMMENTS columnComment,
+	t.TABLE_NAME tableName,
+	t.OWNER ownerName
+FROM ALL_TAB_COLUMNS t
+LEFT JOIN ALL_COL_COMMENTS tc ON(tc.OWNER=t.OWNER AND tc.TABLE_NAME=t.TABLE_NAME AND tc.COLUMN_NAME=t.COLUMN_NAME)
+WHERE t.OWNER={sqlValuePack(ownerName)}
+    AND t.TABLE_NAME={sqlValuePack(tableName)}
+    AND t.COLUMN_NAME={sqlValuePack(columnName)}
 </t>
   </si>
   <si>
@@ -235,25 +244,15 @@
   </si>
   <si>
     <t xml:space="preserve">
-select
-	pg_attribute.attname as columnName,
-	pg_namespace.nspname  as ownerName,
-	pg_class.relname as tableName
-from
-	pg_constraint
-inner join pg_class on
-	pg_constraint.conrelid = pg_class.oid
-inner join pg_attribute on
-	pg_attribute.attrelid = pg_class.oid
-	and pg_attribute.attnum = any(pg_constraint.conkey)
-inner join pg_type on
-	pg_type.oid = pg_attribute.atttypid
-inner join pg_namespace on
-	pg_namespace.oid = pg_class.relnamespace
-where
-	pg_constraint.contype = 'p'
-    AND pg_namespace.nspname={sqlValuePack(ownerName)}
-    AND pg_class.relname={sqlValuePack(tableName)}
+SELECT 
+    t1.COLUMN_NAME columnName,
+    t2.TABLE_NAME tableName,
+    t2.OWNER ownerName
+FROM ALL_CONS_COLUMNS t1
+LEFT JOIN ALL_CONSTRAINTS t2 ON (t2.CONSTRAINT_NAME = t1.CONSTRAINT_NAME)
+WHERE t2.OWNER={sqlValuePack(ownerName)}
+	AND t2.TABLE_NAME={sqlValuePack(tableName)}
+	AND t2.CONSTRAINT_TYPE = 'P'
 </t>
   </si>
   <si>
@@ -280,21 +279,18 @@
   </si>
   <si>
     <t xml:space="preserve">
-SELECT
-    na.nspname ownerName,
-    cl.relname tableName,
-    co.conname indexName,
-    co.contype,
-    pg_indexes.indexdef,
-    co.conkey,  --主键字段排序码（pg_attribute.attnum）
-    co.confkey  --外键字段排序码（pg_attribute.attnum）
-FROM pg_catalog.pg_class cl
-     join pg_catalog.pg_namespace na on cl.relnamespace = na.oid
-     join pg_constraint co on co.conrelid = cl.oid
-     join pg_indexes on pg_indexes.indexname = co.conname
-WHERE co.contype!='p'
-    AND na.nspname={sqlValuePack(ownerName)}
-    AND cl.relname={sqlValuePack(tableName)}
+SELECT 
+    t1.INDEX_NAME indexName,
+    t1.COLUMN_NAME columnName,
+    t1.TABLE_OWNER ownerName,
+    t1.TABLE_NAME tableName,
+    t2.UNIQUENESS 
+FROM ALL_IND_COLUMNS t1
+LEFT JOIN ALL_INDEXES t2 ON (t2.INDEX_NAME = t1.INDEX_NAME)
+LEFT JOIN ALL_CONSTRAINTS t3 ON (t3.CONSTRAINT_NAME = t1.INDEX_NAME)
+WHERE t1.TABLE_OWNER={sqlValuePack(ownerName)}
+	AND t1.TABLE_NAME={sqlValuePack(tableName)}
+	AND (t3.CONSTRAINT_TYPE !='P' OR t3.CONSTRAINT_TYPE = '' OR t3.CONSTRAINT_TYPE IS NULL)
 </t>
   </si>
   <si>
@@ -321,134 +317,141 @@
   </si>
   <si>
     <t xml:space="preserve">
-SELECT 
-	USERNAME ownerName
-FROM DBA_USERS 
-ORDER BY USERNAME
+select  trim(name) as "ownerName" 
+from sysmaster:sysdatabases
+ORDER BY name
 </t>
   </si>
   <si>
     <t xml:space="preserve">
-SELECT 
-	USERNAME ownerName
-FROM DBA_USERS 
-WHERE USERNAME={sqlValuePack(ownerName)}
+select  trim(name) as "ownerName" 
+from sysmaster:sysdatabases
+WHERE name={sqlValuePack(ownerName)}
 </t>
   </si>
   <si>
     <t xml:space="preserve">
-CREATE USER {ownerName} IDENTIFIED BY {doubleQuotationMarksPack(ownerPassword)};
-GRANT dba,resource,connect TO {ownerName};
+DROP DATABASE {ownerName}
 </t>
   </si>
   <si>
     <t xml:space="preserve">
-DROP USER {ownerName} CASCADE
+select  trim(tabname) as "tableName"
+ from {ownerNamePack}:systables 
+ORDER BY tabname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+select  trim(tabname) as "tableName"
+ from {ownerNamePack}:systables 
+WHERE
+  tabname={sqlValuePack(tableName)}
 </t>
   </si>
   <si>
     <t xml:space="preserve">
-SELECT 
-	TABLE_NAME tableName,
-	OWNER ownerName
-FROM ALL_TABLES
-WHERE OWNER={sqlValuePack(ownerName)}
-ORDER BY TABLE_NAME </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT 
-	TABLE_NAME tableName,
-	OWNER ownerName
-FROM ALL_TABLES
-WHERE OWNER={sqlValuePack(ownerName)}
-  AND TABLE_NAME={sqlValuePack(tableName)}
+CREATE TABLE [{ownerNamePack}:]{tableNamePack}(
+{ tableCreateColumnContent }
+{ tableCreatePrimaryKeyContent }
+)
 </t>
   </si>
   <si>
     <t xml:space="preserve">
-SELECT 
-	t.COLUMN_NAME columnName,
-	t.DATA_DEFAULT columnDefault,
-	t.CHARACTER_SET_NAME columnCharacterSetName,
-	t.NULLABLE isNullable,
-	t.DATA_TYPE columnDataType,
-	t.DATA_LENGTH,
-	t.DATA_PRECISION,
-	t.DATA_SCALE,
-	tc.COMMENTS columnComment,
-	t.TABLE_NAME tableName,
-	t.OWNER ownerName
-FROM ALL_TAB_COLUMNS t
-LEFT JOIN ALL_COL_COMMENTS tc ON(tc.OWNER=t.OWNER AND tc.TABLE_NAME=t.TABLE_NAME AND tc.COLUMN_NAME=t.COLUMN_NAME)
-WHERE t.OWNER={sqlValuePack(ownerName)}
-    AND t.TABLE_NAME={sqlValuePack(tableName)}
+DROP TABLE [{ownerNamePack}:]{tableNamePack}
 </t>
   </si>
   <si>
     <t xml:space="preserve">
-SELECT 
-	t.COLUMN_NAME columnName,
-	t.DATA_DEFAULT columnDefault,
-	t.CHARACTER_SET_NAME columnCharacterSetName,
-	t.NULLABLE isNullable,
-	t.DATA_TYPE columnDataType,
-	t.DATA_LENGTH,
-	t.DATA_PRECISION,
-	t.DATA_SCALE,
-	tc.COMMENTS columnComment,
-	t.TABLE_NAME tableName,
-	t.OWNER ownerName
-FROM ALL_TAB_COLUMNS t
-LEFT JOIN ALL_COL_COMMENTS tc ON(tc.OWNER=t.OWNER AND tc.TABLE_NAME=t.TABLE_NAME AND tc.COLUMN_NAME=t.COLUMN_NAME)
-WHERE t.OWNER={sqlValuePack(ownerName)}
-    AND t.TABLE_NAME={sqlValuePack(tableName)}
-    AND t.COLUMN_NAME={sqlValuePack(columnName)}
+COMMENT ON TABLE [{ownerNamePack}:]{tableNamePack} IS {sqlValuePack(tableComment)}
 </t>
   </si>
   <si>
     <t xml:space="preserve">
-SELECT 
-    t1.COLUMN_NAME columnName,
-    t2.TABLE_NAME tableName,
-    t2.OWNER ownerName
-FROM ALL_CONS_COLUMNS t1
-LEFT JOIN ALL_CONSTRAINTS t2 ON (t2.CONSTRAINT_NAME = t1.CONSTRAINT_NAME)
-WHERE t2.OWNER={sqlValuePack(ownerName)}
-	AND t2.TABLE_NAME={sqlValuePack(tableName)}
-	AND t2.CONSTRAINT_TYPE = 'P'
+ALTER TABLE [{ownerNamePack}:]{oldTableNamePack} RENAME TO {tableNamePack}
 </t>
   </si>
   <si>
     <t xml:space="preserve">
-SELECT 
-    t1.INDEX_NAME indexName,
-    t1.COLUMN_NAME columnName,
-    t1.TABLE_OWNER ownerName,
-    t1.TABLE_NAME tableName,
-    t2.UNIQUENESS 
-FROM ALL_IND_COLUMNS t1
-LEFT JOIN ALL_INDEXES t2 ON (t2.INDEX_NAME = t1.INDEX_NAME)
-LEFT JOIN ALL_CONSTRAINTS t3 ON (t3.CONSTRAINT_NAME = t1.INDEX_NAME)
-WHERE t1.TABLE_OWNER={sqlValuePack(ownerName)}
-	AND t1.TABLE_NAME={sqlValuePack(tableName)}
-	AND (t3.CONSTRAINT_TYPE !='P' OR t3.CONSTRAINT_TYPE = '' OR t3.CONSTRAINT_TYPE IS NULL)
+select 
+  trim(t.tabname) as "tableName",
+  trim(c.colname) as "columnName",
+  trim(d.default) as "columnDefault",
+  get_colname(c.coltype ,c.collength ,c.extended_id ,1 ) as "columnType",
+  cs_null.constrtype  as notNull,
+  c.collength as "DATA_LENGTH",
+  c.colno as sortNo
+ from {ownerNamePack}:systables t
+ left join {ownerNamePack}:syscolumns c on c.tabid = t.tabid
+ left join {ownerNamePack}:sysdefaults d on (t.tabid = d.tabid and c.colno = d.colno)
+ left join {ownerNamePack}:syscoldepend cd on (c.tabid = cd.tabid and c.colno = cd.colno)
+ left join {ownerNamePack}:sysxtdtypes xt on c.extended_id = xt.extended_id
+ left join {ownerNamePack}:sysseclabels e on c.seclabelid = e.seclabelid
+ left join {ownerNamePack}:sysconstraints cs_null on (cd.tabid = cs_null.tabid and cd.constrid = cs_null.constrid  and cs_null.constrtype = 'N')
+WHERE
+    t.tabname={sqlValuePack(tableName)}
 </t>
   </si>
   <si>
     <t xml:space="preserve">
-CREATE USER {doubleQuotationMarksPack(ownerName)} IDENTIFIED BY {doubleQuotationMarksPack(ownerPassword)};
-GRANT DBA TO {doubleQuotationMarksPack(ownerName)};
+select 
+  trim(t.tabname) as "tableName",
+  trim(c.colname) as "columnName",
+  trim(d.default) as "columnDefault",
+  get_colname(c.coltype ,c.collength ,c.extended_id ,1 ) as "columnType",
+  cs_null.constrtype  as notNull,
+  c.collength as "DATA_LENGTH",
+  c.colno as sortNo
+ from {ownerNamePack}:systables t
+ left join {ownerNamePack}:syscolumns c on c.tabid = t.tabid
+ left join {ownerNamePack}:sysdefaults d on (t.tabid = d.tabid and c.colno = d.colno)
+ left join {ownerNamePack}:syscoldepend cd on (c.tabid = cd.tabid and c.colno = cd.colno)
+ left join {ownerNamePack}:sysxtdtypes xt on c.extended_id = xt.extended_id
+ left join {ownerNamePack}:sysseclabels e on c.seclabelid = e.seclabelid
+ left join {ownerNamePack}:sysconstraints cs_null on (cd.tabid = cs_null.tabid and cd.constrid = cs_null.constrid  and cs_null.constrtype = 'N')
+WHERE
+    t.tabname={sqlValuePack(tableName)}
+    AND t.colname={sqlValuePack(columnName)}
 </t>
   </si>
   <si>
     <t xml:space="preserve">
-SELECT 
-	TABLE_NAME tableName,
-	OWNER ownerName
-FROM ALL_TABLES
-WHERE OWNER={sqlValuePack(ownerName)}
-ORDER BY TABLE_NAME 
+ALTER TABLE [{ownerNamePack}:]{tableNamePack} ADD {columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ALTER TABLE [{ownerNamePack}:]{tableNamePack} DROP COLUMN {columnNamePack}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+COMMENT ON COLUMN [{ownerNamePack}:]{tableNamePack}.{columnNamePack} IS {sqlValuePack(columnComment)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ALTER TABLE [{ownerNamePack}:]{tableNamePack} RENAME COLUMN {oldColumnNamePack} TO {columnNamePack}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ALTER TABLE [{ownerNamePack}:]{tableNamePack} MODIFY {columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ALTER TABLE [{ownerName}:]{tableName} ADD PRIMARY KEY ({columnNamesPack})
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ALTER TABLE [{ownerName}:]{tableName} DROP PRIMARY KEY
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CREATE {indexType} [{indexNamePack}] ON [{ownerNamePack}:]{tableNamePack} ({columnNamesPack})
 </t>
   </si>
   <si>
@@ -585,108 +588,112 @@
   </si>
   <si>
     <t xml:space="preserve">
-CREATE USER {ownerName} WITH PASSWORD {sqlValuePack(ownerPassword)};
+select schema_name ownerName
+from information_schema.schemata
+ORDER BY schema_name
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+select schema_name ownerName
+from information_schema.schemata
+WHERE schema_name={sqlValuePack(ownerName)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CREATE SCHEMA {ownerName}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DROP SCHEMA IF EXISTS {ownerName} CASCADE
 </t>
   </si>
   <si>
     <t xml:space="preserve">
 SELECT 
-	name ownerName
-FROM pragma_database_list AS t_i 
-ORDER BY name
+table_schema ownerName,
+table_name tableName
+FROM information_schema.tables
+WHERE ownerName={sqlValuePack(ownerName)}
+ORDER BY table_name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT
+   table_schema ownerName,
+   table_name tableName,
+   column_name columnName,
+   column_default columnDefault,
+    is_nullable isNullable,
+    data_type columnDataType,
+    numeric_precision NUMERIC_PRECISION,
+    numeric_scale NUMERIC_SCALE,
+    character_maximum_length CHARACTER_MAXIMUM_LENGTH
+FROM information_schema.columns
+WHERE table_schema={sqlValuePack(ownerName)}
+  AND table_name={sqlValuePack(tableName)}
 </t>
   </si>
   <si>
     <t xml:space="preserve">
-SELECT 
-	name ownerName
-FROM pragma_database_list AS t_i 
-WHERE name={sqlValuePack(ownerName)}
+SELECT
+   table_schema ownerName,
+   table_name tableName,
+   column_name columnName,
+   column_default columnDefault,
+    is_nullable isNullable,
+    data_type columnDataType,
+    numeric_precision NUMERIC_PRECISION,
+    numeric_scale NUMERIC_SCALE,
+    character_maximum_length CHARACTER_MAXIMUM_LENGTH
+FROM information_schema.columns
+WHERE table_schema={sqlValuePack(ownerName)}
+  AND table_name={sqlValuePack(tableName)}
+    AND column_name={sqlValuePack(columnName)}
 </t>
   </si>
   <si>
     <t xml:space="preserve">
-SELECT 
-	name tableName,
-    sql 
-FROM sqlite_master 
-WHERE type ='table'
-ORDER BY name
+select
+	pg_attribute.attname as columnName,
+	pg_namespace.nspname  as ownerName,
+	pg_class.relname as tableName
+from
+	pg_constraint
+inner join pg_class on
+	pg_constraint.conrelid = pg_class.oid
+inner join pg_attribute on
+	pg_attribute.attrelid = pg_class.oid
+	and pg_attribute.attnum = any(pg_constraint.conkey)
+inner join pg_type on
+	pg_type.oid = pg_attribute.atttypid
+inner join pg_namespace on
+	pg_namespace.oid = pg_class.relnamespace
+where
+	pg_constraint.contype = 'p'
+    AND pg_namespace.nspname={sqlValuePack(ownerName)}
+    AND pg_class.relname={sqlValuePack(tableName)}
 </t>
   </si>
   <si>
     <t xml:space="preserve">
-SELECT 
-	name tableName,
-    sql 
-FROM sqlite_master 
-WHERE type ='table'
-  AND name={sqlValuePack(tableName)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-DROP TABLE IF EXISTS [{ownerName}.]{tableName}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ALTER TABLE [{ownerName}.]{oldTableName} RENAME AS {newTableName}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT 
-	name columnName,
-	dflt_value columnDefault,
-	"notnull" isNotNull,
-	type columnType
-FROM pragma_table_info({tableNamePack}) AS t_i 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT 
-	name columnName,
-	dflt_value columnDefault,
-	"notnull" isNotNull,
-	type columnType
-FROM pragma_table_info({tableNamePack}) AS t_i 
-WHERE name={sqlValuePack(columnName)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}.]{tableNamePack} ADD COLUMN {columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT 
-	a.name indexName,
-	b.name columnName 
-FROM pragma_index_list({tableNamePack}) AS a,pragma_index_info(a.name) b 
-WHERE a.origin = "pk"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-SELECT 
-	a.name indexName,
-	a."unique" isUnique,
-	b.name columnName 
-FROM pragma_index_list({tableNamePack}) AS a,pragma_index_info(a.name) b 
-WHERE a.origin != "pk"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-CREATE {indexType} [{indexNamePack}] ON {tableNamePack}({columnNamesPack})
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}.]{tableNamePack} DROP INDEX {indexNamePack}
+SELECT
+    na.nspname ownerName,
+    cl.relname tableName,
+    co.conname indexName,
+    co.contype,
+    pg_indexes.indexdef,
+    co.conkey,  --主键字段排序码（pg_attribute.attnum）
+    co.confkey  --外键字段排序码（pg_attribute.attnum）
+FROM pg_catalog.pg_class cl
+     join pg_catalog.pg_namespace na on cl.relnamespace = na.oid
+     join pg_constraint co on co.conrelid = cl.oid
+     join pg_indexes on pg_indexes.indexname = co.conname
+WHERE co.contype!='p'
+    AND na.nspname={sqlValuePack(ownerName)}
+    AND cl.relname={sqlValuePack(tableName)}
 </t>
   </si>
   <si>
@@ -846,141 +853,134 @@
   </si>
   <si>
     <t xml:space="preserve">
-select  trim(name) as "ownerName" 
-from sysmaster:sysdatabases
+ALTER TABLE [{ownerNamePack}.]{tableNamePack} DROP INDEX {indexNamePack}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CREATE USER {ownerName} WITH PASSWORD {sqlValuePack(ownerPassword)};
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT 
+	TABLE_NAME tableName,
+	OWNER ownerName
+FROM ALL_TABLES
+WHERE OWNER={sqlValuePack(ownerName)}
+ORDER BY TABLE_NAME 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT 
+table_schema ownerName,
+table_name tableName
+FROM information_schema.tables
+WHERE ownerName={sqlValuePack(ownerName)}
+  AND table_name={sqlValuePack(tableName)}
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CREATE USER {doubleQuotationMarksPack(ownerName)} IDENTIFIED BY {doubleQuotationMarksPack(ownerPassword)};
+GRANT DBA TO {doubleQuotationMarksPack(ownerName)};
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+SELECT 
+	name ownerName
+FROM pragma_database_list AS t_i 
 ORDER BY name
 </t>
   </si>
   <si>
     <t xml:space="preserve">
-select  trim(name) as "ownerName" 
-from sysmaster:sysdatabases
+SELECT 
+	name ownerName
+FROM pragma_database_list AS t_i 
 WHERE name={sqlValuePack(ownerName)}
 </t>
   </si>
   <si>
     <t xml:space="preserve">
-DROP DATABASE {ownerName}
+SELECT 
+	name tableName,
+    sql 
+FROM sqlite_master 
+WHERE type ='table'
+ORDER BY name
 </t>
   </si>
   <si>
     <t xml:space="preserve">
-select  trim(tabname) as "tableName"
- from {ownerNamePack}:systables 
-ORDER BY tabname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-select  trim(tabname) as "tableName"
- from {ownerNamePack}:systables 
-WHERE
-  tabname={sqlValuePack(tableName)}
+SELECT 
+	name tableName,
+    sql 
+FROM sqlite_master 
+WHERE type ='table'
+  AND name={sqlValuePack(tableName)}
 </t>
   </si>
   <si>
     <t xml:space="preserve">
-CREATE TABLE [{ownerNamePack}:]{tableNamePack}(
-{ tableCreateColumnContent }
-{ tableCreatePrimaryKeyContent }
-)
+DROP TABLE IF EXISTS [{ownerName}.]{tableName}
 </t>
   </si>
   <si>
     <t xml:space="preserve">
-DROP TABLE [{ownerNamePack}:]{tableNamePack}
+ALTER TABLE [{ownerName}.]{oldTableName} RENAME AS {newTableName}
 </t>
   </si>
   <si>
     <t xml:space="preserve">
-COMMENT ON TABLE [{ownerNamePack}:]{tableNamePack} IS {sqlValuePack(tableComment)}
+SELECT 
+	name columnName,
+	dflt_value columnDefault,
+	"notnull" isNotNull,
+	type columnType
+FROM pragma_table_info({tableNamePack}) AS t_i 
 </t>
   </si>
   <si>
     <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}:]{oldTableNamePack} RENAME TO {tableNamePack}
+SELECT 
+	name columnName,
+	dflt_value columnDefault,
+	"notnull" isNotNull,
+	type columnType
+FROM pragma_table_info({tableNamePack}) AS t_i 
+WHERE name={sqlValuePack(columnName)}
 </t>
   </si>
   <si>
     <t xml:space="preserve">
-select 
-  trim(t.tabname) as "tableName",
-  trim(c.colname) as "columnName",
-  trim(d.default) as "columnDefault",
-  get_colname(c.coltype ,c.collength ,c.extended_id ,1 ) as "columnType",
-  cs_null.constrtype  as notNull,
-  c.collength as "DATA_LENGTH",
-  c.colno as sortNo
- from {ownerNamePack}:systables t
- left join {ownerNamePack}:syscolumns c on c.tabid = t.tabid
- left join {ownerNamePack}:sysdefaults d on (t.tabid = d.tabid and c.colno = d.colno)
- left join {ownerNamePack}:syscoldepend cd on (c.tabid = cd.tabid and c.colno = cd.colno)
- left join {ownerNamePack}:sysxtdtypes xt on c.extended_id = xt.extended_id
- left join {ownerNamePack}:sysseclabels e on c.seclabelid = e.seclabelid
- left join {ownerNamePack}:sysconstraints cs_null on (cd.tabid = cs_null.tabid and cd.constrid = cs_null.constrid  and cs_null.constrtype = 'N')
-WHERE
-    t.tabname={sqlValuePack(tableName)}
+ALTER TABLE [{ownerNamePack}.]{tableNamePack} ADD COLUMN {columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)}
 </t>
   </si>
   <si>
     <t xml:space="preserve">
-select 
-  trim(t.tabname) as "tableName",
-  trim(c.colname) as "columnName",
-  trim(d.default) as "columnDefault",
-  get_colname(c.coltype ,c.collength ,c.extended_id ,1 ) as "columnType",
-  cs_null.constrtype  as notNull,
-  c.collength as "DATA_LENGTH",
-  c.colno as sortNo
- from {ownerNamePack}:systables t
- left join {ownerNamePack}:syscolumns c on c.tabid = t.tabid
- left join {ownerNamePack}:sysdefaults d on (t.tabid = d.tabid and c.colno = d.colno)
- left join {ownerNamePack}:syscoldepend cd on (c.tabid = cd.tabid and c.colno = cd.colno)
- left join {ownerNamePack}:sysxtdtypes xt on c.extended_id = xt.extended_id
- left join {ownerNamePack}:sysseclabels e on c.seclabelid = e.seclabelid
- left join {ownerNamePack}:sysconstraints cs_null on (cd.tabid = cs_null.tabid and cd.constrid = cs_null.constrid  and cs_null.constrtype = 'N')
-WHERE
-    t.tabname={sqlValuePack(tableName)}
-    AND t.colname={sqlValuePack(columnName)}
+SELECT 
+	a.name indexName,
+	b.name columnName 
+FROM pragma_index_list({tableNamePack}) AS a,pragma_index_info(a.name) b 
+WHERE a.origin = "pk"
 </t>
   </si>
   <si>
     <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}:]{tableNamePack} ADD {columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)}
+SELECT 
+	a.name indexName,
+	a."unique" isUnique,
+	b.name columnName 
+FROM pragma_index_list({tableNamePack}) AS a,pragma_index_info(a.name) b 
+WHERE a.origin != "pk"
 </t>
   </si>
   <si>
     <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}:]{tableNamePack} DROP COLUMN {columnNamePack}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-COMMENT ON COLUMN [{ownerNamePack}:]{tableNamePack}.{columnNamePack} IS {sqlValuePack(columnComment)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}:]{tableNamePack} RENAME COLUMN {oldColumnNamePack} TO {columnNamePack}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ALTER TABLE [{ownerNamePack}:]{tableNamePack} MODIFY {columnNamePack} {columnTypePack} [DEFAULT {columnDefaultPack}] {columnNotNull(columnNotNull)}
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ALTER TABLE [{ownerName}:]{tableName} ADD PRIMARY KEY ({columnNamesPack})
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-ALTER TABLE [{ownerName}:]{tableName} DROP PRIMARY KEY
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-CREATE {indexType} [{indexNamePack}] ON [{ownerNamePack}:]{tableNamePack} ({columnNamesPack})
+CREATE {indexType} [{indexNamePack}] ON {tableNamePack}({columnNamesPack})
 </t>
   </si>
   <si>
@@ -1930,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -1959,7 +1959,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -1988,7 +1988,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -2017,7 +2017,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -2173,7 +2173,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -2202,7 +2202,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -2231,7 +2231,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -2260,7 +2260,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="2"/>
@@ -2318,7 +2318,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
@@ -2347,7 +2347,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="2"/>
@@ -2376,7 +2376,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="2"/>
@@ -2457,7 +2457,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -2486,7 +2486,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -2515,7 +2515,7 @@
         <v>31</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
@@ -2627,7 +2627,7 @@
         <v>39</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
@@ -2735,7 +2735,7 @@
         <v>43</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -2899,7 +2899,7 @@
         <v>50</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>
@@ -2928,7 +2928,7 @@
         <v>52</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="2"/>
@@ -2957,7 +2957,7 @@
         <v>54</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="2"/>
@@ -12668,7 +12668,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -12700,7 +12700,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -12732,7 +12732,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -12764,7 +12764,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -12938,7 +12938,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -12970,7 +12970,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -13252,7 +13252,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -13284,7 +13284,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -13564,7 +13564,7 @@
         <v>43</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -13746,7 +13746,7 @@
         <v>50</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>
@@ -18441,7 +18441,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -18473,7 +18473,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -18505,7 +18505,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -18537,7 +18537,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -18711,7 +18711,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -18743,7 +18743,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -19025,7 +19025,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -19057,7 +19057,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -19337,7 +19337,7 @@
         <v>43</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -19519,7 +19519,7 @@
         <v>50</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>
@@ -24214,7 +24214,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -24246,7 +24246,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -24278,7 +24278,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -24310,7 +24310,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -24484,7 +24484,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -24516,7 +24516,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -24798,7 +24798,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -24830,7 +24830,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -24990,7 +24990,7 @@
         <v>39</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
@@ -25110,7 +25110,7 @@
         <v>43</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -25292,7 +25292,7 @@
         <v>50</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>
@@ -25703,7 +25703,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -25735,7 +25735,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -25767,7 +25767,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -25799,7 +25799,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -25973,7 +25973,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -26005,7 +26005,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -26287,7 +26287,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -26319,7 +26319,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -26599,7 +26599,7 @@
         <v>43</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -26781,7 +26781,7 @@
         <v>50</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>
@@ -31476,7 +31476,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -31508,7 +31508,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -31742,7 +31742,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -31774,7 +31774,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -31902,7 +31902,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
@@ -31964,7 +31964,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="2"/>
@@ -32054,7 +32054,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -32086,7 +32086,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -32118,7 +32118,7 @@
         <v>31</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
@@ -32362,7 +32362,7 @@
         <v>43</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -32544,7 +32544,7 @@
         <v>50</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>
@@ -32576,7 +32576,7 @@
         <v>52</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="2"/>
@@ -32608,7 +32608,7 @@
         <v>54</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="D39" s="5"/>
       <c r="E39" s="2"/>
@@ -37239,7 +37239,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -37271,7 +37271,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -37333,7 +37333,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>114</v>
+        <v>60</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -37507,7 +37507,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -37539,7 +37539,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>116</v>
+        <v>62</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -37571,7 +37571,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="2"/>
@@ -37667,7 +37667,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="2"/>
@@ -37699,7 +37699,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>119</v>
+        <v>65</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="2"/>
@@ -37731,7 +37731,7 @@
         <v>24</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="2"/>
@@ -37821,7 +37821,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -37853,7 +37853,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -37885,7 +37885,7 @@
         <v>31</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="2"/>
@@ -37917,7 +37917,7 @@
         <v>33</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="2"/>
@@ -37949,7 +37949,7 @@
         <v>35</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>125</v>
+        <v>71</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="2"/>
@@ -37981,7 +37981,7 @@
         <v>37</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="2"/>
@@ -38013,7 +38013,7 @@
         <v>39</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="2"/>
@@ -38163,7 +38163,7 @@
         <v>45</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="2"/>
@@ -38195,7 +38195,7 @@
         <v>47</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>129</v>
+        <v>75</v>
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="2"/>
@@ -38343,7 +38343,7 @@
         <v>52</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="2"/>
@@ -43006,7 +43006,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -43038,7 +43038,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -43070,7 +43070,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -43102,7 +43102,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -43276,7 +43276,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -43308,7 +43308,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -43590,7 +43590,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -43622,7 +43622,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -43902,7 +43902,7 @@
         <v>43</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -44084,7 +44084,7 @@
         <v>50</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>
@@ -48779,7 +48779,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2</v>
+        <v>88</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="2"/>
@@ -48811,7 +48811,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="2"/>
@@ -48843,7 +48843,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="2"/>
@@ -48875,7 +48875,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -49049,7 +49049,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="2"/>
@@ -49081,7 +49081,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="2"/>
@@ -49363,7 +49363,7 @@
         <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="2"/>
@@ -49395,7 +49395,7 @@
         <v>29</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="2"/>
@@ -49675,7 +49675,7 @@
         <v>43</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="2"/>
@@ -49857,7 +49857,7 @@
         <v>50</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="2"/>
